--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="560">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -117,6 +117,12 @@
     <t>담당자</t>
   </si>
   <si>
+    <t>Name 수정 ,AddFoodName 수정</t>
+  </si>
+  <si>
+    <t>맘파</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -126,492 +132,756 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
     <t>샌드위치</t>
   </si>
   <si>
     <t>42,45</t>
   </si>
   <si>
+    <t>Cheese_Sandwich</t>
+  </si>
+  <si>
     <t>치즈 샌드위치</t>
   </si>
   <si>
     <t>38,57</t>
   </si>
   <si>
+    <t>Fruit_Sandwich</t>
+  </si>
+  <si>
     <t>과일 샌드위치</t>
   </si>
   <si>
     <t>38,57,63</t>
   </si>
   <si>
+    <t>Potato_Sandwich</t>
+  </si>
+  <si>
     <t>감자 샌드위치</t>
   </si>
   <si>
     <t>38,57,40</t>
   </si>
   <si>
+    <t>Fish_Sandwich</t>
+  </si>
+  <si>
     <t>생선 샌드위치</t>
   </si>
   <si>
     <t>38,57,44</t>
   </si>
   <si>
+    <t>Tomato_Sandwich</t>
+  </si>
+  <si>
     <t>토마토 샌드위치</t>
   </si>
   <si>
     <t>38,57,62</t>
   </si>
   <si>
+    <t>Meat_Sandwich</t>
+  </si>
+  <si>
     <t>고기 샌드위치</t>
   </si>
   <si>
-    <t>38,28</t>
+    <t>28,28</t>
+  </si>
+  <si>
+    <t>Cut_Bread</t>
   </si>
   <si>
     <t>썰린 빵</t>
   </si>
   <si>
+    <t>Cut_Lettuce</t>
+  </si>
+  <si>
     <t>썰린 양상추</t>
   </si>
   <si>
+    <t>Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 치즈</t>
   </si>
   <si>
+    <t>Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 파인애플</t>
   </si>
   <si>
+    <t>Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 감자</t>
   </si>
   <si>
+    <t>Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 생선</t>
   </si>
   <si>
+    <t>Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 토마토</t>
   </si>
   <si>
+    <t>Grilled_Meat</t>
+  </si>
+  <si>
     <t>구운 돼지 고기</t>
   </si>
   <si>
+    <t>Salad</t>
+  </si>
+  <si>
     <t>샐러드</t>
   </si>
   <si>
     <t>45,62</t>
   </si>
   <si>
+    <t>Potato_Salad</t>
+  </si>
+  <si>
     <t>감자 샐러드</t>
   </si>
   <si>
     <t>51,40</t>
   </si>
   <si>
+    <t>Cheese_Salad</t>
+  </si>
+  <si>
     <t>치즈 샐러드</t>
   </si>
   <si>
     <t>51,57</t>
   </si>
   <si>
+    <t>Meat_Salad</t>
+  </si>
+  <si>
     <t>고기 샐러드</t>
   </si>
   <si>
     <t>51,41</t>
   </si>
   <si>
+    <t>Fish_Salad</t>
+  </si>
+  <si>
     <t>생선 샐러드</t>
   </si>
   <si>
     <t>51,44</t>
   </si>
   <si>
+    <t>Fruit_Salad</t>
+  </si>
+  <si>
     <t>과일 샐러드</t>
   </si>
   <si>
     <t>51,63</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Grilled_Meat</t>
+  </si>
+  <si>
     <t>구운 양상추 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>31,28</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Grilled_Fish</t>
+  </si>
+  <si>
     <t>구운 양상추 + 구운 생선</t>
   </si>
   <si>
     <t>31,30</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Cheese</t>
+  </si>
+  <si>
     <t>구운 양상추 + 썰린 치즈</t>
   </si>
   <si>
     <t>31,57</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 돼지 고기</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵</t>
   </si>
   <si>
     <t>31,10</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Potato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 감자</t>
   </si>
   <si>
     <t>31,40</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 생선</t>
   </si>
   <si>
     <t>31,44</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cheese</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 파인애플</t>
   </si>
   <si>
     <t>31,63</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Fried_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 튀긴 고기</t>
   </si>
   <si>
     <t>31,68</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Fried_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 튀긴 생선</t>
   </si>
   <si>
     <t>31,70</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 양상추+ 구운 새우</t>
   </si>
   <si>
     <t>31,29</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추+구운 생선고기</t>
   </si>
   <si>
+    <t>Cut_Cheese_Potato</t>
+  </si>
+  <si>
     <t>썰린 치즈 + 썰린 감자</t>
   </si>
   <si>
     <t>57,40</t>
   </si>
   <si>
+    <t>Cut_Cheese_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 치즈 + 썰린 파인애플</t>
   </si>
   <si>
     <t>57,63</t>
   </si>
   <si>
+    <t>Cut_Cheese_Fish</t>
+  </si>
+  <si>
     <t>썰린 치즈+ 썰린 생선</t>
   </si>
   <si>
     <t>57,44</t>
   </si>
   <si>
+    <t>Cut_Cheese_Tomato</t>
+  </si>
+  <si>
     <t>썰린 치즈+ 썰린 토마토</t>
   </si>
   <si>
     <t>57,62</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 구운 파인애플</t>
   </si>
   <si>
     <t>71,37</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 소스</t>
   </si>
   <si>
     <t>71,13</t>
   </si>
   <si>
+    <t>Mixed_Meat_Mixed_Pineapple</t>
+  </si>
+  <si>
     <t>갈린 돼지 고기 + 갈린 파인애플</t>
   </si>
   <si>
     <t>19,24</t>
   </si>
   <si>
+    <t>Mixed_Fish_Mixed_Meat</t>
+  </si>
+  <si>
     <t>갈린 생선 + 갈린 돼지 고기</t>
   </si>
   <si>
     <t>21,19</t>
   </si>
   <si>
+    <t>Mixed_Fish_Mixed_Pineapple</t>
+  </si>
+  <si>
     <t>갈린 생선 + 갈린 파인애플</t>
   </si>
   <si>
     <t>21,24</t>
   </si>
   <si>
+    <t>Mixed_Lettuce_Mixed_Shrimp</t>
+  </si>
+  <si>
     <t>갈린 양상추 + 갈린 새우</t>
   </si>
   <si>
     <t>22,20</t>
   </si>
   <si>
+    <t>Mixed_Lettuce_Mixed_Tomato</t>
+  </si>
+  <si>
     <t>갈린 양상추 + 갈린 토마토</t>
   </si>
   <si>
     <t>22,23</t>
   </si>
   <si>
+    <t>Mixed_Lettuce_Mixed_Pineapple</t>
+  </si>
+  <si>
     <t>갈린 양상추 + 갈린 파인애플</t>
   </si>
   <si>
     <t>22,24</t>
   </si>
   <si>
+    <t>Mixed_Pineapple_Mixed_Tomato</t>
+  </si>
+  <si>
     <t>갈린 파인애플 + 갈린 토마토</t>
   </si>
   <si>
     <t>24,23</t>
   </si>
   <si>
+    <t>Grilled_Meat_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 돼지 고기 + 구운 치즈</t>
   </si>
   <si>
     <t>28,35</t>
   </si>
   <si>
+    <t>Grilled_Meat_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 돼지 고기 + 구운 토마토</t>
   </si>
   <si>
     <t>28,36</t>
   </si>
   <si>
+    <t>Grilled_Fish_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 생선 + 구운 토마토</t>
   </si>
   <si>
     <t>30,36</t>
   </si>
   <si>
+    <t>Grilled_Fish_Cut_Tomato</t>
+  </si>
+  <si>
     <t>구운 생선 + 썰린 토마토</t>
   </si>
   <si>
     <t>30,62</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 양상추 + 구운 치즈</t>
   </si>
   <si>
     <t>31,35</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 양상추 + 구운 토마토</t>
   </si>
   <si>
     <t>31,36</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Bread</t>
+  </si>
+  <si>
     <t>구운 양상추 + 빵</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Bread_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 양상추 + 빵 + 구운 치즈</t>
   </si>
   <si>
     <t>95,35</t>
   </si>
   <si>
+    <t>Grilled_Lettuce_Bread_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 양상추 + 빵 + 구운 토마토</t>
   </si>
   <si>
     <t>95,36</t>
   </si>
   <si>
+    <t>Grilled_Cheese_Grilled_Potato</t>
+  </si>
+  <si>
     <t>구운 치즈 + 구운 감자</t>
   </si>
   <si>
     <t>35,27</t>
   </si>
   <si>
+    <t>Grilled_Cheese_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>구운 치즈 + 구운 새우</t>
   </si>
   <si>
     <t>35,29</t>
   </si>
   <si>
+    <t>Grilled_Tomato_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 토마토 + 구운 치즈</t>
   </si>
   <si>
     <t>36,35</t>
   </si>
   <si>
+    <t>Grilled_Tomato_Cut_Cheese</t>
+  </si>
+  <si>
     <t>구운 토마토 + 썰린 치즈</t>
   </si>
   <si>
     <t>36,57</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 구운 치즈</t>
   </si>
   <si>
     <t>37,35</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 구운 토마토</t>
   </si>
   <si>
     <t>37,36</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Sauce</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 소스</t>
   </si>
   <si>
     <t>37,13</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Fried_Potato</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 튀긴 감자</t>
   </si>
   <si>
     <t>37,67</t>
   </si>
   <si>
+    <t>Grilled_Pineapple_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>구운 파인애플 + 튀긴 새우</t>
   </si>
   <si>
     <t>37,69</t>
   </si>
   <si>
+    <t>Bread_Grilled_Potato</t>
+  </si>
+  <si>
     <t>빵 + 구운 감자</t>
   </si>
   <si>
     <t>10,27</t>
   </si>
   <si>
+    <t>Bread_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>10,28</t>
   </si>
   <si>
+    <t>Bread_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 구운 새우</t>
   </si>
   <si>
     <t>10,29</t>
   </si>
   <si>
+    <t>Bread_Grilled_Fish</t>
+  </si>
+  <si>
     <t>빵 + 구운 생선고기</t>
   </si>
   <si>
     <t>10,30</t>
   </si>
   <si>
+    <t>Bread_Grilled_Lettuce</t>
+  </si>
+  <si>
     <t>빵 + 구운 양상추</t>
   </si>
   <si>
     <t>10,31</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈</t>
   </si>
   <si>
     <t>10,35</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese_Grilled_Potato</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 감자</t>
   </si>
   <si>
     <t>119,27</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>119,28</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 새우</t>
   </si>
   <si>
     <t>119,29</t>
   </si>
   <si>
+    <t>Bread_Grilled_Cheese_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>빵 + 구운 치즈 + 구운 파인애플</t>
   </si>
   <si>
     <t>119,37</t>
   </si>
   <si>
+    <t>Bread_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토</t>
   </si>
   <si>
     <t>10,36</t>
   </si>
   <si>
+    <t>Bread_Grilled_Tomato_Grilled_Potato</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 감자</t>
   </si>
   <si>
     <t>124,27</t>
   </si>
   <si>
+    <t>Bread_Grilled_Tomato_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>124,28</t>
   </si>
   <si>
+    <t>Bread_Grilled_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 새우</t>
   </si>
   <si>
     <t>124,29</t>
   </si>
   <si>
+    <t>Bread_Grilled_Tomato_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>빵 + 구운 토마토 + 구운 파인애플</t>
   </si>
   <si>
     <t>124,37</t>
   </si>
   <si>
+    <t>Bread_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>빵 + 구운 파인애플</t>
   </si>
   <si>
     <t>10,37</t>
   </si>
   <si>
+    <t>Bread_Cut_Lettuce</t>
+  </si>
+  <si>
     <t>빵 + 썰린 양상추</t>
   </si>
   <si>
     <t>10,45</t>
   </si>
   <si>
+    <t>Bread_Cut_Cheese</t>
+  </si>
+  <si>
     <t>빵 + 썰린 치즈</t>
   </si>
   <si>
     <t>10,57</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토</t>
   </si>
   <si>
     <t>10,62</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Grilled_Meat</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>132,28</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 구운 새우</t>
   </si>
   <si>
     <t>132,29</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Grilled_Fish</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 구운 생선고기</t>
   </si>
   <si>
     <t>132,30</t>
   </si>
   <si>
+    <t>Bread_Cut_Tomato_Cut_Cheese</t>
+  </si>
+  <si>
     <t>빵 + 썰린 토마토 + 썰린 치즈</t>
   </si>
   <si>
@@ -621,36 +891,54 @@
     <t>빵 +구운 파인애플</t>
   </si>
   <si>
+    <t>Cut_Meat_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 돼지 고기 + 썰린 토마토</t>
   </si>
   <si>
     <t>41,62</t>
   </si>
   <si>
+    <t>Cut_Bread_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 빵 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>42,28</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 감자</t>
   </si>
   <si>
     <t>42,40</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 생선</t>
   </si>
   <si>
     <t>42,44</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 치즈</t>
   </si>
   <si>
     <t>42,57</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Cheese_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 치즈 + 썰린 생선</t>
   </si>
   <si>
@@ -663,48 +951,72 @@
     <t>151,62</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Cheese_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 치즈 + 썰린 파인애플</t>
   </si>
   <si>
     <t>151,63</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 토마토</t>
   </si>
   <si>
     <t>42,62</t>
   </si>
   <si>
+    <t>Cut_Bread_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 빵 + 썰린 파인애플</t>
   </si>
   <si>
     <t>42,63</t>
   </si>
   <si>
+    <t>Cut_Fish_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>썰린 생선 + 구운 치즈</t>
   </si>
   <si>
     <t>44,35</t>
   </si>
   <si>
+    <t>Cut_Fish_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>썰린 생선 + 구운 토마토</t>
   </si>
   <si>
     <t>44,36</t>
   </si>
   <si>
+    <t>Cut_Fish_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 생선 + 썰린 치즈</t>
   </si>
   <si>
     <t>44,57</t>
   </si>
   <si>
+    <t>Cut_Fish_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 생선 + 썰린 토마토</t>
   </si>
   <si>
     <t>44,62</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 양상추  + 썰린 토마토 + 구운 새우</t>
   </si>
   <si>
@@ -714,6 +1026,9 @@
     <t>45,28</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Meat_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 돼지 고기 + 썰린 토마토</t>
   </si>
   <si>
@@ -732,102 +1047,153 @@
     <t>45,30</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Cheese</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 치즈</t>
   </si>
   <si>
     <t>45,35</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 구운 토마토</t>
   </si>
   <si>
     <t>45,36</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>45,10,28</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 구운 새우</t>
   </si>
   <si>
     <t>45,10,29</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Grilled_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 구운 생선고기</t>
   </si>
   <si>
     <t>45,10,30</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Bread_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 빵 + 썰린 치즈</t>
   </si>
   <si>
     <t>45,10,57</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 돼지 고기</t>
   </si>
   <si>
     <t>45,41</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 + 썰린 감자</t>
   </si>
   <si>
     <t>45,42,40</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 + 썰린 생선</t>
   </si>
   <si>
     <t>45,42,44</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 + 썰린 파인애플</t>
   </si>
   <si>
     <t>45,42,63</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Bread_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 빵 +썰린 토마토</t>
   </si>
   <si>
     <t>45,42,62</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 + 썰린 감자</t>
   </si>
   <si>
     <t>45,57,40</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 + 썰린 토마토</t>
   </si>
   <si>
     <t>45,57,62</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Pineapple</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 + 썰린 파인애플</t>
   </si>
   <si>
     <t>45,57,63</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Cheese_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 치즈 +썰린 생선</t>
   </si>
   <si>
     <t>45,57,44</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Tomato_Grilled_Meat</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
     <t>45,62,28</t>
   </si>
   <si>
+    <t>Cut_Lettuce_Cut_Tomato_Grilled_Fish</t>
+  </si>
+  <si>
     <t>썰린 양상추 + 썰린 토마토 + 구운 생선고기</t>
   </si>
   <si>
@@ -837,45 +1203,69 @@
     <t>썰린 양상추 +썰린 돼지 고기</t>
   </si>
   <si>
+    <t>Cut_Cheese_Grilled_Tomato</t>
+  </si>
+  <si>
     <t>썰린 치즈 + 구운 토마토</t>
   </si>
   <si>
     <t>57,36</t>
   </si>
   <si>
+    <t>Cut_Cheese_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 치즈 +썰린 감자</t>
   </si>
   <si>
+    <t>Cut_Tomato_Grilled_Shrimp</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 구운 새우</t>
   </si>
   <si>
     <t>62,29</t>
   </si>
   <si>
+    <t>Cut_Tomato_Cut_Potato</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 썰린 감자</t>
   </si>
   <si>
     <t>62,40</t>
   </si>
   <si>
+    <t>Cut_Tomato_Cut_Fish</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 썰린 생선고기</t>
   </si>
   <si>
     <t>62,44</t>
   </si>
   <si>
+    <t>Cut_Tomato_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 토마토 + 썰린 치즈</t>
   </si>
   <si>
     <t>62,57</t>
   </si>
   <si>
+    <t>Cut_Pineapple_Cut_Cheese</t>
+  </si>
+  <si>
     <t>썰린 파인애플 + 썰린 치즈</t>
   </si>
   <si>
     <t>63,57</t>
   </si>
   <si>
+    <t>Cut_Pineapple_Cut_Tomato</t>
+  </si>
+  <si>
     <t>썰린 파인애플 + 썰린 토마토</t>
   </si>
   <si>
@@ -885,84 +1275,126 @@
     <t>썰린생선 + 구운 치즈</t>
   </si>
   <si>
+    <t>Fried_Potato_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 감자 + 소스</t>
   </si>
   <si>
     <t>67,13</t>
   </si>
   <si>
+    <t>Fried_Meat_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 구운 파인애플</t>
   </si>
   <si>
     <t>68,37</t>
   </si>
   <si>
+    <t>Fried_Meat_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 소스</t>
   </si>
   <si>
     <t>68,13</t>
   </si>
   <si>
+    <t>Fried_Meat_Cut_Cheese</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 썰린 치즈</t>
   </si>
   <si>
     <t>68,57</t>
   </si>
   <si>
+    <t>Cut_Meat_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 튀긴 새우</t>
   </si>
   <si>
     <t>68,69</t>
   </si>
   <si>
+    <t>Cut_Meat_Fried_Shrimp_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 돼지 고기 + 튀긴 새우 + 소스</t>
   </si>
   <si>
     <t>208,13</t>
   </si>
   <si>
+    <t>Fried_Shrimp_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 새우 + 소스</t>
   </si>
   <si>
     <t>69,13</t>
   </si>
   <si>
+    <t>Fried_Fish_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 구운 파인애플</t>
   </si>
   <si>
     <t>70,37</t>
   </si>
   <si>
+    <t>Fried_Fish_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 소스</t>
   </si>
   <si>
     <t>70,13</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Meat_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 돼지 고기+  튀긴 새우</t>
   </si>
   <si>
     <t>70,68,69</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Meat_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 돼지 고기 + 소스</t>
   </si>
   <si>
     <t>70,68,13</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Meat</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 돼지 고기</t>
   </si>
   <si>
     <t>70,68</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Shrimp</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 새우</t>
   </si>
   <si>
     <t>70,69</t>
   </si>
   <si>
+    <t>Fried_Fish_Fried_Shrimp_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 생선 + 튀긴 새우 + 소스</t>
   </si>
   <si>
@@ -975,151 +1407,229 @@
     <t>튀긴 생선 +소스</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Grilled_Pineapple_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 구운 파인애플 + 소스</t>
   </si>
   <si>
     <t>71,37,13</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Fried_Potato</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 튀긴 감자</t>
   </si>
   <si>
     <t>71,67</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Fried_Potato_Grilled_Pineapple</t>
+  </si>
+  <si>
     <t xml:space="preserve">튀긴 양상추 + 튀긴 감자 + 구운 파인애플 </t>
   </si>
   <si>
     <t>71,67,37</t>
   </si>
   <si>
+    <t>Fried_Lettuce_Fried_Potato_Sauce</t>
+  </si>
+  <si>
     <t>튀긴 양상추 + 튀긴 감자 + 소스</t>
   </si>
   <si>
     <t>71,67,13</t>
   </si>
   <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
     <t>햄버거</t>
   </si>
   <si>
     <t>10,62,45</t>
   </si>
   <si>
+    <t>Cheese_Hamburger</t>
+  </si>
+  <si>
     <t>치즈 버거</t>
   </si>
   <si>
     <t>10,62,45,57</t>
   </si>
   <si>
+    <t>Bulgogi_Hamburger</t>
+  </si>
+  <si>
     <t>불고기 햄버거</t>
   </si>
   <si>
     <t>10,62,45,28</t>
   </si>
   <si>
+    <t>Fish_Hamburger</t>
+  </si>
+  <si>
     <t>생선 햄버거</t>
   </si>
   <si>
     <t>10,62,45,30</t>
   </si>
   <si>
+    <t>Shrimp_Hamburger</t>
+  </si>
+  <si>
     <t>쉬림프 햄버거</t>
   </si>
   <si>
     <t>10,62,45,29</t>
   </si>
   <si>
+    <t>Vegetable_Stir</t>
+  </si>
+  <si>
     <t>야채 볶음</t>
   </si>
   <si>
+    <t>Cheese_Vegetable_Stir</t>
+  </si>
+  <si>
     <t>치즈 야채 볶음</t>
   </si>
   <si>
     <t>31,36,57</t>
   </si>
   <si>
+    <t>Meat_Vegetable_Stir</t>
+  </si>
+  <si>
     <t>고기 야채 볶음</t>
   </si>
   <si>
     <t>31,36,28</t>
   </si>
   <si>
+    <t>Fish_Vegetable_Stir</t>
+  </si>
+  <si>
     <t>생선 야채 볶음</t>
   </si>
   <si>
     <t>31,36,30</t>
   </si>
   <si>
+    <t>Gratin</t>
+  </si>
+  <si>
     <t>그라탕</t>
   </si>
   <si>
     <t>35,36</t>
   </si>
   <si>
+    <t>Potato_Gratin</t>
+  </si>
+  <si>
     <t>감자 그라탕</t>
   </si>
   <si>
     <t>35,35,27</t>
   </si>
   <si>
+    <t>DoubleCheese_Gratin</t>
+  </si>
+  <si>
     <t>더블 치즈 그라탕</t>
   </si>
   <si>
     <t>35,35,36</t>
   </si>
   <si>
+    <t>Fish_Gratin</t>
+  </si>
+  <si>
     <t>생선 그라탕</t>
   </si>
   <si>
     <t>35,36,44</t>
   </si>
   <si>
+    <t>Vegetable_Gratin</t>
+  </si>
+  <si>
     <t>야채 그래탕</t>
   </si>
   <si>
     <t>35,36,45</t>
   </si>
   <si>
+    <t>Meat_Gratin</t>
+  </si>
+  <si>
     <t>고기 그라탕</t>
   </si>
   <si>
     <t>35,36,28</t>
   </si>
   <si>
+    <t>Pizza</t>
+  </si>
+  <si>
     <t>피자</t>
   </si>
   <si>
     <t>10,35,36</t>
   </si>
   <si>
+    <t>Vegetable_Pizza</t>
+  </si>
+  <si>
     <t>야채 피자</t>
   </si>
   <si>
-    <t>10,35,36,31</t>
+    <t>228,31</t>
+  </si>
+  <si>
+    <t>Hawaiian_Pizza</t>
   </si>
   <si>
     <t>하와이안 피자</t>
   </si>
   <si>
-    <t>10,35,36,37</t>
+    <t>228,37</t>
+  </si>
+  <si>
+    <t>Potato_Pizza</t>
   </si>
   <si>
     <t>포테이토 피자</t>
   </si>
   <si>
-    <t>10,35,36,27</t>
+    <t>228,27</t>
+  </si>
+  <si>
+    <t>Bulgogi_Pizza</t>
   </si>
   <si>
     <t>불고기 피자</t>
   </si>
   <si>
-    <t>10,35,36,28</t>
+    <t>228,28</t>
+  </si>
+  <si>
+    <t>Shrimp_Pizza</t>
   </si>
   <si>
     <t>쉬림프 피자</t>
   </si>
   <si>
-    <t>10,35,36,29</t>
+    <t>228,29</t>
+  </si>
+  <si>
+    <t>Meat_Cutlet</t>
   </si>
   <si>
     <t>돈까스</t>
@@ -1128,24 +1638,36 @@
     <t>68,45</t>
   </si>
   <si>
+    <t>Cheese_Cutlet</t>
+  </si>
+  <si>
     <t>치즈 돈까스</t>
   </si>
   <si>
     <t>68,45,57</t>
   </si>
   <si>
+    <t>Fish_Cutlet</t>
+  </si>
+  <si>
     <t>생선까스</t>
   </si>
   <si>
     <t>70,45</t>
   </si>
   <si>
+    <t>Group_Meat_Cutlet</t>
+  </si>
+  <si>
     <t>모둠 돈까스</t>
   </si>
   <si>
     <t>68,70,69,13</t>
   </si>
   <si>
+    <t>Fried_Vegetables</t>
+  </si>
+  <si>
     <t>야채 튀김</t>
   </si>
   <si>
@@ -1173,7 +1695,7 @@
     <t>야채 탕수육</t>
   </si>
   <si>
-    <t>71,67,37,13</t>
+    <t>64,37,13</t>
   </si>
   <si>
     <t>야채 주스</t>
@@ -1198,7 +1720,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yy/m/d"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1223,12 +1748,20 @@
     <font/>
     <font>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1314,7 +1847,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1349,14 +1882,23 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -1364,14 +1906,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1717,7 +2262,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="14">
+        <v>45276.0</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="22" ht="16.5" customHeight="1"/>
     <row r="23" ht="16.5" customHeight="1"/>
     <row r="24" ht="16.5" customHeight="1"/>
@@ -2720,7 +3275,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="21.86"/>
+    <col customWidth="1" min="2" max="2" width="43.71"/>
     <col customWidth="1" min="3" max="4" width="44.14"/>
     <col customWidth="1" min="5" max="5" width="10.43"/>
     <col customWidth="1" min="6" max="7" width="10.86"/>
@@ -2733,10 +3288,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2745,19 +3300,19 @@
       <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -2769,46 +3324,49 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8">
         <v>0.0</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>1.0</v>
       </c>
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8">
         <v>2.0</v>
@@ -2823,7 +3381,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" s="8">
         <v>38.0</v>
@@ -2833,14 +3391,17 @@
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="14">
-        <v>2.0</v>
+      <c r="A4" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8">
         <v>2.0</v>
@@ -2855,7 +3416,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8">
         <v>65.0</v>
@@ -2865,14 +3426,17 @@
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>3.0</v>
       </c>
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" s="8">
         <v>0.0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8">
         <v>2.0</v>
@@ -2887,7 +3451,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J5" s="8">
         <v>26.0</v>
@@ -2897,14 +3461,17 @@
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>4.0</v>
       </c>
+      <c r="B6" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" s="8">
         <v>0.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8">
         <v>2.0</v>
@@ -2919,7 +3486,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J6" s="8">
         <v>25.0</v>
@@ -2929,14 +3496,17 @@
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>5.0</v>
       </c>
+      <c r="B7" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="8">
         <v>0.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E7" s="8">
         <v>2.0</v>
@@ -2951,7 +3521,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J7" s="8">
         <v>39.0</v>
@@ -2961,14 +3531,17 @@
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>6.0</v>
       </c>
+      <c r="B8" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="8">
         <v>0.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8">
         <v>2.0</v>
@@ -2983,7 +3556,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J8" s="8">
         <v>66.0</v>
@@ -2993,14 +3566,17 @@
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="16">
         <v>7.0</v>
       </c>
+      <c r="B9" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="8">
         <v>0.0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8">
         <v>2.0</v>
@@ -3015,7 +3591,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J9" s="8">
         <v>84.0</v>
@@ -3025,14 +3601,17 @@
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>8.0</v>
       </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8">
         <v>1.0</v>
@@ -3057,14 +3636,17 @@
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>9.0</v>
       </c>
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E11" s="8">
         <v>1.0</v>
@@ -3089,14 +3671,17 @@
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>10.0</v>
       </c>
+      <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="C12" s="8">
         <v>0.0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E12" s="8">
         <v>1.0</v>
@@ -3121,14 +3706,17 @@
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>11.0</v>
       </c>
+      <c r="B13" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="8">
         <v>0.0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8">
         <v>1.0</v>
@@ -3153,14 +3741,17 @@
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>12.0</v>
       </c>
+      <c r="B14" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" s="8">
         <v>0.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E14" s="8">
         <v>1.0</v>
@@ -3185,14 +3776,17 @@
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>13.0</v>
       </c>
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="8">
         <v>0.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8">
         <v>1.0</v>
@@ -3217,14 +3811,17 @@
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="16">
         <v>14.0</v>
       </c>
+      <c r="B16" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="8">
         <v>0.0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E16" s="8">
         <v>1.0</v>
@@ -3249,14 +3846,17 @@
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>15.0</v>
       </c>
+      <c r="B17" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E17" s="8">
         <v>1.0</v>
@@ -3281,14 +3881,17 @@
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>16.0</v>
       </c>
+      <c r="B18" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="C18" s="8">
         <v>0.0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8">
         <v>2.0</v>
@@ -3303,7 +3906,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J18" s="8">
         <v>51.0</v>
@@ -3313,14 +3916,17 @@
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="14">
+      <c r="A19" s="16">
         <v>17.0</v>
       </c>
+      <c r="B19" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="C19" s="8">
         <v>0.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E19" s="8">
         <v>2.0</v>
@@ -3335,7 +3941,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J19" s="8">
         <v>82.0</v>
@@ -3345,14 +3951,17 @@
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>18.0</v>
       </c>
+      <c r="B20" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="8">
         <v>0.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8">
         <v>2.0</v>
@@ -3367,7 +3976,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J20" s="8">
         <v>200.0</v>
@@ -3377,14 +3986,17 @@
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>19.0</v>
       </c>
+      <c r="B21" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="8">
         <v>0.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E21" s="8">
         <v>2.0</v>
@@ -3399,7 +4011,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J21" s="8">
         <v>85.0</v>
@@ -3409,14 +4021,17 @@
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>20.0</v>
       </c>
+      <c r="B22" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="C22" s="8">
         <v>0.0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E22" s="8">
         <v>2.0</v>
@@ -3431,7 +4046,7 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J22" s="8">
         <v>140.0</v>
@@ -3441,14 +4056,17 @@
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>21.0</v>
       </c>
+      <c r="B23" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="C23" s="8">
         <v>0.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E23" s="8">
         <v>2.0</v>
@@ -3463,7 +4081,7 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J23" s="8">
         <v>87.0</v>
@@ -3473,14 +4091,17 @@
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>22.0</v>
       </c>
+      <c r="B24" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="C24" s="8">
         <v>0.0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E24" s="8">
         <v>2.0</v>
@@ -3495,7 +4116,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J24" s="8">
         <v>32.0</v>
@@ -3505,14 +4126,17 @@
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="14">
+      <c r="A25" s="16">
         <v>23.0</v>
       </c>
+      <c r="B25" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="C25" s="8">
         <v>0.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E25" s="8">
         <v>2.0</v>
@@ -3527,7 +4151,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J25" s="8">
         <v>33.0</v>
@@ -3537,14 +4161,17 @@
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <v>24.0</v>
       </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="C26" s="8">
         <v>0.0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E26" s="8">
         <v>2.0</v>
@@ -3559,7 +4186,7 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="J26" s="8">
         <v>34.0</v>
@@ -3569,14 +4196,17 @@
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="14">
+      <c r="A27" s="16">
         <v>25.0</v>
       </c>
+      <c r="B27" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="C27" s="8">
         <v>0.0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E27" s="8">
         <v>2.0</v>
@@ -3591,7 +4221,7 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J27" s="8">
         <v>46.0</v>
@@ -3601,14 +4231,17 @@
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>26.0</v>
       </c>
+      <c r="B28" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="C28" s="8">
         <v>0.0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E28" s="8">
         <v>2.0</v>
@@ -3623,7 +4256,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J28" s="8">
         <v>47.0</v>
@@ -3633,14 +4266,17 @@
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>27.0</v>
       </c>
+      <c r="B29" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E29" s="8">
         <v>2.0</v>
@@ -3655,7 +4291,7 @@
         <v>0.0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J29" s="8">
         <v>48.0</v>
@@ -3665,14 +4301,17 @@
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="14">
+      <c r="A30" s="16">
         <v>28.0</v>
       </c>
+      <c r="B30" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C30" s="8">
         <v>0.0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E30" s="8">
         <v>2.0</v>
@@ -3687,7 +4326,7 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="J30" s="8">
         <v>49.0</v>
@@ -3697,14 +4336,17 @@
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>29.0</v>
       </c>
+      <c r="B31" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="C31" s="8">
         <v>0.0</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E31" s="8">
         <v>2.0</v>
@@ -3719,7 +4361,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="J31" s="8">
         <v>50.0</v>
@@ -3729,14 +4371,17 @@
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="16">
         <v>30.0</v>
       </c>
+      <c r="B32" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="C32" s="8">
         <v>0.0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E32" s="8">
         <v>2.0</v>
@@ -3751,7 +4396,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="J32" s="8">
         <v>52.0</v>
@@ -3761,14 +4406,17 @@
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="14">
+      <c r="A33" s="16">
         <v>31.0</v>
       </c>
+      <c r="B33" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="C33" s="8">
         <v>0.0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E33" s="8">
         <v>2.0</v>
@@ -3783,7 +4431,7 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="J33" s="8">
         <v>53.0</v>
@@ -3793,14 +4441,17 @@
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="16">
         <v>32.0</v>
       </c>
+      <c r="B34" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="C34" s="8">
         <v>0.0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E34" s="8">
         <v>2.0</v>
@@ -3815,7 +4466,7 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="J34" s="8">
         <v>54.0</v>
@@ -3825,14 +4476,17 @@
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="14">
+      <c r="A35" s="16">
         <v>33.0</v>
       </c>
+      <c r="B35" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="E35" s="8">
         <v>2.0</v>
@@ -3847,7 +4501,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="J35" s="8">
         <v>55.0</v>
@@ -3857,14 +4511,17 @@
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="16">
         <v>34.0</v>
       </c>
+      <c r="B36" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="C36" s="8">
         <v>0.0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E36" s="8">
         <v>2.0</v>
@@ -3879,7 +4536,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J36" s="8">
         <v>56.0</v>
@@ -3889,14 +4546,17 @@
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="14">
+      <c r="A37" s="16">
         <v>35.0</v>
       </c>
+      <c r="B37" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="C37" s="8">
         <v>0.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E37" s="8">
         <v>2.0</v>
@@ -3911,7 +4571,7 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="J37" s="8">
         <v>58.0</v>
@@ -3921,14 +4581,17 @@
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="16">
         <v>36.0</v>
       </c>
+      <c r="B38" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="C38" s="8">
         <v>0.0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E38" s="8">
         <v>2.0</v>
@@ -3943,7 +4606,7 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="J38" s="8">
         <v>59.0</v>
@@ -3953,14 +4616,17 @@
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="14">
+      <c r="A39" s="16">
         <v>37.0</v>
       </c>
+      <c r="B39" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="C39" s="8">
         <v>0.0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E39" s="8">
         <v>2.0</v>
@@ -3975,7 +4641,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="J39" s="8">
         <v>60.0</v>
@@ -3985,14 +4651,17 @@
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="14">
+      <c r="A40" s="16">
         <v>38.0</v>
       </c>
+      <c r="B40" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="C40" s="8">
         <v>0.0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E40" s="8">
         <v>2.0</v>
@@ -4007,7 +4676,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="J40" s="8">
         <v>61.0</v>
@@ -4017,14 +4686,17 @@
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="14">
+      <c r="A41" s="16">
         <v>39.0</v>
       </c>
+      <c r="B41" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="C41" s="8">
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E41" s="8">
         <v>2.0</v>
@@ -4039,7 +4711,7 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="J41" s="8">
         <v>72.0</v>
@@ -4049,14 +4721,17 @@
       </c>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="14">
+      <c r="A42" s="16">
         <v>40.0</v>
       </c>
+      <c r="B42" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="C42" s="8">
         <v>0.0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E42" s="8">
         <v>2.0</v>
@@ -4071,7 +4746,7 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="J42" s="8">
         <v>73.0</v>
@@ -4081,14 +4756,17 @@
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="16">
         <v>41.0</v>
       </c>
+      <c r="B43" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="C43" s="8">
         <v>0.0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E43" s="8">
         <v>2.0</v>
@@ -4103,7 +4781,7 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="J43" s="8">
         <v>74.0</v>
@@ -4113,14 +4791,17 @@
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="16">
         <v>42.0</v>
       </c>
+      <c r="B44" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="C44" s="8">
         <v>0.0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E44" s="8">
         <v>2.0</v>
@@ -4135,7 +4816,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="J44" s="8">
         <v>75.0</v>
@@ -4145,14 +4826,17 @@
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="14">
+      <c r="A45" s="16">
         <v>43.0</v>
       </c>
+      <c r="B45" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="C45" s="8">
         <v>0.0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E45" s="8">
         <v>2.0</v>
@@ -4167,7 +4851,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="J45" s="8">
         <v>76.0</v>
@@ -4177,14 +4861,17 @@
       </c>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="14">
+      <c r="A46" s="16">
         <v>44.0</v>
       </c>
+      <c r="B46" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="C46" s="8">
         <v>0.0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E46" s="8">
         <v>2.0</v>
@@ -4199,7 +4886,7 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="J46" s="8">
         <v>77.0</v>
@@ -4209,14 +4896,17 @@
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="16">
         <v>45.0</v>
       </c>
+      <c r="B47" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="C47" s="8">
         <v>0.0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="E47" s="8">
         <v>2.0</v>
@@ -4231,7 +4921,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="J47" s="8">
         <v>78.0</v>
@@ -4241,14 +4931,17 @@
       </c>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="16">
         <v>46.0</v>
       </c>
+      <c r="B48" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="C48" s="8">
         <v>0.0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="E48" s="8">
         <v>2.0</v>
@@ -4263,7 +4956,7 @@
         <v>0.0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="J48" s="8">
         <v>79.0</v>
@@ -4273,14 +4966,17 @@
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="14">
+      <c r="A49" s="16">
         <v>47.0</v>
       </c>
-      <c r="C49" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>111</v>
+      <c r="B49" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="E49" s="8">
         <v>2.0</v>
@@ -4295,7 +4991,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J49" s="8">
         <v>80.0</v>
@@ -4305,14 +5001,17 @@
       </c>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="14">
+      <c r="A50" s="16">
         <v>48.0</v>
       </c>
+      <c r="B50" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="C50" s="8">
         <v>0.0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E50" s="8">
         <v>2.0</v>
@@ -4327,7 +5026,7 @@
         <v>0.0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="J50" s="8">
         <v>88.0</v>
@@ -4337,14 +5036,17 @@
       </c>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="14">
+      <c r="A51" s="16">
         <v>49.0</v>
       </c>
+      <c r="B51" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="C51" s="8">
         <v>0.0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="E51" s="8">
         <v>2.0</v>
@@ -4359,7 +5061,7 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="J51" s="8">
         <v>89.0</v>
@@ -4369,14 +5071,17 @@
       </c>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="14">
+      <c r="A52" s="16">
         <v>50.0</v>
       </c>
+      <c r="B52" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="C52" s="8">
         <v>0.0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E52" s="8">
         <v>2.0</v>
@@ -4391,7 +5096,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="J52" s="8">
         <v>90.0</v>
@@ -4401,14 +5106,17 @@
       </c>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="14">
+      <c r="A53" s="16">
         <v>51.0</v>
       </c>
+      <c r="B53" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="C53" s="8">
         <v>0.0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="E53" s="8">
         <v>2.0</v>
@@ -4423,7 +5131,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="J53" s="8">
         <v>91.0</v>
@@ -4433,14 +5141,17 @@
       </c>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="14">
+      <c r="A54" s="16">
         <v>52.0</v>
       </c>
+      <c r="B54" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="C54" s="8">
         <v>0.0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E54" s="8">
         <v>2.0</v>
@@ -4455,7 +5166,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J54" s="8">
         <v>92.0</v>
@@ -4465,14 +5176,17 @@
       </c>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="14">
+      <c r="A55" s="16">
         <v>53.0</v>
       </c>
+      <c r="B55" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="C55" s="8">
         <v>0.0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="E55" s="8">
         <v>2.0</v>
@@ -4487,7 +5201,7 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="J55" s="8">
         <v>93.0</v>
@@ -4497,14 +5211,17 @@
       </c>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="14">
+      <c r="A56" s="16">
         <v>54.0</v>
       </c>
+      <c r="B56" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="C56" s="8">
         <v>0.0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E56" s="8">
         <v>2.0</v>
@@ -4519,7 +5236,7 @@
         <v>0.0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="J56" s="8">
         <v>94.0</v>
@@ -4529,14 +5246,17 @@
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="14">
+      <c r="A57" s="16">
         <v>55.0</v>
       </c>
+      <c r="B57" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="C57" s="8">
         <v>0.0</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="E57" s="8">
         <v>2.0</v>
@@ -4551,7 +5271,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J57" s="8">
         <v>95.0</v>
@@ -4561,14 +5281,17 @@
       </c>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="14">
+      <c r="A58" s="16">
         <v>56.0</v>
       </c>
+      <c r="B58" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="C58" s="8">
         <v>0.0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="E58" s="8">
         <v>2.0</v>
@@ -4583,7 +5306,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="J58" s="8">
         <v>96.0</v>
@@ -4593,14 +5316,17 @@
       </c>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="14">
+      <c r="A59" s="16">
         <v>57.0</v>
       </c>
+      <c r="B59" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="C59" s="8">
         <v>0.0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="E59" s="8">
         <v>2.0</v>
@@ -4615,7 +5341,7 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="J59" s="8">
         <v>97.0</v>
@@ -4625,14 +5351,17 @@
       </c>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="14">
+      <c r="A60" s="16">
         <v>58.0</v>
       </c>
+      <c r="B60" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="C60" s="8">
         <v>0.0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="E60" s="8">
         <v>2.0</v>
@@ -4647,7 +5376,7 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="J60" s="8">
         <v>98.0</v>
@@ -4657,14 +5386,17 @@
       </c>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="14">
+      <c r="A61" s="16">
         <v>59.0</v>
       </c>
+      <c r="B61" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="C61" s="8">
         <v>0.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="E61" s="8">
         <v>2.0</v>
@@ -4679,7 +5411,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="J61" s="8">
         <v>99.0</v>
@@ -4689,14 +5421,17 @@
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="14">
+      <c r="A62" s="16">
         <v>60.0</v>
       </c>
+      <c r="B62" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="C62" s="8">
         <v>0.0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E62" s="8">
         <v>2.0</v>
@@ -4711,7 +5446,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="J62" s="8">
         <v>100.0</v>
@@ -4721,14 +5456,17 @@
       </c>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="14">
+      <c r="A63" s="16">
         <v>61.0</v>
       </c>
+      <c r="B63" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="C63" s="8">
         <v>0.0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="E63" s="8">
         <v>2.0</v>
@@ -4743,7 +5481,7 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="J63" s="8">
         <v>101.0</v>
@@ -4753,14 +5491,17 @@
       </c>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="14">
+      <c r="A64" s="16">
         <v>62.0</v>
       </c>
+      <c r="B64" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="C64" s="8">
         <v>0.0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="E64" s="8">
         <v>2.0</v>
@@ -4775,7 +5516,7 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="J64" s="8">
         <v>102.0</v>
@@ -4785,14 +5526,17 @@
       </c>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="14">
+      <c r="A65" s="16">
         <v>63.0</v>
       </c>
+      <c r="B65" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="C65" s="8">
         <v>0.0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="E65" s="8">
         <v>2.0</v>
@@ -4807,7 +5551,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="J65" s="8">
         <v>103.0</v>
@@ -4817,14 +5561,17 @@
       </c>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="14">
+      <c r="A66" s="16">
         <v>64.0</v>
       </c>
+      <c r="B66" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="C66" s="8">
         <v>0.0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="E66" s="8">
         <v>2.0</v>
@@ -4839,7 +5586,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="J66" s="8">
         <v>104.0</v>
@@ -4849,14 +5596,17 @@
       </c>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="14">
+      <c r="A67" s="16">
         <v>65.0</v>
       </c>
+      <c r="B67" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="C67" s="8">
         <v>0.0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="E67" s="8">
         <v>2.0</v>
@@ -4871,7 +5621,7 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="J67" s="8">
         <v>105.0</v>
@@ -4881,14 +5631,17 @@
       </c>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="14">
+      <c r="A68" s="16">
         <v>66.0</v>
       </c>
+      <c r="B68" s="19" t="s">
+        <v>212</v>
+      </c>
       <c r="C68" s="8">
         <v>0.0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="E68" s="8">
         <v>2.0</v>
@@ -4903,7 +5656,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="J68" s="8">
         <v>106.0</v>
@@ -4913,14 +5666,17 @@
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="14">
+      <c r="A69" s="16">
         <v>67.0</v>
       </c>
-      <c r="C69" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>148</v>
+      <c r="B69" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="E69" s="8">
         <v>2.0</v>
@@ -4935,7 +5691,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="J69" s="8">
         <v>114.0</v>
@@ -4945,14 +5701,17 @@
       </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="14">
+      <c r="A70" s="16">
         <v>68.0</v>
       </c>
+      <c r="B70" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="C70" s="8">
         <v>0.0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="E70" s="8">
         <v>2.0</v>
@@ -4967,7 +5726,7 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="J70" s="8">
         <v>115.0</v>
@@ -4977,14 +5736,17 @@
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="14">
+      <c r="A71" s="16">
         <v>69.0</v>
       </c>
+      <c r="B71" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="C71" s="8">
         <v>0.0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="E71" s="8">
         <v>2.0</v>
@@ -4999,7 +5761,7 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="J71" s="8">
         <v>116.0</v>
@@ -5009,14 +5771,17 @@
       </c>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="14">
+      <c r="A72" s="16">
         <v>70.0</v>
       </c>
+      <c r="B72" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="C72" s="8">
         <v>0.0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="E72" s="8">
         <v>2.0</v>
@@ -5031,7 +5796,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="J72" s="8">
         <v>117.0</v>
@@ -5041,14 +5806,17 @@
       </c>
     </row>
     <row r="73" ht="16.5" customHeight="1">
-      <c r="A73" s="14">
+      <c r="A73" s="16">
         <v>71.0</v>
       </c>
+      <c r="B73" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="C73" s="8">
         <v>0.0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="E73" s="8">
         <v>2.0</v>
@@ -5063,7 +5831,7 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="J73" s="8">
         <v>118.0</v>
@@ -5073,14 +5841,17 @@
       </c>
     </row>
     <row r="74" ht="16.5" customHeight="1">
-      <c r="A74" s="14">
+      <c r="A74" s="16">
         <v>72.0</v>
       </c>
+      <c r="B74" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="C74" s="8">
         <v>0.0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="E74" s="8">
         <v>2.0</v>
@@ -5095,7 +5866,7 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="J74" s="8">
         <v>119.0</v>
@@ -5105,14 +5876,17 @@
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="14">
+      <c r="A75" s="16">
         <v>73.0</v>
       </c>
+      <c r="B75" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="C75" s="8">
         <v>0.0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="E75" s="8">
         <v>2.0</v>
@@ -5127,7 +5901,7 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="J75" s="8">
         <v>120.0</v>
@@ -5137,14 +5911,17 @@
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="14">
+      <c r="A76" s="16">
         <v>74.0</v>
       </c>
+      <c r="B76" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="C76" s="8">
         <v>0.0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="E76" s="8">
         <v>2.0</v>
@@ -5159,7 +5936,7 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="J76" s="8">
         <v>121.0</v>
@@ -5169,14 +5946,17 @@
       </c>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="14">
+      <c r="A77" s="16">
         <v>75.0</v>
       </c>
+      <c r="B77" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="C77" s="8">
         <v>0.0</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="E77" s="8">
         <v>2.0</v>
@@ -5191,7 +5971,7 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="J77" s="8">
         <v>122.0</v>
@@ -5201,14 +5981,17 @@
       </c>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="14">
+      <c r="A78" s="16">
         <v>76.0</v>
       </c>
+      <c r="B78" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="C78" s="8">
         <v>0.0</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="E78" s="8">
         <v>2.0</v>
@@ -5223,7 +6006,7 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="J78" s="8">
         <v>123.0</v>
@@ -5233,14 +6016,17 @@
       </c>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="14">
+      <c r="A79" s="16">
         <v>77.0</v>
       </c>
+      <c r="B79" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="C79" s="8">
         <v>0.0</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="E79" s="8">
         <v>2.0</v>
@@ -5255,7 +6041,7 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="J79" s="8">
         <v>124.0</v>
@@ -5265,14 +6051,17 @@
       </c>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="14">
+      <c r="A80" s="16">
         <v>78.0</v>
       </c>
+      <c r="B80" s="19" t="s">
+        <v>248</v>
+      </c>
       <c r="C80" s="8">
         <v>0.0</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="E80" s="8">
         <v>2.0</v>
@@ -5287,7 +6076,7 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="J80" s="8">
         <v>125.0</v>
@@ -5297,14 +6086,17 @@
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="14">
+      <c r="A81" s="16">
         <v>79.0</v>
       </c>
+      <c r="B81" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="C81" s="8">
         <v>0.0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="E81" s="8">
         <v>2.0</v>
@@ -5319,7 +6111,7 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="J81" s="8">
         <v>126.0</v>
@@ -5329,14 +6121,17 @@
       </c>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="14">
+      <c r="A82" s="16">
         <v>80.0</v>
       </c>
+      <c r="B82" s="19" t="s">
+        <v>254</v>
+      </c>
       <c r="C82" s="8">
         <v>0.0</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="E82" s="8">
         <v>2.0</v>
@@ -5351,7 +6146,7 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="J82" s="8">
         <v>127.0</v>
@@ -5361,14 +6156,17 @@
       </c>
     </row>
     <row r="83" ht="16.5" customHeight="1">
-      <c r="A83" s="14">
+      <c r="A83" s="16">
         <v>81.0</v>
       </c>
-      <c r="C83" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>176</v>
+      <c r="B83" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="E83" s="8">
         <v>2.0</v>
@@ -5383,9 +6181,9 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J83" s="18">
+        <v>259</v>
+      </c>
+      <c r="J83" s="21">
         <v>128.0</v>
       </c>
       <c r="K83" s="15">
@@ -5393,14 +6191,17 @@
       </c>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="14">
+      <c r="A84" s="16">
         <v>82.0</v>
       </c>
-      <c r="C84" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>178</v>
+      <c r="B84" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="E84" s="8">
         <v>2.0</v>
@@ -5415,9 +6216,9 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J84" s="18">
+        <v>262</v>
+      </c>
+      <c r="J84" s="21">
         <v>129.0</v>
       </c>
       <c r="K84" s="15">
@@ -5425,14 +6226,17 @@
       </c>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="14">
+      <c r="A85" s="16">
         <v>83.0</v>
       </c>
-      <c r="C85" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>180</v>
+      <c r="B85" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="E85" s="8">
         <v>2.0</v>
@@ -5447,9 +6251,9 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J85" s="18">
+        <v>265</v>
+      </c>
+      <c r="J85" s="21">
         <v>130.0</v>
       </c>
       <c r="K85" s="15">
@@ -5457,14 +6261,17 @@
       </c>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="14">
+      <c r="A86" s="16">
         <v>84.0</v>
       </c>
-      <c r="C86" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>182</v>
+      <c r="B86" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="E86" s="8">
         <v>2.0</v>
@@ -5479,9 +6286,9 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J86" s="18">
+        <v>268</v>
+      </c>
+      <c r="J86" s="21">
         <v>131.0</v>
       </c>
       <c r="K86" s="15">
@@ -5489,14 +6296,17 @@
       </c>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="14">
+      <c r="A87" s="16">
         <v>85.0</v>
       </c>
-      <c r="C87" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>184</v>
+      <c r="B87" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="E87" s="8">
         <v>2.0</v>
@@ -5511,9 +6321,9 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J87" s="18">
+        <v>271</v>
+      </c>
+      <c r="J87" s="21">
         <v>132.0</v>
       </c>
       <c r="K87" s="15">
@@ -5521,14 +6331,17 @@
       </c>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="14">
+      <c r="A88" s="16">
         <v>86.0</v>
       </c>
-      <c r="C88" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>186</v>
+      <c r="B88" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="E88" s="8">
         <v>2.0</v>
@@ -5543,9 +6356,9 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J88" s="18">
+        <v>274</v>
+      </c>
+      <c r="J88" s="21">
         <v>133.0</v>
       </c>
       <c r="K88" s="15">
@@ -5553,14 +6366,17 @@
       </c>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="14">
+      <c r="A89" s="16">
         <v>87.0</v>
       </c>
-      <c r="C89" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>188</v>
+      <c r="B89" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>276</v>
       </c>
       <c r="E89" s="8">
         <v>2.0</v>
@@ -5575,9 +6391,9 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="J89" s="18">
+        <v>277</v>
+      </c>
+      <c r="J89" s="21">
         <v>134.0</v>
       </c>
       <c r="K89" s="15">
@@ -5585,14 +6401,17 @@
       </c>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="14">
+      <c r="A90" s="16">
         <v>88.0</v>
       </c>
-      <c r="C90" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>190</v>
+      <c r="B90" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="E90" s="8">
         <v>2.0</v>
@@ -5607,9 +6426,9 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J90" s="18">
+        <v>280</v>
+      </c>
+      <c r="J90" s="21">
         <v>135.0</v>
       </c>
       <c r="K90" s="15">
@@ -5617,14 +6436,17 @@
       </c>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="14">
+      <c r="A91" s="16">
         <v>89.0</v>
       </c>
-      <c r="C91" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>192</v>
+      <c r="B91" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>282</v>
       </c>
       <c r="E91" s="8">
         <v>2.0</v>
@@ -5639,9 +6461,9 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J91" s="18">
+        <v>283</v>
+      </c>
+      <c r="J91" s="21">
         <v>136.0</v>
       </c>
       <c r="K91" s="15">
@@ -5649,14 +6471,17 @@
       </c>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="14">
+      <c r="A92" s="16">
         <v>90.0</v>
       </c>
-      <c r="C92" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>194</v>
+      <c r="B92" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="E92" s="8">
         <v>2.0</v>
@@ -5671,9 +6496,9 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J92" s="18">
+        <v>262</v>
+      </c>
+      <c r="J92" s="21">
         <v>137.0</v>
       </c>
       <c r="K92" s="15">
@@ -5681,14 +6506,17 @@
       </c>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="14">
+      <c r="A93" s="16">
         <v>91.0</v>
       </c>
-      <c r="C93" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>195</v>
+      <c r="B93" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="E93" s="8">
         <v>2.0</v>
@@ -5703,9 +6531,9 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J93" s="18">
+        <v>287</v>
+      </c>
+      <c r="J93" s="21">
         <v>147.0</v>
       </c>
       <c r="K93" s="15">
@@ -5713,14 +6541,17 @@
       </c>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="14">
+      <c r="A94" s="16">
         <v>92.0</v>
       </c>
-      <c r="C94" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>197</v>
+      <c r="B94" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="E94" s="8">
         <v>2.0</v>
@@ -5735,9 +6566,9 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J94" s="18">
+        <v>290</v>
+      </c>
+      <c r="J94" s="21">
         <v>148.0</v>
       </c>
       <c r="K94" s="15">
@@ -5745,14 +6576,17 @@
       </c>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="14">
+      <c r="A95" s="16">
         <v>93.0</v>
       </c>
-      <c r="C95" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>199</v>
+      <c r="B95" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="E95" s="8">
         <v>2.0</v>
@@ -5767,9 +6601,9 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J95" s="18">
+        <v>293</v>
+      </c>
+      <c r="J95" s="21">
         <v>149.0</v>
       </c>
       <c r="K95" s="15">
@@ -5777,14 +6611,17 @@
       </c>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="14">
+      <c r="A96" s="16">
         <v>94.0</v>
       </c>
-      <c r="C96" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>201</v>
+      <c r="B96" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="E96" s="8">
         <v>2.0</v>
@@ -5799,9 +6636,9 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J96" s="18">
+        <v>296</v>
+      </c>
+      <c r="J96" s="21">
         <v>150.0</v>
       </c>
       <c r="K96" s="15">
@@ -5809,14 +6646,17 @@
       </c>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="14">
+      <c r="A97" s="16">
         <v>95.0</v>
       </c>
-      <c r="C97" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>203</v>
+      <c r="B97" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="E97" s="8">
         <v>2.0</v>
@@ -5831,9 +6671,9 @@
         <v>0.0</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J97" s="18">
+        <v>299</v>
+      </c>
+      <c r="J97" s="21">
         <v>151.0</v>
       </c>
       <c r="K97" s="15">
@@ -5841,14 +6681,17 @@
       </c>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="14">
+      <c r="A98" s="16">
         <v>96.0</v>
       </c>
-      <c r="C98" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>205</v>
+      <c r="B98" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="E98" s="8">
         <v>2.0</v>
@@ -5863,9 +6706,9 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="J98" s="18">
+        <v>302</v>
+      </c>
+      <c r="J98" s="21">
         <v>152.0</v>
       </c>
       <c r="K98" s="15">
@@ -5873,14 +6716,17 @@
       </c>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="14">
+      <c r="A99" s="16">
         <v>97.0</v>
       </c>
-      <c r="C99" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>207</v>
+      <c r="B99" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>303</v>
       </c>
       <c r="E99" s="8">
         <v>2.0</v>
@@ -5895,9 +6741,9 @@
         <v>0.0</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="J99" s="18">
+        <v>304</v>
+      </c>
+      <c r="J99" s="21">
         <v>153.0</v>
       </c>
       <c r="K99" s="15">
@@ -5905,14 +6751,17 @@
       </c>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="14">
+      <c r="A100" s="16">
         <v>98.0</v>
       </c>
-      <c r="C100" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>209</v>
+      <c r="B100" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="E100" s="8">
         <v>2.0</v>
@@ -5927,9 +6776,9 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J100" s="18">
+        <v>307</v>
+      </c>
+      <c r="J100" s="21">
         <v>154.0</v>
       </c>
       <c r="K100" s="15">
@@ -5937,14 +6786,17 @@
       </c>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="14">
+      <c r="A101" s="16">
         <v>99.0</v>
       </c>
-      <c r="C101" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>211</v>
+      <c r="B101" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="E101" s="8">
         <v>2.0</v>
@@ -5959,9 +6811,9 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J101" s="18">
+        <v>310</v>
+      </c>
+      <c r="J101" s="21">
         <v>155.0</v>
       </c>
       <c r="K101" s="15">
@@ -5969,14 +6821,17 @@
       </c>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="14">
+      <c r="A102" s="16">
         <v>100.0</v>
       </c>
-      <c r="C102" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>213</v>
+      <c r="B102" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="E102" s="8">
         <v>2.0</v>
@@ -5991,9 +6846,9 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="J102" s="18">
+        <v>313</v>
+      </c>
+      <c r="J102" s="21">
         <v>156.0</v>
       </c>
       <c r="K102" s="15">
@@ -6001,14 +6856,17 @@
       </c>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="14">
+      <c r="A103" s="16">
         <v>101.0</v>
       </c>
-      <c r="C103" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>215</v>
+      <c r="B103" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E103" s="8">
         <v>2.0</v>
@@ -6023,9 +6881,9 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J103" s="18">
+        <v>316</v>
+      </c>
+      <c r="J103" s="21">
         <v>157.0</v>
       </c>
       <c r="K103" s="15">
@@ -6033,14 +6891,17 @@
       </c>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="14">
+      <c r="A104" s="16">
         <v>102.0</v>
       </c>
-      <c r="C104" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>217</v>
+      <c r="B104" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="E104" s="8">
         <v>2.0</v>
@@ -6055,9 +6916,9 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="J104" s="18">
+        <v>319</v>
+      </c>
+      <c r="J104" s="21">
         <v>158.0</v>
       </c>
       <c r="K104" s="15">
@@ -6065,14 +6926,17 @@
       </c>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="14">
+      <c r="A105" s="16">
         <v>103.0</v>
       </c>
-      <c r="C105" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>219</v>
+      <c r="B105" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="E105" s="8">
         <v>2.0</v>
@@ -6087,9 +6951,9 @@
         <v>0.0</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="J105" s="18">
+        <v>322</v>
+      </c>
+      <c r="J105" s="21">
         <v>159.0</v>
       </c>
       <c r="K105" s="15">
@@ -6097,14 +6961,17 @@
       </c>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="14">
+      <c r="A106" s="16">
         <v>104.0</v>
       </c>
-      <c r="C106" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>221</v>
+      <c r="B106" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="E106" s="8">
         <v>2.0</v>
@@ -6119,9 +6986,9 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="J106" s="18">
+        <v>325</v>
+      </c>
+      <c r="J106" s="21">
         <v>160.0</v>
       </c>
       <c r="K106" s="15">
@@ -6129,14 +6996,17 @@
       </c>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="14">
+      <c r="A107" s="16">
         <v>105.0</v>
       </c>
-      <c r="C107" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>223</v>
+      <c r="B107" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="E107" s="8">
         <v>2.0</v>
@@ -6151,9 +7021,9 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J107" s="18">
+        <v>328</v>
+      </c>
+      <c r="J107" s="21">
         <v>161.0</v>
       </c>
       <c r="K107" s="15">
@@ -6161,14 +7031,17 @@
       </c>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="14">
+      <c r="A108" s="16">
         <v>106.0</v>
       </c>
-      <c r="C108" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>70</v>
+      <c r="B108" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E108" s="8">
         <v>2.0</v>
@@ -6183,9 +7056,9 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="J108" s="18">
+        <v>329</v>
+      </c>
+      <c r="J108" s="21">
         <v>162.0</v>
       </c>
       <c r="K108" s="15">
@@ -6193,14 +7066,17 @@
       </c>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="14">
+      <c r="A109" s="16">
         <v>107.0</v>
       </c>
-      <c r="C109" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>226</v>
+      <c r="B109" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="E109" s="8">
         <v>2.0</v>
@@ -6215,9 +7091,9 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="J109" s="18">
+        <v>332</v>
+      </c>
+      <c r="J109" s="21">
         <v>163.0</v>
       </c>
       <c r="K109" s="15">
@@ -6225,14 +7101,17 @@
       </c>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="14">
+      <c r="A110" s="16">
         <v>108.0</v>
       </c>
-      <c r="C110" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>228</v>
+      <c r="B110" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="E110" s="8">
         <v>2.0</v>
@@ -6247,9 +7126,9 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J110" s="18">
+        <v>334</v>
+      </c>
+      <c r="J110" s="21">
         <v>164.0</v>
       </c>
       <c r="K110" s="15">
@@ -6257,14 +7136,17 @@
       </c>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="14">
+      <c r="A111" s="16">
         <v>109.0</v>
       </c>
-      <c r="C111" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>230</v>
+      <c r="B111" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="E111" s="8">
         <v>2.0</v>
@@ -6279,9 +7161,9 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="J111" s="18">
+        <v>336</v>
+      </c>
+      <c r="J111" s="21">
         <v>165.0</v>
       </c>
       <c r="K111" s="15">
@@ -6289,14 +7171,17 @@
       </c>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="14">
+      <c r="A112" s="16">
         <v>110.0</v>
       </c>
-      <c r="C112" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>232</v>
+      <c r="B112" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="E112" s="8">
         <v>2.0</v>
@@ -6311,9 +7196,9 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="J112" s="18">
+        <v>339</v>
+      </c>
+      <c r="J112" s="21">
         <v>166.0</v>
       </c>
       <c r="K112" s="15">
@@ -6321,14 +7206,17 @@
       </c>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="14">
+      <c r="A113" s="16">
         <v>111.0</v>
       </c>
-      <c r="C113" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D113" s="18" t="s">
-        <v>234</v>
+      <c r="B113" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="E113" s="8">
         <v>2.0</v>
@@ -6343,9 +7231,9 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J113" s="18">
+        <v>342</v>
+      </c>
+      <c r="J113" s="21">
         <v>167.0</v>
       </c>
       <c r="K113" s="15">
@@ -6353,14 +7241,17 @@
       </c>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="14">
+      <c r="A114" s="16">
         <v>112.0</v>
       </c>
-      <c r="C114" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>236</v>
+      <c r="B114" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>344</v>
       </c>
       <c r="E114" s="8">
         <v>2.0</v>
@@ -6375,9 +7266,9 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J114" s="18">
+        <v>345</v>
+      </c>
+      <c r="J114" s="21">
         <v>168.0</v>
       </c>
       <c r="K114" s="15">
@@ -6385,14 +7276,17 @@
       </c>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="14">
+      <c r="A115" s="16">
         <v>113.0</v>
       </c>
-      <c r="C115" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>238</v>
+      <c r="B115" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="E115" s="8">
         <v>2.0</v>
@@ -6407,9 +7301,9 @@
         <v>0.0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="J115" s="18">
+        <v>348</v>
+      </c>
+      <c r="J115" s="21">
         <v>169.0</v>
       </c>
       <c r="K115" s="15">
@@ -6417,14 +7311,17 @@
       </c>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="14">
+      <c r="A116" s="16">
         <v>114.0</v>
       </c>
-      <c r="C116" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>240</v>
+      <c r="B116" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="E116" s="8">
         <v>2.0</v>
@@ -6439,9 +7336,9 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J116" s="18">
+        <v>351</v>
+      </c>
+      <c r="J116" s="21">
         <v>170.0</v>
       </c>
       <c r="K116" s="15">
@@ -6449,14 +7346,17 @@
       </c>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="14">
+      <c r="A117" s="16">
         <v>115.0</v>
       </c>
-      <c r="C117" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>242</v>
+      <c r="B117" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="E117" s="8">
         <v>2.0</v>
@@ -6471,9 +7371,9 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="J117" s="18">
+        <v>354</v>
+      </c>
+      <c r="J117" s="21">
         <v>171.0</v>
       </c>
       <c r="K117" s="15">
@@ -6481,14 +7381,17 @@
       </c>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="14">
+      <c r="A118" s="16">
         <v>116.0</v>
       </c>
-      <c r="C118" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>244</v>
+      <c r="B118" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="E118" s="8">
         <v>2.0</v>
@@ -6503,9 +7406,9 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="J118" s="18">
+        <v>357</v>
+      </c>
+      <c r="J118" s="21">
         <v>172.0</v>
       </c>
       <c r="K118" s="15">
@@ -6513,14 +7416,17 @@
       </c>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="14">
+      <c r="A119" s="16">
         <v>117.0</v>
       </c>
-      <c r="C119" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>246</v>
+      <c r="B119" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="E119" s="8">
         <v>2.0</v>
@@ -6535,9 +7441,9 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J119" s="18">
+        <v>360</v>
+      </c>
+      <c r="J119" s="21">
         <v>173.0</v>
       </c>
       <c r="K119" s="15">
@@ -6545,14 +7451,17 @@
       </c>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="14">
+      <c r="A120" s="16">
         <v>118.0</v>
       </c>
-      <c r="C120" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>248</v>
+      <c r="B120" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C120" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>362</v>
       </c>
       <c r="E120" s="8">
         <v>2.0</v>
@@ -6567,9 +7476,9 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J120" s="18">
+        <v>363</v>
+      </c>
+      <c r="J120" s="21">
         <v>174.0</v>
       </c>
       <c r="K120" s="15">
@@ -6577,14 +7486,17 @@
       </c>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="14">
+      <c r="A121" s="16">
         <v>119.0</v>
       </c>
-      <c r="C121" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>250</v>
+      <c r="B121" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="E121" s="8">
         <v>2.0</v>
@@ -6599,9 +7511,9 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="J121" s="18">
+        <v>366</v>
+      </c>
+      <c r="J121" s="21">
         <v>175.0</v>
       </c>
       <c r="K121" s="15">
@@ -6609,14 +7521,17 @@
       </c>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="14">
+      <c r="A122" s="16">
         <v>120.0</v>
       </c>
-      <c r="C122" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>252</v>
+      <c r="B122" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C122" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="E122" s="8">
         <v>2.0</v>
@@ -6631,9 +7546,9 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="J122" s="18">
+        <v>369</v>
+      </c>
+      <c r="J122" s="21">
         <v>176.0</v>
       </c>
       <c r="K122" s="15">
@@ -6641,14 +7556,17 @@
       </c>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="14">
+      <c r="A123" s="16">
         <v>121.0</v>
       </c>
-      <c r="C123" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>254</v>
+      <c r="B123" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="E123" s="8">
         <v>2.0</v>
@@ -6663,9 +7581,9 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="J123" s="18">
+        <v>372</v>
+      </c>
+      <c r="J123" s="21">
         <v>177.0</v>
       </c>
       <c r="K123" s="15">
@@ -6673,14 +7591,17 @@
       </c>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="14">
+      <c r="A124" s="16">
         <v>122.0</v>
       </c>
-      <c r="C124" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>256</v>
+      <c r="B124" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="E124" s="8">
         <v>2.0</v>
@@ -6695,9 +7616,9 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J124" s="18">
+        <v>375</v>
+      </c>
+      <c r="J124" s="21">
         <v>178.0</v>
       </c>
       <c r="K124" s="15">
@@ -6705,14 +7626,17 @@
       </c>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="14">
+      <c r="A125" s="16">
         <v>123.0</v>
       </c>
-      <c r="C125" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>258</v>
+      <c r="B125" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C125" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>377</v>
       </c>
       <c r="E125" s="8">
         <v>2.0</v>
@@ -6727,9 +7651,9 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J125" s="18">
+        <v>378</v>
+      </c>
+      <c r="J125" s="21">
         <v>179.0</v>
       </c>
       <c r="K125" s="15">
@@ -6737,14 +7661,17 @@
       </c>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="14">
+      <c r="A126" s="16">
         <v>124.0</v>
       </c>
-      <c r="C126" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>260</v>
+      <c r="B126" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C126" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="E126" s="8">
         <v>2.0</v>
@@ -6759,9 +7686,9 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J126" s="18">
+        <v>381</v>
+      </c>
+      <c r="J126" s="21">
         <v>180.0</v>
       </c>
       <c r="K126" s="15">
@@ -6769,14 +7696,17 @@
       </c>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="14">
+      <c r="A127" s="16">
         <v>125.0</v>
       </c>
-      <c r="C127" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>262</v>
+      <c r="B127" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>383</v>
       </c>
       <c r="E127" s="8">
         <v>2.0</v>
@@ -6791,9 +7721,9 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J127" s="18">
+        <v>384</v>
+      </c>
+      <c r="J127" s="21">
         <v>181.0</v>
       </c>
       <c r="K127" s="15">
@@ -6801,14 +7731,17 @@
       </c>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="14">
+      <c r="A128" s="16">
         <v>126.0</v>
       </c>
-      <c r="C128" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D128" s="18" t="s">
-        <v>264</v>
+      <c r="B128" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C128" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="E128" s="8">
         <v>2.0</v>
@@ -6823,9 +7756,9 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="J128" s="18">
+        <v>387</v>
+      </c>
+      <c r="J128" s="21">
         <v>182.0</v>
       </c>
       <c r="K128" s="15">
@@ -6833,14 +7766,17 @@
       </c>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="14">
+      <c r="A129" s="16">
         <v>127.0</v>
       </c>
-      <c r="C129" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>266</v>
+      <c r="B129" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="E129" s="8">
         <v>2.0</v>
@@ -6855,9 +7791,9 @@
         <v>0.0</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="J129" s="18">
+        <v>357</v>
+      </c>
+      <c r="J129" s="21">
         <v>183.0</v>
       </c>
       <c r="K129" s="15">
@@ -6865,14 +7801,17 @@
       </c>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="14">
+      <c r="A130" s="16">
         <v>128.0</v>
       </c>
-      <c r="C130" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>267</v>
+      <c r="B130" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>390</v>
       </c>
       <c r="E130" s="8">
         <v>2.0</v>
@@ -6887,9 +7826,9 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J130" s="18">
+        <v>391</v>
+      </c>
+      <c r="J130" s="21">
         <v>184.0</v>
       </c>
       <c r="K130" s="15">
@@ -6897,14 +7836,17 @@
       </c>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="14">
+      <c r="A131" s="16">
         <v>129.0</v>
       </c>
-      <c r="C131" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>269</v>
+      <c r="B131" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C131" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>393</v>
       </c>
       <c r="E131" s="8">
         <v>2.0</v>
@@ -6919,9 +7861,9 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J131" s="18">
+        <v>125</v>
+      </c>
+      <c r="J131" s="21">
         <v>185.0</v>
       </c>
       <c r="K131" s="15">
@@ -6929,14 +7871,17 @@
       </c>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="14">
+      <c r="A132" s="16">
         <v>130.0</v>
       </c>
-      <c r="C132" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>270</v>
+      <c r="B132" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C132" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="E132" s="8">
         <v>2.0</v>
@@ -6951,9 +7896,9 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J132" s="18">
+        <v>396</v>
+      </c>
+      <c r="J132" s="21">
         <v>186.0</v>
       </c>
       <c r="K132" s="15">
@@ -6961,14 +7906,17 @@
       </c>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="14">
+      <c r="A133" s="16">
         <v>131.0</v>
       </c>
-      <c r="C133" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>272</v>
+      <c r="B133" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C133" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>398</v>
       </c>
       <c r="E133" s="8">
         <v>2.0</v>
@@ -6983,9 +7931,9 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="J133" s="18">
+        <v>399</v>
+      </c>
+      <c r="J133" s="21">
         <v>187.0</v>
       </c>
       <c r="K133" s="15">
@@ -6993,14 +7941,17 @@
       </c>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="14">
+      <c r="A134" s="16">
         <v>132.0</v>
       </c>
-      <c r="C134" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>274</v>
+      <c r="B134" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="E134" s="8">
         <v>2.0</v>
@@ -7015,9 +7966,9 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J134" s="18">
+        <v>402</v>
+      </c>
+      <c r="J134" s="21">
         <v>188.0</v>
       </c>
       <c r="K134" s="15">
@@ -7025,14 +7976,17 @@
       </c>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="14">
+      <c r="A135" s="16">
         <v>133.0</v>
       </c>
-      <c r="C135" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>276</v>
+      <c r="B135" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>404</v>
       </c>
       <c r="E135" s="8">
         <v>2.0</v>
@@ -7047,9 +8001,9 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J135" s="18">
+        <v>405</v>
+      </c>
+      <c r="J135" s="21">
         <v>189.0</v>
       </c>
       <c r="K135" s="15">
@@ -7057,14 +8011,17 @@
       </c>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="14">
+      <c r="A136" s="16">
         <v>134.0</v>
       </c>
-      <c r="C136" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>278</v>
+      <c r="B136" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C136" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="E136" s="8">
         <v>2.0</v>
@@ -7079,9 +8036,9 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="J136" s="18">
+        <v>408</v>
+      </c>
+      <c r="J136" s="21">
         <v>190.0</v>
       </c>
       <c r="K136" s="15">
@@ -7089,14 +8046,17 @@
       </c>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="14">
+      <c r="A137" s="16">
         <v>135.0</v>
       </c>
-      <c r="C137" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>280</v>
+      <c r="B137" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C137" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>410</v>
       </c>
       <c r="E137" s="8">
         <v>2.0</v>
@@ -7111,9 +8071,9 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J137" s="18">
+        <v>411</v>
+      </c>
+      <c r="J137" s="21">
         <v>191.0</v>
       </c>
       <c r="K137" s="15">
@@ -7121,14 +8081,17 @@
       </c>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="14">
+      <c r="A138" s="16">
         <v>136.0</v>
       </c>
-      <c r="C138" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>282</v>
+      <c r="B138" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>412</v>
       </c>
       <c r="E138" s="8">
         <v>2.0</v>
@@ -7143,9 +8106,9 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J138" s="18">
+        <v>316</v>
+      </c>
+      <c r="J138" s="21">
         <v>192.0</v>
       </c>
       <c r="K138" s="15">
@@ -7153,14 +8116,17 @@
       </c>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="14">
+      <c r="A139" s="16">
         <v>137.0</v>
       </c>
-      <c r="C139" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>283</v>
+      <c r="B139" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>414</v>
       </c>
       <c r="E139" s="8">
         <v>2.0</v>
@@ -7175,9 +8141,9 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="J139" s="18">
+        <v>415</v>
+      </c>
+      <c r="J139" s="21">
         <v>204.0</v>
       </c>
       <c r="K139" s="15">
@@ -7185,14 +8151,17 @@
       </c>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="14">
+      <c r="A140" s="16">
         <v>138.0</v>
       </c>
-      <c r="C140" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>285</v>
+      <c r="B140" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>417</v>
       </c>
       <c r="E140" s="8">
         <v>2.0</v>
@@ -7207,9 +8176,9 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J140" s="18">
+        <v>418</v>
+      </c>
+      <c r="J140" s="21">
         <v>205.0</v>
       </c>
       <c r="K140" s="15">
@@ -7217,14 +8186,17 @@
       </c>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="14">
+      <c r="A141" s="16">
         <v>139.0</v>
       </c>
-      <c r="C141" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>287</v>
+      <c r="B141" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>420</v>
       </c>
       <c r="E141" s="8">
         <v>2.0</v>
@@ -7239,9 +8211,9 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J141" s="18">
+        <v>421</v>
+      </c>
+      <c r="J141" s="21">
         <v>206.0</v>
       </c>
       <c r="K141" s="15">
@@ -7249,14 +8221,17 @@
       </c>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="14">
+      <c r="A142" s="16">
         <v>140.0</v>
       </c>
-      <c r="C142" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>289</v>
+      <c r="B142" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C142" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>423</v>
       </c>
       <c r="E142" s="8">
         <v>2.0</v>
@@ -7271,9 +8246,9 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J142" s="18">
+        <v>424</v>
+      </c>
+      <c r="J142" s="21">
         <v>207.0</v>
       </c>
       <c r="K142" s="15">
@@ -7281,14 +8256,17 @@
       </c>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="14">
+      <c r="A143" s="16">
         <v>141.0</v>
       </c>
-      <c r="C143" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D143" s="18" t="s">
-        <v>291</v>
+      <c r="B143" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C143" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>426</v>
       </c>
       <c r="E143" s="8">
         <v>2.0</v>
@@ -7303,9 +8281,9 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J143" s="18">
+        <v>427</v>
+      </c>
+      <c r="J143" s="21">
         <v>208.0</v>
       </c>
       <c r="K143" s="15">
@@ -7313,14 +8291,17 @@
       </c>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="14">
+      <c r="A144" s="16">
         <v>142.0</v>
       </c>
-      <c r="C144" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D144" s="18" t="s">
-        <v>293</v>
+      <c r="B144" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C144" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>429</v>
       </c>
       <c r="E144" s="8">
         <v>2.0</v>
@@ -7335,9 +8316,9 @@
         <v>0.0</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="J144" s="18">
+        <v>430</v>
+      </c>
+      <c r="J144" s="21">
         <v>209.0</v>
       </c>
       <c r="K144" s="15">
@@ -7345,14 +8326,17 @@
       </c>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="14">
+      <c r="A145" s="16">
         <v>143.0</v>
       </c>
-      <c r="C145" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>295</v>
+      <c r="B145" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C145" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>432</v>
       </c>
       <c r="E145" s="8">
         <v>2.0</v>
@@ -7367,9 +8351,9 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J145" s="18">
+        <v>433</v>
+      </c>
+      <c r="J145" s="21">
         <v>210.0</v>
       </c>
       <c r="K145" s="15">
@@ -7377,14 +8361,17 @@
       </c>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="14">
+      <c r="A146" s="16">
         <v>144.0</v>
       </c>
-      <c r="C146" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>297</v>
+      <c r="B146" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C146" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>435</v>
       </c>
       <c r="E146" s="8">
         <v>2.0</v>
@@ -7399,9 +8386,9 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J146" s="18">
+        <v>436</v>
+      </c>
+      <c r="J146" s="21">
         <v>211.0</v>
       </c>
       <c r="K146" s="15">
@@ -7409,14 +8396,17 @@
       </c>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="14">
+      <c r="A147" s="16">
         <v>145.0</v>
       </c>
-      <c r="C147" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>299</v>
+      <c r="B147" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>438</v>
       </c>
       <c r="E147" s="8">
         <v>2.0</v>
@@ -7431,9 +8421,9 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J147" s="18">
+        <v>439</v>
+      </c>
+      <c r="J147" s="21">
         <v>212.0</v>
       </c>
       <c r="K147" s="15">
@@ -7441,14 +8431,17 @@
       </c>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="14">
+      <c r="A148" s="16">
         <v>146.0</v>
       </c>
-      <c r="C148" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>301</v>
+      <c r="B148" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>441</v>
       </c>
       <c r="E148" s="8">
         <v>2.0</v>
@@ -7463,9 +8456,9 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J148" s="18">
+        <v>442</v>
+      </c>
+      <c r="J148" s="21">
         <v>213.0</v>
       </c>
       <c r="K148" s="15">
@@ -7473,14 +8466,17 @@
       </c>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="14">
+      <c r="A149" s="16">
         <v>147.0</v>
       </c>
-      <c r="C149" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>303</v>
+      <c r="B149" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C149" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>444</v>
       </c>
       <c r="E149" s="8">
         <v>2.0</v>
@@ -7495,9 +8491,9 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J149" s="18">
+        <v>445</v>
+      </c>
+      <c r="J149" s="21">
         <v>214.0</v>
       </c>
       <c r="K149" s="15">
@@ -7505,14 +8501,17 @@
       </c>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="14">
+      <c r="A150" s="16">
         <v>148.0</v>
       </c>
-      <c r="C150" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>305</v>
+      <c r="B150" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>447</v>
       </c>
       <c r="E150" s="8">
         <v>2.0</v>
@@ -7527,9 +8526,9 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="J150" s="18">
+        <v>448</v>
+      </c>
+      <c r="J150" s="21">
         <v>215.0</v>
       </c>
       <c r="K150" s="15">
@@ -7537,14 +8536,17 @@
       </c>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="14">
+      <c r="A151" s="16">
         <v>149.0</v>
       </c>
-      <c r="C151" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>307</v>
+      <c r="B151" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C151" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>450</v>
       </c>
       <c r="E151" s="8">
         <v>2.0</v>
@@ -7559,9 +8561,9 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="J151" s="18">
+        <v>451</v>
+      </c>
+      <c r="J151" s="21">
         <v>216.0</v>
       </c>
       <c r="K151" s="15">
@@ -7569,14 +8571,17 @@
       </c>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="14">
+      <c r="A152" s="16">
         <v>150.0</v>
       </c>
-      <c r="C152" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>309</v>
+      <c r="B152" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>453</v>
       </c>
       <c r="E152" s="8">
         <v>2.0</v>
@@ -7591,9 +8596,9 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J152" s="18">
+        <v>454</v>
+      </c>
+      <c r="J152" s="21">
         <v>217.0</v>
       </c>
       <c r="K152" s="15">
@@ -7601,14 +8606,17 @@
       </c>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="14">
+      <c r="A153" s="16">
         <v>151.0</v>
       </c>
-      <c r="C153" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>311</v>
+      <c r="B153" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C153" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>455</v>
       </c>
       <c r="E153" s="8">
         <v>2.0</v>
@@ -7623,9 +8631,9 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J153" s="18">
+        <v>436</v>
+      </c>
+      <c r="J153" s="21">
         <v>218.0</v>
       </c>
       <c r="K153" s="15">
@@ -7633,14 +8641,17 @@
       </c>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="14">
+      <c r="A154" s="16">
         <v>152.0</v>
       </c>
-      <c r="C154" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>312</v>
+      <c r="B154" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C154" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>456</v>
       </c>
       <c r="E154" s="8">
         <v>2.0</v>
@@ -7655,9 +8666,9 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J154" s="18">
+        <v>439</v>
+      </c>
+      <c r="J154" s="21">
         <v>219.0</v>
       </c>
       <c r="K154" s="15">
@@ -7665,14 +8676,17 @@
       </c>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="14">
+      <c r="A155" s="16">
         <v>153.0</v>
       </c>
-      <c r="C155" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>313</v>
+      <c r="B155" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C155" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>458</v>
       </c>
       <c r="E155" s="8">
         <v>2.0</v>
@@ -7687,9 +8701,9 @@
         <v>0.0</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J155" s="18">
+        <v>459</v>
+      </c>
+      <c r="J155" s="21">
         <v>220.0</v>
       </c>
       <c r="K155" s="15">
@@ -7697,14 +8711,17 @@
       </c>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="14">
+      <c r="A156" s="16">
         <v>154.0</v>
       </c>
-      <c r="C156" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>315</v>
+      <c r="B156" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C156" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>461</v>
       </c>
       <c r="E156" s="8">
         <v>2.0</v>
@@ -7719,9 +8736,9 @@
         <v>0.0</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J156" s="18">
+        <v>462</v>
+      </c>
+      <c r="J156" s="21">
         <v>221.0</v>
       </c>
       <c r="K156" s="15">
@@ -7729,14 +8746,17 @@
       </c>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="14">
+      <c r="A157" s="16">
         <v>155.0</v>
       </c>
-      <c r="C157" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D157" s="18" t="s">
-        <v>317</v>
+      <c r="B157" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C157" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>464</v>
       </c>
       <c r="E157" s="8">
         <v>2.0</v>
@@ -7751,9 +8771,9 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="J157" s="18">
+        <v>465</v>
+      </c>
+      <c r="J157" s="21">
         <v>222.0</v>
       </c>
       <c r="K157" s="15">
@@ -7761,14 +8781,17 @@
       </c>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="14">
+      <c r="A158" s="16">
         <v>156.0</v>
       </c>
-      <c r="C158" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>319</v>
+      <c r="B158" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C158" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>467</v>
       </c>
       <c r="E158" s="8">
         <v>2.0</v>
@@ -7783,9 +8806,9 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J158" s="18">
+        <v>468</v>
+      </c>
+      <c r="J158" s="21">
         <v>223.0</v>
       </c>
       <c r="K158" s="15">
@@ -7793,14 +8816,17 @@
       </c>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="14">
+      <c r="A159" s="16">
         <v>157.0</v>
       </c>
+      <c r="B159" s="15" t="s">
+        <v>469</v>
+      </c>
       <c r="C159" s="8">
         <v>0.0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="E159" s="8">
         <v>2.0</v>
@@ -7815,7 +8841,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>322</v>
+        <v>471</v>
       </c>
       <c r="J159" s="8">
         <v>227.0</v>
@@ -7825,14 +8851,17 @@
       </c>
     </row>
     <row r="160" ht="16.5" customHeight="1">
-      <c r="A160" s="14">
+      <c r="A160" s="16">
         <v>158.0</v>
       </c>
-      <c r="C160" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D160" s="21" t="s">
-        <v>323</v>
+      <c r="B160" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C160" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>473</v>
       </c>
       <c r="E160" s="8">
         <v>2.0</v>
@@ -7847,7 +8876,7 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="J160" s="8">
         <v>199.0</v>
@@ -7857,14 +8886,17 @@
       </c>
     </row>
     <row r="161" ht="16.5" customHeight="1">
-      <c r="A161" s="14">
+      <c r="A161" s="16">
         <v>159.0</v>
       </c>
-      <c r="C161" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>325</v>
+      <c r="B161" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C161" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D161" s="24" t="s">
+        <v>476</v>
       </c>
       <c r="E161" s="8">
         <v>2.0</v>
@@ -7879,7 +8911,7 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="J161" s="8">
         <v>112.0</v>
@@ -7889,14 +8921,17 @@
       </c>
     </row>
     <row r="162" ht="16.5" customHeight="1">
-      <c r="A162" s="14">
+      <c r="A162" s="16">
         <v>160.0</v>
       </c>
-      <c r="C162" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>327</v>
+      <c r="B162" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>479</v>
       </c>
       <c r="E162" s="8">
         <v>2.0</v>
@@ -7911,7 +8946,7 @@
         <v>0.0</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>328</v>
+        <v>480</v>
       </c>
       <c r="J162" s="8">
         <v>143.0</v>
@@ -7921,14 +8956,17 @@
       </c>
     </row>
     <row r="163" ht="16.5" customHeight="1">
-      <c r="A163" s="14">
+      <c r="A163" s="16">
         <v>161.0</v>
       </c>
-      <c r="C163" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>329</v>
+      <c r="B163" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C163" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>482</v>
       </c>
       <c r="E163" s="8">
         <v>2.0</v>
@@ -7943,7 +8981,7 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="J163" s="8">
         <v>146.0</v>
@@ -7953,14 +8991,17 @@
       </c>
     </row>
     <row r="164" ht="16.5" customHeight="1">
-      <c r="A164" s="14">
+      <c r="A164" s="16">
         <v>162.0</v>
       </c>
-      <c r="C164" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>331</v>
+      <c r="B164" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>485</v>
       </c>
       <c r="E164" s="8">
         <v>2.0</v>
@@ -7975,7 +9016,7 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="J164" s="8">
         <v>18.0</v>
@@ -7985,14 +9026,17 @@
       </c>
     </row>
     <row r="165" ht="16.5" customHeight="1">
-      <c r="A165" s="14">
+      <c r="A165" s="16">
         <v>163.0</v>
       </c>
+      <c r="B165" s="15" t="s">
+        <v>486</v>
+      </c>
       <c r="C165" s="8">
         <v>0.0</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>332</v>
+        <v>487</v>
       </c>
       <c r="E165" s="8">
         <v>2.0</v>
@@ -8007,7 +9051,7 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>333</v>
+        <v>488</v>
       </c>
       <c r="J165" s="8">
         <v>201.0</v>
@@ -8017,14 +9061,17 @@
       </c>
     </row>
     <row r="166" ht="16.5" customHeight="1">
-      <c r="A166" s="14">
+      <c r="A166" s="16">
         <v>164.0</v>
       </c>
+      <c r="B166" s="15" t="s">
+        <v>489</v>
+      </c>
       <c r="C166" s="8">
         <v>0.0</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="E166" s="8">
         <v>2.0</v>
@@ -8039,7 +9086,7 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="J166" s="8">
         <v>86.0</v>
@@ -8049,14 +9096,17 @@
       </c>
     </row>
     <row r="167" ht="16.5" customHeight="1">
-      <c r="A167" s="14">
+      <c r="A167" s="16">
         <v>165.0</v>
       </c>
+      <c r="B167" s="15" t="s">
+        <v>492</v>
+      </c>
       <c r="C167" s="8">
         <v>0.0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="E167" s="8">
         <v>2.0</v>
@@ -8071,7 +9121,7 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>337</v>
+        <v>494</v>
       </c>
       <c r="J167" s="8">
         <v>141.0</v>
@@ -8081,14 +9131,17 @@
       </c>
     </row>
     <row r="168" ht="16.5" customHeight="1">
-      <c r="A168" s="14">
+      <c r="A168" s="16">
         <v>166.0</v>
       </c>
-      <c r="C168" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>338</v>
+      <c r="B168" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C168" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>496</v>
       </c>
       <c r="E168" s="8">
         <v>2.0</v>
@@ -8103,7 +9156,7 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>339</v>
+        <v>497</v>
       </c>
       <c r="J168" s="8">
         <v>107.0</v>
@@ -8113,14 +9166,17 @@
       </c>
     </row>
     <row r="169" ht="16.5" customHeight="1">
-      <c r="A169" s="14">
+      <c r="A169" s="16">
         <v>167.0</v>
       </c>
+      <c r="B169" s="15" t="s">
+        <v>498</v>
+      </c>
       <c r="C169" s="8">
         <v>0.0</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>340</v>
+        <v>499</v>
       </c>
       <c r="E169" s="8">
         <v>2.0</v>
@@ -8135,7 +9191,7 @@
         <v>0.0</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>341</v>
+        <v>500</v>
       </c>
       <c r="J169" s="8">
         <v>81.0</v>
@@ -8145,14 +9201,17 @@
       </c>
     </row>
     <row r="170" ht="16.5" customHeight="1">
-      <c r="A170" s="14">
+      <c r="A170" s="16">
         <v>168.0</v>
       </c>
+      <c r="B170" s="15" t="s">
+        <v>501</v>
+      </c>
       <c r="C170" s="8">
         <v>0.0</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="E170" s="8">
         <v>2.0</v>
@@ -8167,7 +9226,7 @@
         <v>0.0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>343</v>
+        <v>503</v>
       </c>
       <c r="J170" s="8">
         <v>108.0</v>
@@ -8177,14 +9236,17 @@
       </c>
     </row>
     <row r="171" ht="16.5" customHeight="1">
-      <c r="A171" s="14">
+      <c r="A171" s="16">
         <v>169.0</v>
       </c>
+      <c r="B171" s="15" t="s">
+        <v>504</v>
+      </c>
       <c r="C171" s="8">
         <v>0.0</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>344</v>
+        <v>505</v>
       </c>
       <c r="E171" s="8">
         <v>2.0</v>
@@ -8199,7 +9261,7 @@
         <v>0.0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="J171" s="8">
         <v>139.0</v>
@@ -8209,14 +9271,17 @@
       </c>
     </row>
     <row r="172" ht="16.5" customHeight="1">
-      <c r="A172" s="14">
+      <c r="A172" s="16">
         <v>170.0</v>
       </c>
+      <c r="B172" s="15" t="s">
+        <v>507</v>
+      </c>
       <c r="C172" s="8">
         <v>0.0</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>346</v>
+        <v>508</v>
       </c>
       <c r="E172" s="8">
         <v>2.0</v>
@@ -8231,7 +9296,7 @@
         <v>0.0</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>347</v>
+        <v>509</v>
       </c>
       <c r="J172" s="8">
         <v>194.0</v>
@@ -8241,14 +9306,17 @@
       </c>
     </row>
     <row r="173" ht="16.5" customHeight="1">
-      <c r="A173" s="14">
+      <c r="A173" s="16">
         <v>171.0</v>
       </c>
+      <c r="B173" s="15" t="s">
+        <v>510</v>
+      </c>
       <c r="C173" s="8">
         <v>0.0</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="E173" s="8">
         <v>2.0</v>
@@ -8263,7 +9331,7 @@
         <v>0.0</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>349</v>
+        <v>512</v>
       </c>
       <c r="J173" s="8">
         <v>83.0</v>
@@ -8273,14 +9341,17 @@
       </c>
     </row>
     <row r="174" ht="16.5" customHeight="1">
-      <c r="A174" s="14">
+      <c r="A174" s="16">
         <v>172.0</v>
       </c>
-      <c r="C174" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>350</v>
+      <c r="B174" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C174" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>514</v>
       </c>
       <c r="E174" s="8">
         <v>2.0</v>
@@ -8295,7 +9366,7 @@
         <v>0.0</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>351</v>
+        <v>515</v>
       </c>
       <c r="J174" s="8">
         <v>228.0</v>
@@ -8305,14 +9376,17 @@
       </c>
     </row>
     <row r="175" ht="16.5" customHeight="1">
-      <c r="A175" s="14">
+      <c r="A175" s="16">
         <v>173.0</v>
       </c>
+      <c r="B175" s="15" t="s">
+        <v>516</v>
+      </c>
       <c r="C175" s="8">
         <v>0.0</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>352</v>
+        <v>517</v>
       </c>
       <c r="E175" s="8">
         <v>2.0</v>
@@ -8327,7 +9401,7 @@
         <v>0.0</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="J175" s="8">
         <v>197.0</v>
@@ -8337,14 +9411,17 @@
       </c>
     </row>
     <row r="176" ht="16.5" customHeight="1">
-      <c r="A176" s="14">
+      <c r="A176" s="16">
         <v>174.0</v>
       </c>
+      <c r="B176" s="15" t="s">
+        <v>519</v>
+      </c>
       <c r="C176" s="8">
         <v>0.0</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>354</v>
+        <v>520</v>
       </c>
       <c r="E176" s="8">
         <v>2.0</v>
@@ -8359,7 +9436,7 @@
         <v>0.0</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>355</v>
+        <v>521</v>
       </c>
       <c r="J176" s="8">
         <v>226.0</v>
@@ -8369,14 +9446,17 @@
       </c>
     </row>
     <row r="177" ht="16.5" customHeight="1">
-      <c r="A177" s="14">
+      <c r="A177" s="16">
         <v>175.0</v>
       </c>
+      <c r="B177" s="15" t="s">
+        <v>522</v>
+      </c>
       <c r="C177" s="8">
         <v>0.0</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>356</v>
+        <v>523</v>
       </c>
       <c r="E177" s="8">
         <v>2.0</v>
@@ -8391,7 +9471,7 @@
         <v>0.0</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="J177" s="8">
         <v>225.0</v>
@@ -8401,14 +9481,17 @@
       </c>
     </row>
     <row r="178" ht="16.5" customHeight="1">
-      <c r="A178" s="14">
+      <c r="A178" s="16">
         <v>176.0</v>
       </c>
+      <c r="B178" s="15" t="s">
+        <v>525</v>
+      </c>
       <c r="C178" s="8">
         <v>0.0</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>358</v>
+        <v>526</v>
       </c>
       <c r="E178" s="8">
         <v>2.0</v>
@@ -8423,7 +9506,7 @@
         <v>0.0</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>359</v>
+        <v>527</v>
       </c>
       <c r="J178" s="8">
         <v>111.0</v>
@@ -8433,14 +9516,17 @@
       </c>
     </row>
     <row r="179" ht="16.5" customHeight="1">
-      <c r="A179" s="14">
+      <c r="A179" s="16">
         <v>177.0</v>
       </c>
-      <c r="C179" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>360</v>
+      <c r="B179" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C179" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>529</v>
       </c>
       <c r="E179" s="8">
         <v>2.0</v>
@@ -8455,7 +9541,7 @@
         <v>0.0</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>361</v>
+        <v>530</v>
       </c>
       <c r="J179" s="8">
         <v>145.0</v>
@@ -8465,14 +9551,17 @@
       </c>
     </row>
     <row r="180" ht="16.5" customHeight="1">
-      <c r="A180" s="14">
+      <c r="A180" s="16">
         <v>178.0</v>
       </c>
-      <c r="C180" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>362</v>
+      <c r="B180" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C180" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>532</v>
       </c>
       <c r="E180" s="8">
         <v>2.0</v>
@@ -8487,7 +9576,7 @@
         <v>0.0</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="J180" s="8">
         <v>109.0</v>
@@ -8497,14 +9586,17 @@
       </c>
     </row>
     <row r="181" ht="16.5" customHeight="1">
-      <c r="A181" s="14">
+      <c r="A181" s="16">
         <v>179.0</v>
       </c>
+      <c r="B181" s="15" t="s">
+        <v>534</v>
+      </c>
       <c r="C181" s="8">
         <v>0.0</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>364</v>
+        <v>535</v>
       </c>
       <c r="E181" s="8">
         <v>2.0</v>
@@ -8519,7 +9611,7 @@
         <v>0.0</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>365</v>
+        <v>536</v>
       </c>
       <c r="J181" s="8">
         <v>198.0</v>
@@ -8529,14 +9621,17 @@
       </c>
     </row>
     <row r="182" ht="16.5" customHeight="1">
-      <c r="A182" s="14">
+      <c r="A182" s="16">
         <v>180.0</v>
       </c>
+      <c r="B182" s="15" t="s">
+        <v>537</v>
+      </c>
       <c r="C182" s="8">
         <v>0.0</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>366</v>
+        <v>538</v>
       </c>
       <c r="E182" s="8">
         <v>2.0</v>
@@ -8551,7 +9646,7 @@
         <v>0.0</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>367</v>
+        <v>539</v>
       </c>
       <c r="J182" s="8">
         <v>144.0</v>
@@ -8561,14 +9656,17 @@
       </c>
     </row>
     <row r="183" ht="16.5" customHeight="1">
-      <c r="A183" s="14">
+      <c r="A183" s="16">
         <v>181.0</v>
       </c>
+      <c r="B183" s="15" t="s">
+        <v>540</v>
+      </c>
       <c r="C183" s="8">
         <v>0.0</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>368</v>
+        <v>541</v>
       </c>
       <c r="E183" s="8">
         <v>2.0</v>
@@ -8583,7 +9681,7 @@
         <v>0.0</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>369</v>
+        <v>542</v>
       </c>
       <c r="J183" s="8">
         <v>110.0</v>
@@ -8593,14 +9691,17 @@
       </c>
     </row>
     <row r="184" ht="16.5" customHeight="1">
-      <c r="A184" s="14">
+      <c r="A184" s="16">
         <v>182.0</v>
       </c>
+      <c r="B184" s="25" t="s">
+        <v>543</v>
+      </c>
       <c r="C184" s="8">
         <v>0.0</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="E184" s="8">
         <v>2.0</v>
@@ -8615,7 +9716,7 @@
         <v>0.0</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>316</v>
+        <v>462</v>
       </c>
       <c r="J184" s="8">
         <v>64.0</v>
@@ -8625,14 +9726,17 @@
       </c>
     </row>
     <row r="185" ht="16.5" customHeight="1">
-      <c r="A185" s="14">
+      <c r="A185" s="16">
         <v>183.0</v>
       </c>
-      <c r="C185" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>371</v>
+      <c r="B185" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C185" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>545</v>
       </c>
       <c r="E185" s="8">
         <v>2.0</v>
@@ -8647,7 +9751,7 @@
         <v>0.0</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="J185" s="8">
         <v>210.0</v>
@@ -8657,14 +9761,14 @@
       </c>
     </row>
     <row r="186" ht="16.5" customHeight="1">
-      <c r="A186" s="14">
+      <c r="A186" s="16">
         <v>184.0</v>
       </c>
-      <c r="C186" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>372</v>
+      <c r="C186" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>546</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -8679,7 +9783,7 @@
         <v>0.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>373</v>
+        <v>547</v>
       </c>
       <c r="J186" s="8">
         <v>202.0</v>
@@ -8689,14 +9793,14 @@
       </c>
     </row>
     <row r="187" ht="16.5" customHeight="1">
-      <c r="A187" s="14">
+      <c r="A187" s="16">
         <v>185.0</v>
       </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>374</v>
+        <v>548</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -8711,7 +9815,7 @@
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>375</v>
+        <v>549</v>
       </c>
       <c r="J187" s="8">
         <v>138.0</v>
@@ -8721,14 +9825,14 @@
       </c>
     </row>
     <row r="188" ht="16.5" customHeight="1">
-      <c r="A188" s="14">
+      <c r="A188" s="16">
         <v>186.0</v>
       </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>376</v>
+        <v>550</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -8743,7 +9847,7 @@
         <v>0.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>377</v>
+        <v>551</v>
       </c>
       <c r="J188" s="8">
         <v>142.0</v>
@@ -8753,14 +9857,14 @@
       </c>
     </row>
     <row r="189" ht="16.5" customHeight="1">
-      <c r="A189" s="14">
+      <c r="A189" s="16">
         <v>187.0</v>
       </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -8775,7 +9879,7 @@
         <v>0.0</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>379</v>
+        <v>553</v>
       </c>
       <c r="J189" s="8">
         <v>196.0</v>
@@ -8785,14 +9889,14 @@
       </c>
     </row>
     <row r="190" ht="16.5" customHeight="1">
-      <c r="A190" s="14">
+      <c r="A190" s="16">
         <v>188.0</v>
       </c>
-      <c r="C190" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>380</v>
+      <c r="C190" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>554</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -8807,7 +9911,7 @@
         <v>0.0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>381</v>
+        <v>555</v>
       </c>
       <c r="J190" s="8">
         <v>195.0</v>
@@ -8817,14 +9921,14 @@
       </c>
     </row>
     <row r="191" ht="16.5" customHeight="1">
-      <c r="A191" s="14">
+      <c r="A191" s="16">
         <v>189.0</v>
       </c>
-      <c r="C191" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>382</v>
+      <c r="C191" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>556</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -8839,7 +9943,7 @@
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>383</v>
+        <v>557</v>
       </c>
       <c r="J191" s="8">
         <v>113.0</v>
@@ -8849,14 +9953,14 @@
       </c>
     </row>
     <row r="192" ht="16.5" customHeight="1">
-      <c r="A192" s="14">
+      <c r="A192" s="16">
         <v>190.0</v>
       </c>
-      <c r="C192" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>384</v>
+      <c r="C192" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>558</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -8871,7 +9975,7 @@
         <v>0.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>385</v>
+        <v>559</v>
       </c>
       <c r="J192" s="8">
         <v>193.0</v>

--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="567">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -1674,40 +1674,61 @@
     <t>새우 튀김</t>
   </si>
   <si>
+    <t>Tangsuyuk</t>
+  </si>
+  <si>
     <t>탕수육</t>
   </si>
   <si>
     <t>68,37,13</t>
   </si>
   <si>
-    <t>새우탕수육</t>
+    <t>Shrimp_Tangsuyuk</t>
+  </si>
+  <si>
+    <t>새우 탕수육</t>
   </si>
   <si>
     <t>69,37,13</t>
   </si>
   <si>
+    <t>Fish_Tangsuyuk</t>
+  </si>
+  <si>
     <t>생선 탕수육</t>
   </si>
   <si>
     <t>70,37,13</t>
   </si>
   <si>
+    <t>Vegetable_Tansuyuk</t>
+  </si>
+  <si>
     <t>야채 탕수육</t>
   </si>
   <si>
     <t>64,37,13</t>
   </si>
   <si>
+    <t>Vegetable_Juice</t>
+  </si>
+  <si>
     <t>야채 주스</t>
   </si>
   <si>
     <t>24,23,22</t>
   </si>
   <si>
+    <t>Fishy_Juice</t>
+  </si>
+  <si>
     <t>비린 주스</t>
   </si>
   <si>
     <t>21,19,24</t>
+  </si>
+  <si>
+    <t>Allergic Juice</t>
   </si>
   <si>
     <t>알레르기 주스</t>
@@ -9764,11 +9785,14 @@
       <c r="A186" s="16">
         <v>184.0</v>
       </c>
+      <c r="B186" s="15" t="s">
+        <v>546</v>
+      </c>
       <c r="C186" s="24">
         <v>0.0</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -9783,7 +9807,7 @@
         <v>0.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J186" s="8">
         <v>202.0</v>
@@ -9796,11 +9820,14 @@
       <c r="A187" s="16">
         <v>185.0</v>
       </c>
+      <c r="B187" s="15" t="s">
+        <v>549</v>
+      </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -9815,7 +9842,7 @@
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J187" s="8">
         <v>138.0</v>
@@ -9828,11 +9855,14 @@
       <c r="A188" s="16">
         <v>186.0</v>
       </c>
+      <c r="B188" s="15" t="s">
+        <v>552</v>
+      </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -9847,7 +9877,7 @@
         <v>0.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="J188" s="8">
         <v>142.0</v>
@@ -9860,11 +9890,14 @@
       <c r="A189" s="16">
         <v>187.0</v>
       </c>
+      <c r="B189" s="15" t="s">
+        <v>555</v>
+      </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -9879,7 +9912,7 @@
         <v>0.0</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="J189" s="8">
         <v>196.0</v>
@@ -9892,11 +9925,14 @@
       <c r="A190" s="16">
         <v>188.0</v>
       </c>
+      <c r="B190" s="15" t="s">
+        <v>558</v>
+      </c>
       <c r="C190" s="24">
         <v>0.0</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -9911,7 +9947,7 @@
         <v>0.0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J190" s="8">
         <v>195.0</v>
@@ -9924,11 +9960,14 @@
       <c r="A191" s="16">
         <v>189.0</v>
       </c>
+      <c r="B191" s="15" t="s">
+        <v>561</v>
+      </c>
       <c r="C191" s="24">
         <v>0.0</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -9943,7 +9982,7 @@
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="J191" s="8">
         <v>113.0</v>
@@ -9956,11 +9995,14 @@
       <c r="A192" s="16">
         <v>190.0</v>
       </c>
+      <c r="B192" s="15" t="s">
+        <v>564</v>
+      </c>
       <c r="C192" s="24">
         <v>0.0</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -9975,7 +10017,7 @@
         <v>0.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="J192" s="8">
         <v>193.0</v>

--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="pCS0CdagARTSxtaWN9rSkYI844k0URpIdXRgVdi6gvM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Ex1fhSwvDBFAYEr/vjXnKIzQl5Ri8/LoeDp1VuWAFAw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="614">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -81,7 +81,7 @@
 해당 값이 0일 겨우 사용하지 않음</t>
   </si>
   <si>
-    <t>AddFoodName</t>
+    <t>AddFood1</t>
   </si>
   <si>
     <t>Foodtype이 FoodAdd일 경우 사용
@@ -90,6 +90,9 @@
 해당 값이 0일 경우 사용하지 않음</t>
   </si>
   <si>
+    <t>AddFood2</t>
+  </si>
+  <si>
     <t>AddOuput</t>
   </si>
   <si>
@@ -123,6 +126,13 @@
     <t>맘파</t>
   </si>
   <si>
+    <t>칼럼 이름 변경: AddFoodName -&gt; AddFood1
+칼럼 추가: AddFood2</t>
+  </si>
+  <si>
+    <t>이현</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -150,6 +160,9 @@
     <t>38,57</t>
   </si>
   <si>
+    <t>42,45,57</t>
+  </si>
+  <si>
     <t>Fruit_Sandwich</t>
   </si>
   <si>
@@ -159,6 +172,9 @@
     <t>38,57,63</t>
   </si>
   <si>
+    <t>42,45,57,63</t>
+  </si>
+  <si>
     <t>Potato_Sandwich</t>
   </si>
   <si>
@@ -168,6 +184,9 @@
     <t>38,57,40</t>
   </si>
   <si>
+    <t>42,45,57,40</t>
+  </si>
+  <si>
     <t>Fish_Sandwich</t>
   </si>
   <si>
@@ -177,6 +196,9 @@
     <t>38,57,44</t>
   </si>
   <si>
+    <t>42,45,57,44</t>
+  </si>
+  <si>
     <t>Tomato_Sandwich</t>
   </si>
   <si>
@@ -186,13 +208,16 @@
     <t>38,57,62</t>
   </si>
   <si>
+    <t>42,45,57,62</t>
+  </si>
+  <si>
     <t>Meat_Sandwich</t>
   </si>
   <si>
     <t>고기 샌드위치</t>
   </si>
   <si>
-    <t>28,28</t>
+    <t>38,28</t>
   </si>
   <si>
     <t>Cut_Bread</t>
@@ -261,6 +286,9 @@
     <t>51,40</t>
   </si>
   <si>
+    <t>45,62,40</t>
+  </si>
+  <si>
     <t>Cheese_Salad</t>
   </si>
   <si>
@@ -270,6 +298,9 @@
     <t>51,57</t>
   </si>
   <si>
+    <t>45,62,57</t>
+  </si>
+  <si>
     <t>Meat_Salad</t>
   </si>
   <si>
@@ -279,6 +310,9 @@
     <t>51,41</t>
   </si>
   <si>
+    <t>45,62,41</t>
+  </si>
+  <si>
     <t>Fish_Salad</t>
   </si>
   <si>
@@ -288,6 +322,9 @@
     <t>51,44</t>
   </si>
   <si>
+    <t>45,62,44</t>
+  </si>
+  <si>
     <t>Fruit_Salad</t>
   </si>
   <si>
@@ -297,6 +334,9 @@
     <t>51,63</t>
   </si>
   <si>
+    <t>45,62,63</t>
+  </si>
+  <si>
     <t>Grilled_Lettuce_Grilled_Meat</t>
   </si>
   <si>
@@ -744,6 +784,9 @@
     <t>119,27</t>
   </si>
   <si>
+    <t>10,35,27</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Cheese_Grilled_Meat</t>
   </si>
   <si>
@@ -753,6 +796,9 @@
     <t>119,28</t>
   </si>
   <si>
+    <t>10,35,25</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Cheese_Grilled_Shrimp</t>
   </si>
   <si>
@@ -762,6 +808,9 @@
     <t>119,29</t>
   </si>
   <si>
+    <t>10,35,29</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Cheese_Grilled_Pineapple</t>
   </si>
   <si>
@@ -771,6 +820,9 @@
     <t>119,37</t>
   </si>
   <si>
+    <t>10,35,37</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Tomato</t>
   </si>
   <si>
@@ -789,6 +841,9 @@
     <t>124,27</t>
   </si>
   <si>
+    <t>10,36,27</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Tomato_Grilled_Meat</t>
   </si>
   <si>
@@ -798,6 +853,9 @@
     <t>124,28</t>
   </si>
   <si>
+    <t>10,36,27,28</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Tomato_Grilled_Shrimp</t>
   </si>
   <si>
@@ -807,6 +865,9 @@
     <t>124,29</t>
   </si>
   <si>
+    <t>10,36,27,29</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Tomato_Grilled_Pineapple</t>
   </si>
   <si>
@@ -816,6 +877,9 @@
     <t>124,37</t>
   </si>
   <si>
+    <t>10,36,27,37</t>
+  </si>
+  <si>
     <t>Bread_Grilled_Pineapple</t>
   </si>
   <si>
@@ -858,6 +922,9 @@
     <t>빵 + 썰린 토마토 + 구운 돼지 고기</t>
   </si>
   <si>
+    <t>10,62,28</t>
+  </si>
+  <si>
     <t>132,28</t>
   </si>
   <si>
@@ -867,6 +934,9 @@
     <t>빵 + 썰린 토마토 + 구운 새우</t>
   </si>
   <si>
+    <t>10,62,29</t>
+  </si>
+  <si>
     <t>132,29</t>
   </si>
   <si>
@@ -876,6 +946,9 @@
     <t>빵 + 썰린 토마토 + 구운 생선고기</t>
   </si>
   <si>
+    <t>10,62,30</t>
+  </si>
+  <si>
     <t>132,30</t>
   </si>
   <si>
@@ -885,6 +958,9 @@
     <t>빵 + 썰린 토마토 + 썰린 치즈</t>
   </si>
   <si>
+    <t>10,62,57</t>
+  </si>
+  <si>
     <t>132,57</t>
   </si>
   <si>
@@ -942,12 +1018,18 @@
     <t>썰린 빵 + 썰린 치즈 + 썰린 생선</t>
   </si>
   <si>
+    <t>42,57,44</t>
+  </si>
+  <si>
     <t>151,44</t>
   </si>
   <si>
     <t>썰린 빵 + 썰린 치즈 + 썰린 토마토</t>
   </si>
   <si>
+    <t>42,57,62</t>
+  </si>
+  <si>
     <t>151,62</t>
   </si>
   <si>
@@ -957,6 +1039,9 @@
     <t>썰린 빵 + 썰린 치즈 + 썰린 파인애플</t>
   </si>
   <si>
+    <t>42,57,63</t>
+  </si>
+  <si>
     <t>151,63</t>
   </si>
   <si>
@@ -1032,6 +1117,9 @@
     <t>썰린 양상추 + 구운 돼지 고기 + 썰린 토마토</t>
   </si>
   <si>
+    <t>45,28,62</t>
+  </si>
+  <si>
     <t>162,62</t>
   </si>
   <si>
@@ -1326,7 +1414,7 @@
     <t>튀긴 돼지 고기 + 튀긴 새우 + 소스</t>
   </si>
   <si>
-    <t>208,13</t>
+    <t>68,69,13</t>
   </si>
   <si>
     <t>Fried_Shrimp_Sauce</t>
@@ -1371,6 +1459,9 @@
     <t>튀긴 생선 + 튀긴 돼지 고기 + 소스</t>
   </si>
   <si>
+    <t>213,13</t>
+  </si>
+  <si>
     <t>70,68,13</t>
   </si>
   <si>
@@ -1458,6 +1549,9 @@
     <t>치즈 버거</t>
   </si>
   <si>
+    <t>227,57</t>
+  </si>
+  <si>
     <t>10,62,45,57</t>
   </si>
   <si>
@@ -1467,6 +1561,9 @@
     <t>불고기 햄버거</t>
   </si>
   <si>
+    <t>227,28</t>
+  </si>
+  <si>
     <t>10,62,45,28</t>
   </si>
   <si>
@@ -1476,6 +1573,9 @@
     <t>생선 햄버거</t>
   </si>
   <si>
+    <t>227,30</t>
+  </si>
+  <si>
     <t>10,62,45,30</t>
   </si>
   <si>
@@ -1485,6 +1585,9 @@
     <t>쉬림프 햄버거</t>
   </si>
   <si>
+    <t>227,29</t>
+  </si>
+  <si>
     <t>10,62,45,29</t>
   </si>
   <si>
@@ -1503,6 +1606,9 @@
     <t>31,36,57</t>
   </si>
   <si>
+    <t>18,57</t>
+  </si>
+  <si>
     <t>Meat_Vegetable_Stir</t>
   </si>
   <si>
@@ -1512,6 +1618,9 @@
     <t>31,36,28</t>
   </si>
   <si>
+    <t>18,28</t>
+  </si>
+  <si>
     <t>Fish_Vegetable_Stir</t>
   </si>
   <si>
@@ -1521,6 +1630,9 @@
     <t>31,36,30</t>
   </si>
   <si>
+    <t>18,30</t>
+  </si>
+  <si>
     <t>Gratin</t>
   </si>
   <si>
@@ -1536,7 +1648,10 @@
     <t>감자 그라탕</t>
   </si>
   <si>
-    <t>35,35,27</t>
+    <t>35,36,27</t>
+  </si>
+  <si>
+    <t>107,27</t>
   </si>
   <si>
     <t>DoubleCheese_Gratin</t>
@@ -1557,6 +1672,9 @@
     <t>35,36,44</t>
   </si>
   <si>
+    <t>107,44</t>
+  </si>
+  <si>
     <t>Vegetable_Gratin</t>
   </si>
   <si>
@@ -1566,6 +1684,9 @@
     <t>35,36,45</t>
   </si>
   <si>
+    <t>107,45</t>
+  </si>
+  <si>
     <t>Meat_Gratin</t>
   </si>
   <si>
@@ -1575,6 +1696,9 @@
     <t>35,36,28</t>
   </si>
   <si>
+    <t>107,28</t>
+  </si>
+  <si>
     <t>Pizza</t>
   </si>
   <si>
@@ -1593,6 +1717,9 @@
     <t>228,31</t>
   </si>
   <si>
+    <t>10,35,36,31</t>
+  </si>
+  <si>
     <t>Hawaiian_Pizza</t>
   </si>
   <si>
@@ -1602,6 +1729,9 @@
     <t>228,37</t>
   </si>
   <si>
+    <t>10,35,36,37</t>
+  </si>
+  <si>
     <t>Potato_Pizza</t>
   </si>
   <si>
@@ -1611,6 +1741,9 @@
     <t>228,27</t>
   </si>
   <si>
+    <t>10,35,36,27</t>
+  </si>
+  <si>
     <t>Bulgogi_Pizza</t>
   </si>
   <si>
@@ -1620,6 +1753,9 @@
     <t>228,28</t>
   </si>
   <si>
+    <t>10,35,36,28</t>
+  </si>
+  <si>
     <t>Shrimp_Pizza</t>
   </si>
   <si>
@@ -1629,6 +1765,9 @@
     <t>228,29</t>
   </si>
   <si>
+    <t>10,35,36,29</t>
+  </si>
+  <si>
     <t>Meat_Cutlet</t>
   </si>
   <si>
@@ -1642,6 +1781,9 @@
   </si>
   <si>
     <t>치즈 돈까스</t>
+  </si>
+  <si>
+    <t>109,57</t>
   </si>
   <si>
     <t>68,45,57</t>
@@ -1744,7 +1886,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yy/m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1767,6 +1909,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1868,7 +2015,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1912,10 +2059,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1927,17 +2077,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2237,7 +2390,7 @@
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2245,57 +2398,74 @@
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1"/>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="8"/>
+    </row>
     <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-    </row>
+    <row r="19" ht="16.5" customHeight="1"/>
     <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="14">
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c r="A22" s="14">
         <v>45276.0</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
+      <c r="C22" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c r="A23" s="14">
+        <v>45281.0</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="24" ht="16.5" customHeight="1"/>
     <row r="25" ht="16.5" customHeight="1"/>
     <row r="26" ht="16.5" customHeight="1"/>
@@ -3274,9 +3444,10 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3302,10 +3473,11 @@
     <col customWidth="1" min="6" max="7" width="10.86"/>
     <col customWidth="1" min="8" max="8" width="17.14"/>
     <col customWidth="1" min="9" max="9" width="15.86"/>
-    <col customWidth="1" min="10" max="10" width="10.0"/>
-    <col customWidth="1" min="11" max="21" width="8.71"/>
-    <col customWidth="1" min="22" max="22" width="20.43"/>
-    <col customWidth="1" min="23" max="27" width="8.71"/>
+    <col customWidth="1" min="10" max="10" width="10.86"/>
+    <col customWidth="1" min="11" max="11" width="10.0"/>
+    <col customWidth="1" min="12" max="22" width="8.71"/>
+    <col customWidth="1" min="23" max="23" width="20.43"/>
+    <col customWidth="1" min="24" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -3333,47 +3505,53 @@
       <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>21</v>
+      <c r="K1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -3381,13 +3559,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8">
         <v>2.0</v>
@@ -3402,12 +3580,15 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="8">
         <v>38.0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3416,13 +3597,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8">
         <v>2.0</v>
@@ -3437,12 +3618,15 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="8">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="8">
         <v>65.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3451,13 +3635,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8">
         <v>2.0</v>
@@ -3472,12 +3656,15 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="8">
+        <v>44</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="8">
         <v>26.0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3486,13 +3673,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8">
         <v>0.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6" s="8">
         <v>2.0</v>
@@ -3507,12 +3694,15 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="8">
+        <v>48</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="8">
         <v>25.0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3521,13 +3711,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8">
         <v>2.0</v>
@@ -3542,12 +3732,15 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="8">
+        <v>52</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="8">
         <v>39.0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="L7" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3556,13 +3749,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E8" s="8">
         <v>2.0</v>
@@ -3577,12 +3770,15 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="8">
+        <v>56</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="8">
         <v>66.0</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3591,13 +3787,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8">
         <v>0.0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E9" s="8">
         <v>2.0</v>
@@ -3612,12 +3808,15 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8">
         <v>84.0</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3626,13 +3825,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E10" s="8">
         <v>1.0</v>
@@ -3652,7 +3851,10 @@
       <c r="J10" s="8">
         <v>0.0</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3661,13 +3863,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8">
         <v>1.0</v>
@@ -3687,7 +3889,10 @@
       <c r="J11" s="8">
         <v>0.0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3696,13 +3901,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8">
         <v>1.0</v>
@@ -3722,7 +3927,10 @@
       <c r="J12" s="8">
         <v>0.0</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3731,13 +3939,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E13" s="8">
         <v>1.0</v>
@@ -3757,7 +3965,10 @@
       <c r="J13" s="8">
         <v>0.0</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3766,13 +3977,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8">
         <v>1.0</v>
@@ -3792,7 +4003,10 @@
       <c r="J14" s="8">
         <v>0.0</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3801,13 +4015,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E15" s="8">
         <v>1.0</v>
@@ -3827,7 +4041,10 @@
       <c r="J15" s="8">
         <v>0.0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3836,13 +4053,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E16" s="8">
         <v>1.0</v>
@@ -3862,7 +4079,10 @@
       <c r="J16" s="8">
         <v>0.0</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3871,13 +4091,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8">
         <v>1.0</v>
@@ -3897,7 +4117,10 @@
       <c r="J17" s="8">
         <v>0.0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3906,13 +4129,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8">
         <v>2.0</v>
@@ -3927,12 +4150,15 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="8">
         <v>51.0</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3941,13 +4167,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8">
         <v>0.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E19" s="8">
         <v>2.0</v>
@@ -3962,12 +4188,15 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="8">
+        <v>82</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="8">
         <v>82.0</v>
       </c>
-      <c r="K19" s="15">
+      <c r="L19" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3976,13 +4205,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E20" s="8">
         <v>2.0</v>
@@ -3997,12 +4226,15 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="8">
+        <v>86</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="8">
         <v>200.0</v>
       </c>
-      <c r="K20" s="15">
+      <c r="L20" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4011,13 +4243,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E21" s="8">
         <v>2.0</v>
@@ -4032,12 +4264,15 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="8">
+        <v>90</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="8">
         <v>85.0</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4046,13 +4281,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C22" s="8">
         <v>0.0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E22" s="8">
         <v>2.0</v>
@@ -4067,12 +4302,15 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="8">
+        <v>94</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="8">
         <v>140.0</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4081,13 +4319,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E23" s="8">
         <v>2.0</v>
@@ -4102,12 +4340,15 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="8">
+        <v>98</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="8">
         <v>87.0</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4116,13 +4357,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8">
         <v>0.0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E24" s="8">
         <v>2.0</v>
@@ -4137,12 +4378,15 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="8">
         <v>32.0</v>
       </c>
-      <c r="K24" s="15">
+      <c r="L24" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4151,13 +4395,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E25" s="8">
         <v>2.0</v>
@@ -4172,12 +4416,15 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="8">
         <v>33.0</v>
       </c>
-      <c r="K25" s="15">
+      <c r="L25" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4186,13 +4433,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8">
         <v>2.0</v>
@@ -4207,12 +4454,15 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J26" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="8">
         <v>34.0</v>
       </c>
-      <c r="K26" s="15">
+      <c r="L26" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4221,13 +4471,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C27" s="8">
         <v>0.0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E27" s="8">
         <v>2.0</v>
@@ -4242,12 +4492,15 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="8">
         <v>46.0</v>
       </c>
-      <c r="K27" s="15">
+      <c r="L27" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4256,13 +4509,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C28" s="8">
         <v>0.0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E28" s="8">
         <v>2.0</v>
@@ -4277,12 +4530,15 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="8">
         <v>47.0</v>
       </c>
-      <c r="K28" s="15">
+      <c r="L28" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4291,13 +4547,13 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8">
         <v>2.0</v>
@@ -4312,12 +4568,15 @@
         <v>0.0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="8">
         <v>48.0</v>
       </c>
-      <c r="K29" s="15">
+      <c r="L29" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4326,13 +4585,13 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C30" s="8">
         <v>0.0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E30" s="8">
         <v>2.0</v>
@@ -4347,12 +4606,15 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K30" s="8">
         <v>49.0</v>
       </c>
-      <c r="K30" s="15">
+      <c r="L30" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4361,33 +4623,36 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C31" s="8">
         <v>0.0</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="J31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="8">
         <v>50.0</v>
       </c>
-      <c r="K31" s="15">
+      <c r="L31" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4396,13 +4661,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C32" s="8">
         <v>0.0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E32" s="8">
         <v>2.0</v>
@@ -4417,12 +4682,15 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="J32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K32" s="8">
         <v>52.0</v>
       </c>
-      <c r="K32" s="15">
+      <c r="L32" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4431,13 +4699,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C33" s="8">
         <v>0.0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E33" s="8">
         <v>2.0</v>
@@ -4452,12 +4720,15 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="8">
         <v>53.0</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4466,13 +4737,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C34" s="8">
         <v>0.0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E34" s="8">
         <v>2.0</v>
@@ -4487,12 +4758,15 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="8">
         <v>54.0</v>
       </c>
-      <c r="K34" s="15">
+      <c r="L34" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4501,13 +4775,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E35" s="8">
         <v>2.0</v>
@@ -4522,12 +4796,15 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K35" s="8">
         <v>55.0</v>
       </c>
-      <c r="K35" s="15">
+      <c r="L35" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4536,13 +4813,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C36" s="8">
         <v>0.0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E36" s="8">
         <v>2.0</v>
@@ -4557,12 +4834,15 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="8">
         <v>56.0</v>
       </c>
-      <c r="K36" s="15">
+      <c r="L36" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4571,13 +4851,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C37" s="8">
         <v>0.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E37" s="8">
         <v>2.0</v>
@@ -4592,12 +4872,15 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="8">
         <v>58.0</v>
       </c>
-      <c r="K37" s="15">
+      <c r="L37" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4606,13 +4889,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C38" s="8">
         <v>0.0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E38" s="8">
         <v>2.0</v>
@@ -4627,12 +4910,15 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K38" s="8">
         <v>59.0</v>
       </c>
-      <c r="K38" s="15">
+      <c r="L38" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4641,13 +4927,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C39" s="8">
         <v>0.0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E39" s="8">
         <v>2.0</v>
@@ -4662,12 +4948,15 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="8">
         <v>60.0</v>
       </c>
-      <c r="K39" s="15">
+      <c r="L39" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4676,13 +4965,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C40" s="8">
         <v>0.0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E40" s="8">
         <v>2.0</v>
@@ -4697,12 +4986,15 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="8">
         <v>61.0</v>
       </c>
-      <c r="K40" s="15">
+      <c r="L40" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4710,14 +5002,14 @@
       <c r="A41" s="16">
         <v>39.0</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>135</v>
+      <c r="B41" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="C41" s="8">
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E41" s="8">
         <v>2.0</v>
@@ -4732,12 +5024,15 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="8">
         <v>72.0</v>
       </c>
-      <c r="K41" s="15">
+      <c r="L41" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4746,13 +5041,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C42" s="8">
         <v>0.0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E42" s="8">
         <v>2.0</v>
@@ -4767,12 +5062,15 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K42" s="8">
         <v>73.0</v>
       </c>
-      <c r="K42" s="15">
+      <c r="L42" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4781,13 +5079,13 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C43" s="8">
         <v>0.0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E43" s="8">
         <v>2.0</v>
@@ -4802,12 +5100,15 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="8">
         <v>74.0</v>
       </c>
-      <c r="K43" s="15">
+      <c r="L43" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4816,13 +5117,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C44" s="8">
         <v>0.0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E44" s="8">
         <v>2.0</v>
@@ -4837,12 +5138,15 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="8">
         <v>75.0</v>
       </c>
-      <c r="K44" s="15">
+      <c r="L44" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4851,13 +5155,13 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C45" s="8">
         <v>0.0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E45" s="8">
         <v>2.0</v>
@@ -4872,12 +5176,15 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K45" s="8">
         <v>76.0</v>
       </c>
-      <c r="K45" s="15">
+      <c r="L45" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4886,13 +5193,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C46" s="8">
         <v>0.0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E46" s="8">
         <v>2.0</v>
@@ -4907,12 +5214,15 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K46" s="8">
         <v>77.0</v>
       </c>
-      <c r="K46" s="15">
+      <c r="L46" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4921,13 +5231,13 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C47" s="8">
         <v>0.0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E47" s="8">
         <v>2.0</v>
@@ -4942,12 +5252,15 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="8">
         <v>78.0</v>
       </c>
-      <c r="K47" s="15">
+      <c r="L47" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4956,13 +5269,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C48" s="8">
         <v>0.0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E48" s="8">
         <v>2.0</v>
@@ -4977,12 +5290,15 @@
         <v>0.0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K48" s="8">
         <v>79.0</v>
       </c>
-      <c r="K48" s="15">
+      <c r="L48" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4991,13 +5307,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>160</v>
+        <v>172</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="E49" s="8">
         <v>2.0</v>
@@ -5012,12 +5328,15 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="8">
         <v>80.0</v>
       </c>
-      <c r="K49" s="15">
+      <c r="L49" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5026,13 +5345,13 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C50" s="8">
         <v>0.0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E50" s="8">
         <v>2.0</v>
@@ -5047,12 +5366,15 @@
         <v>0.0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K50" s="8">
         <v>88.0</v>
       </c>
-      <c r="K50" s="15">
+      <c r="L50" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5061,13 +5383,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C51" s="8">
         <v>0.0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E51" s="8">
         <v>2.0</v>
@@ -5082,12 +5404,15 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="J51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="8">
         <v>89.0</v>
       </c>
-      <c r="K51" s="15">
+      <c r="L51" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5096,13 +5421,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C52" s="8">
         <v>0.0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E52" s="8">
         <v>2.0</v>
@@ -5117,12 +5442,15 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K52" s="8">
         <v>90.0</v>
       </c>
-      <c r="K52" s="15">
+      <c r="L52" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5131,13 +5459,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C53" s="8">
         <v>0.0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E53" s="8">
         <v>2.0</v>
@@ -5152,12 +5480,15 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="8">
         <v>91.0</v>
       </c>
-      <c r="K53" s="15">
+      <c r="L53" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5166,13 +5497,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C54" s="8">
         <v>0.0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E54" s="8">
         <v>2.0</v>
@@ -5187,12 +5518,15 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K54" s="8">
         <v>92.0</v>
       </c>
-      <c r="K54" s="15">
+      <c r="L54" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5201,13 +5535,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C55" s="8">
         <v>0.0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E55" s="8">
         <v>2.0</v>
@@ -5222,12 +5556,15 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="J55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K55" s="8">
         <v>93.0</v>
       </c>
-      <c r="K55" s="15">
+      <c r="L55" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5236,13 +5573,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C56" s="8">
         <v>0.0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E56" s="8">
         <v>2.0</v>
@@ -5257,12 +5594,15 @@
         <v>0.0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="J56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K56" s="8">
         <v>94.0</v>
       </c>
-      <c r="K56" s="15">
+      <c r="L56" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5271,13 +5611,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C57" s="8">
         <v>0.0</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E57" s="8">
         <v>2.0</v>
@@ -5292,12 +5632,15 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J57" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K57" s="8">
         <v>95.0</v>
       </c>
-      <c r="K57" s="15">
+      <c r="L57" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5305,14 +5648,14 @@
       <c r="A58" s="16">
         <v>56.0</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>182</v>
+      <c r="B58" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="C58" s="8">
         <v>0.0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E58" s="8">
         <v>2.0</v>
@@ -5327,12 +5670,15 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="J58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K58" s="8">
         <v>96.0</v>
       </c>
-      <c r="K58" s="15">
+      <c r="L58" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5340,14 +5686,14 @@
       <c r="A59" s="16">
         <v>57.0</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>185</v>
+      <c r="B59" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="C59" s="8">
         <v>0.0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E59" s="8">
         <v>2.0</v>
@@ -5362,12 +5708,15 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="J59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K59" s="8">
         <v>97.0</v>
       </c>
-      <c r="K59" s="15">
+      <c r="L59" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5375,14 +5724,14 @@
       <c r="A60" s="16">
         <v>58.0</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>188</v>
+      <c r="B60" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C60" s="8">
         <v>0.0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E60" s="8">
         <v>2.0</v>
@@ -5397,12 +5746,15 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="J60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="8">
         <v>98.0</v>
       </c>
-      <c r="K60" s="15">
+      <c r="L60" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5410,14 +5762,14 @@
       <c r="A61" s="16">
         <v>59.0</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>191</v>
+      <c r="B61" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="C61" s="8">
         <v>0.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E61" s="8">
         <v>2.0</v>
@@ -5432,12 +5784,15 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="J61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="8">
         <v>99.0</v>
       </c>
-      <c r="K61" s="15">
+      <c r="L61" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5445,14 +5800,14 @@
       <c r="A62" s="16">
         <v>60.0</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>194</v>
+      <c r="B62" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C62" s="8">
         <v>0.0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E62" s="8">
         <v>2.0</v>
@@ -5467,12 +5822,15 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="8">
         <v>100.0</v>
       </c>
-      <c r="K62" s="15">
+      <c r="L62" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5480,14 +5838,14 @@
       <c r="A63" s="16">
         <v>61.0</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>197</v>
+      <c r="B63" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="C63" s="8">
         <v>0.0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E63" s="8">
         <v>2.0</v>
@@ -5502,12 +5860,15 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="J63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K63" s="8">
         <v>101.0</v>
       </c>
-      <c r="K63" s="15">
+      <c r="L63" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5515,14 +5876,14 @@
       <c r="A64" s="16">
         <v>62.0</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>200</v>
+      <c r="B64" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="C64" s="8">
         <v>0.0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E64" s="8">
         <v>2.0</v>
@@ -5537,12 +5898,15 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="J64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K64" s="8">
         <v>102.0</v>
       </c>
-      <c r="K64" s="15">
+      <c r="L64" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5550,14 +5914,14 @@
       <c r="A65" s="16">
         <v>63.0</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>203</v>
+      <c r="B65" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="C65" s="8">
         <v>0.0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E65" s="8">
         <v>2.0</v>
@@ -5572,12 +5936,15 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="J65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="8">
         <v>103.0</v>
       </c>
-      <c r="K65" s="15">
+      <c r="L65" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5585,14 +5952,14 @@
       <c r="A66" s="16">
         <v>64.0</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>206</v>
+      <c r="B66" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="C66" s="8">
         <v>0.0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E66" s="8">
         <v>2.0</v>
@@ -5607,12 +5974,15 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="J66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K66" s="8">
         <v>104.0</v>
       </c>
-      <c r="K66" s="15">
+      <c r="L66" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5620,14 +5990,14 @@
       <c r="A67" s="16">
         <v>65.0</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>209</v>
+      <c r="B67" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="C67" s="8">
         <v>0.0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E67" s="8">
         <v>2.0</v>
@@ -5642,12 +6012,15 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="J67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="8">
         <v>105.0</v>
       </c>
-      <c r="K67" s="15">
+      <c r="L67" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5655,14 +6028,14 @@
       <c r="A68" s="16">
         <v>66.0</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>212</v>
+      <c r="B68" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C68" s="8">
         <v>0.0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="E68" s="8">
         <v>2.0</v>
@@ -5677,12 +6050,15 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="J68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K68" s="8">
         <v>106.0</v>
       </c>
-      <c r="K68" s="15">
+      <c r="L68" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5690,14 +6066,14 @@
       <c r="A69" s="16">
         <v>67.0</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>216</v>
+      <c r="B69" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="E69" s="8">
         <v>2.0</v>
@@ -5712,12 +6088,15 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="8">
         <v>114.0</v>
       </c>
-      <c r="K69" s="15">
+      <c r="L69" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5725,14 +6104,14 @@
       <c r="A70" s="16">
         <v>68.0</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>218</v>
+      <c r="B70" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C70" s="8">
         <v>0.0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E70" s="8">
         <v>2.0</v>
@@ -5747,12 +6126,15 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="J70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K70" s="8">
         <v>115.0</v>
       </c>
-      <c r="K70" s="15">
+      <c r="L70" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5760,14 +6142,14 @@
       <c r="A71" s="16">
         <v>69.0</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>221</v>
+      <c r="B71" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="C71" s="8">
         <v>0.0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E71" s="8">
         <v>2.0</v>
@@ -5782,12 +6164,15 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="J71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="8">
         <v>116.0</v>
       </c>
-      <c r="K71" s="15">
+      <c r="L71" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5795,14 +6180,14 @@
       <c r="A72" s="16">
         <v>70.0</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>224</v>
+      <c r="B72" s="20" t="s">
+        <v>237</v>
       </c>
       <c r="C72" s="8">
         <v>0.0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E72" s="8">
         <v>2.0</v>
@@ -5817,12 +6202,15 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="J72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K72" s="8">
         <v>117.0</v>
       </c>
-      <c r="K72" s="15">
+      <c r="L72" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5830,14 +6218,14 @@
       <c r="A73" s="16">
         <v>71.0</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>227</v>
+      <c r="B73" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="C73" s="8">
         <v>0.0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E73" s="8">
         <v>2.0</v>
@@ -5852,12 +6240,15 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="J73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="8">
         <v>118.0</v>
       </c>
-      <c r="K73" s="15">
+      <c r="L73" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5865,14 +6256,14 @@
       <c r="A74" s="16">
         <v>72.0</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>230</v>
+      <c r="B74" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="C74" s="8">
         <v>0.0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E74" s="8">
         <v>2.0</v>
@@ -5887,12 +6278,15 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="J74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="8">
         <v>119.0</v>
       </c>
-      <c r="K74" s="15">
+      <c r="L74" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5900,14 +6294,14 @@
       <c r="A75" s="16">
         <v>73.0</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>233</v>
+      <c r="B75" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="C75" s="8">
         <v>0.0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E75" s="8">
         <v>2.0</v>
@@ -5922,12 +6316,15 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J75" s="8">
+        <v>248</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K75" s="8">
         <v>120.0</v>
       </c>
-      <c r="K75" s="15">
+      <c r="L75" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5935,14 +6332,14 @@
       <c r="A76" s="16">
         <v>74.0</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>236</v>
+      <c r="B76" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="C76" s="8">
         <v>0.0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E76" s="8">
         <v>2.0</v>
@@ -5957,12 +6354,15 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76" s="8">
+        <v>252</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K76" s="8">
         <v>121.0</v>
       </c>
-      <c r="K76" s="15">
+      <c r="L76" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5970,14 +6370,14 @@
       <c r="A77" s="16">
         <v>75.0</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>239</v>
+      <c r="B77" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="C77" s="8">
         <v>0.0</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E77" s="8">
         <v>2.0</v>
@@ -5992,12 +6392,15 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J77" s="8">
+        <v>256</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" s="8">
         <v>122.0</v>
       </c>
-      <c r="K77" s="15">
+      <c r="L77" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6005,14 +6408,14 @@
       <c r="A78" s="16">
         <v>76.0</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>242</v>
+      <c r="B78" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="C78" s="8">
         <v>0.0</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E78" s="8">
         <v>2.0</v>
@@ -6027,12 +6430,15 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J78" s="8">
+        <v>260</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K78" s="8">
         <v>123.0</v>
       </c>
-      <c r="K78" s="15">
+      <c r="L78" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6040,14 +6446,14 @@
       <c r="A79" s="16">
         <v>77.0</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>245</v>
+      <c r="B79" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="C79" s="8">
         <v>0.0</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E79" s="8">
         <v>2.0</v>
@@ -6062,12 +6468,15 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="J79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="8">
         <v>124.0</v>
       </c>
-      <c r="K79" s="15">
+      <c r="L79" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6075,14 +6484,14 @@
       <c r="A80" s="16">
         <v>78.0</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>248</v>
+      <c r="B80" s="20" t="s">
+        <v>265</v>
       </c>
       <c r="C80" s="8">
         <v>0.0</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E80" s="8">
         <v>2.0</v>
@@ -6097,12 +6506,15 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J80" s="8">
+        <v>267</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K80" s="8">
         <v>125.0</v>
       </c>
-      <c r="K80" s="15">
+      <c r="L80" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6110,14 +6522,14 @@
       <c r="A81" s="16">
         <v>79.0</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>251</v>
+      <c r="B81" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="C81" s="8">
         <v>0.0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E81" s="8">
         <v>2.0</v>
@@ -6132,12 +6544,15 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="J81" s="8">
+        <v>271</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K81" s="8">
         <v>126.0</v>
       </c>
-      <c r="K81" s="15">
+      <c r="L81" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6145,14 +6560,14 @@
       <c r="A82" s="16">
         <v>80.0</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>254</v>
+      <c r="B82" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="C82" s="8">
         <v>0.0</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="E82" s="8">
         <v>2.0</v>
@@ -6167,12 +6582,15 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J82" s="8">
+        <v>275</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K82" s="8">
         <v>127.0</v>
       </c>
-      <c r="K82" s="15">
+      <c r="L82" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6180,14 +6598,14 @@
       <c r="A83" s="16">
         <v>81.0</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>258</v>
+      <c r="B83" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="E83" s="8">
         <v>2.0</v>
@@ -6202,12 +6620,15 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J83" s="21">
+        <v>279</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="K83" s="22">
         <v>128.0</v>
       </c>
-      <c r="K83" s="15">
+      <c r="L83" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6215,14 +6636,14 @@
       <c r="A84" s="16">
         <v>82.0</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>261</v>
+      <c r="B84" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="E84" s="8">
         <v>2.0</v>
@@ -6237,12 +6658,15 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="J84" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="22">
         <v>129.0</v>
       </c>
-      <c r="K84" s="15">
+      <c r="L84" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6250,14 +6674,14 @@
       <c r="A85" s="16">
         <v>83.0</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>264</v>
+      <c r="B85" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="E85" s="8">
         <v>2.0</v>
@@ -6272,12 +6696,15 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="J85" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="22">
         <v>130.0</v>
       </c>
-      <c r="K85" s="15">
+      <c r="L85" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6285,14 +6712,14 @@
       <c r="A86" s="16">
         <v>84.0</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>267</v>
+      <c r="B86" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="E86" s="8">
         <v>2.0</v>
@@ -6307,12 +6734,15 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="J86" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="22">
         <v>131.0</v>
       </c>
-      <c r="K86" s="15">
+      <c r="L86" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6320,14 +6750,14 @@
       <c r="A87" s="16">
         <v>85.0</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>270</v>
+      <c r="B87" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="E87" s="8">
         <v>2.0</v>
@@ -6342,12 +6772,15 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="J87" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="22">
         <v>132.0</v>
       </c>
-      <c r="K87" s="15">
+      <c r="L87" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6355,14 +6788,14 @@
       <c r="A88" s="16">
         <v>86.0</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>273</v>
+      <c r="B88" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="E88" s="8">
         <v>2.0</v>
@@ -6377,12 +6810,15 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J88" s="21">
+        <v>295</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="K88" s="22">
         <v>133.0</v>
       </c>
-      <c r="K88" s="15">
+      <c r="L88" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6390,14 +6826,14 @@
       <c r="A89" s="16">
         <v>87.0</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>276</v>
+      <c r="B89" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="E89" s="8">
         <v>2.0</v>
@@ -6412,12 +6848,15 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J89" s="21">
+        <v>299</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K89" s="22">
         <v>134.0</v>
       </c>
-      <c r="K89" s="15">
+      <c r="L89" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6425,14 +6864,14 @@
       <c r="A90" s="16">
         <v>88.0</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>279</v>
+      <c r="B90" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>302</v>
       </c>
       <c r="E90" s="8">
         <v>2.0</v>
@@ -6447,12 +6886,15 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J90" s="21">
+        <v>303</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K90" s="22">
         <v>135.0</v>
       </c>
-      <c r="K90" s="15">
+      <c r="L90" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6460,14 +6902,14 @@
       <c r="A91" s="16">
         <v>89.0</v>
       </c>
-      <c r="B91" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>282</v>
+      <c r="B91" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="E91" s="8">
         <v>2.0</v>
@@ -6482,12 +6924,15 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="J91" s="21">
+        <v>307</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K91" s="22">
         <v>136.0</v>
       </c>
-      <c r="K91" s="15">
+      <c r="L91" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6495,14 +6940,14 @@
       <c r="A92" s="16">
         <v>90.0</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C92" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>284</v>
+      <c r="B92" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="E92" s="8">
         <v>2.0</v>
@@ -6517,12 +6962,13 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="J92" s="21">
+        <v>283</v>
+      </c>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22">
         <v>137.0</v>
       </c>
-      <c r="K92" s="15">
+      <c r="L92" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6530,14 +6976,14 @@
       <c r="A93" s="16">
         <v>91.0</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C93" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>286</v>
+      <c r="B93" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="E93" s="8">
         <v>2.0</v>
@@ -6552,12 +6998,13 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="J93" s="21">
+        <v>312</v>
+      </c>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22">
         <v>147.0</v>
       </c>
-      <c r="K93" s="15">
+      <c r="L93" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6565,14 +7012,14 @@
       <c r="A94" s="16">
         <v>92.0</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>289</v>
+      <c r="B94" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="E94" s="8">
         <v>2.0</v>
@@ -6587,12 +7034,13 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J94" s="21">
+        <v>315</v>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22">
         <v>148.0</v>
       </c>
-      <c r="K94" s="15">
+      <c r="L94" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6600,14 +7048,14 @@
       <c r="A95" s="16">
         <v>93.0</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C95" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>292</v>
+      <c r="B95" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="E95" s="8">
         <v>2.0</v>
@@ -6622,12 +7070,13 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J95" s="21">
+        <v>318</v>
+      </c>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22">
         <v>149.0</v>
       </c>
-      <c r="K95" s="15">
+      <c r="L95" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6635,14 +7084,14 @@
       <c r="A96" s="16">
         <v>94.0</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C96" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>295</v>
+      <c r="B96" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="E96" s="8">
         <v>2.0</v>
@@ -6657,12 +7106,13 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J96" s="21">
+        <v>321</v>
+      </c>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22">
         <v>150.0</v>
       </c>
-      <c r="K96" s="15">
+      <c r="L96" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6670,14 +7120,14 @@
       <c r="A97" s="16">
         <v>95.0</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C97" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>298</v>
+      <c r="B97" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="E97" s="8">
         <v>2.0</v>
@@ -6692,12 +7142,13 @@
         <v>0.0</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="J97" s="21">
+        <v>324</v>
+      </c>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22">
         <v>151.0</v>
       </c>
-      <c r="K97" s="15">
+      <c r="L97" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6705,14 +7156,14 @@
       <c r="A98" s="16">
         <v>96.0</v>
       </c>
-      <c r="B98" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C98" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>301</v>
+      <c r="B98" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="E98" s="8">
         <v>2.0</v>
@@ -6727,12 +7178,15 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J98" s="21">
+        <v>327</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="K98" s="22">
         <v>152.0</v>
       </c>
-      <c r="K98" s="15">
+      <c r="L98" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6740,14 +7194,14 @@
       <c r="A99" s="16">
         <v>97.0</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>303</v>
+      <c r="B99" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="E99" s="8">
         <v>2.0</v>
@@ -6762,12 +7216,15 @@
         <v>0.0</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J99" s="21">
+        <v>330</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="K99" s="22">
         <v>153.0</v>
       </c>
-      <c r="K99" s="15">
+      <c r="L99" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6775,14 +7232,14 @@
       <c r="A100" s="16">
         <v>98.0</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C100" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>306</v>
+      <c r="B100" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="E100" s="8">
         <v>2.0</v>
@@ -6797,12 +7254,15 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="J100" s="21">
+        <v>334</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K100" s="22">
         <v>154.0</v>
       </c>
-      <c r="K100" s="15">
+      <c r="L100" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6810,14 +7270,14 @@
       <c r="A101" s="16">
         <v>99.0</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C101" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>309</v>
+      <c r="B101" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="E101" s="8">
         <v>2.0</v>
@@ -6832,12 +7292,15 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="J101" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K101" s="22">
         <v>155.0</v>
       </c>
-      <c r="K101" s="15">
+      <c r="L101" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6845,14 +7308,14 @@
       <c r="A102" s="16">
         <v>100.0</v>
       </c>
-      <c r="B102" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C102" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>312</v>
+      <c r="B102" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="E102" s="8">
         <v>2.0</v>
@@ -6867,12 +7330,15 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="J102" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K102" s="22">
         <v>156.0</v>
       </c>
-      <c r="K102" s="15">
+      <c r="L102" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6880,14 +7346,14 @@
       <c r="A103" s="16">
         <v>101.0</v>
       </c>
-      <c r="B103" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C103" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>315</v>
+      <c r="B103" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="E103" s="8">
         <v>2.0</v>
@@ -6902,12 +7368,15 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="J103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="22">
         <v>157.0</v>
       </c>
-      <c r="K103" s="15">
+      <c r="L103" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6915,14 +7384,14 @@
       <c r="A104" s="16">
         <v>102.0</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D104" s="21" t="s">
-        <v>318</v>
+      <c r="B104" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="E104" s="8">
         <v>2.0</v>
@@ -6937,12 +7406,15 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="J104" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K104" s="22">
         <v>158.0</v>
       </c>
-      <c r="K104" s="15">
+      <c r="L104" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6950,14 +7422,14 @@
       <c r="A105" s="16">
         <v>103.0</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C105" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>321</v>
+      <c r="B105" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="E105" s="8">
         <v>2.0</v>
@@ -6972,12 +7444,15 @@
         <v>0.0</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="J105" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K105" s="22">
         <v>159.0</v>
       </c>
-      <c r="K105" s="15">
+      <c r="L105" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6985,14 +7460,14 @@
       <c r="A106" s="16">
         <v>104.0</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C106" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>324</v>
+      <c r="B106" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E106" s="8">
         <v>2.0</v>
@@ -7007,12 +7482,15 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="J106" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K106" s="22">
         <v>160.0</v>
       </c>
-      <c r="K106" s="15">
+      <c r="L106" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7020,14 +7498,14 @@
       <c r="A107" s="16">
         <v>105.0</v>
       </c>
-      <c r="B107" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C107" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>327</v>
+      <c r="B107" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="E107" s="8">
         <v>2.0</v>
@@ -7042,12 +7520,15 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="J107" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="22">
         <v>161.0</v>
       </c>
-      <c r="K107" s="15">
+      <c r="L107" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7055,14 +7536,14 @@
       <c r="A108" s="16">
         <v>106.0</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C108" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>97</v>
+      <c r="B108" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="E108" s="8">
         <v>2.0</v>
@@ -7077,12 +7558,15 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="J108" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K108" s="22">
         <v>162.0</v>
       </c>
-      <c r="K108" s="15">
+      <c r="L108" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7090,14 +7574,14 @@
       <c r="A109" s="16">
         <v>107.0</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C109" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>331</v>
+      <c r="B109" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="E109" s="8">
         <v>2.0</v>
@@ -7112,12 +7596,15 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="J109" s="21">
+        <v>360</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K109" s="22">
         <v>163.0</v>
       </c>
-      <c r="K109" s="15">
+      <c r="L109" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7125,14 +7612,14 @@
       <c r="A110" s="16">
         <v>108.0</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>333</v>
+      <c r="B110" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="E110" s="8">
         <v>2.0</v>
@@ -7147,12 +7634,15 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="J110" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K110" s="22">
         <v>164.0</v>
       </c>
-      <c r="K110" s="15">
+      <c r="L110" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7160,14 +7650,14 @@
       <c r="A111" s="16">
         <v>109.0</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>335</v>
+      <c r="B111" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="E111" s="8">
         <v>2.0</v>
@@ -7182,12 +7672,15 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="J111" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K111" s="22">
         <v>165.0</v>
       </c>
-      <c r="K111" s="15">
+      <c r="L111" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7195,14 +7688,14 @@
       <c r="A112" s="16">
         <v>110.0</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>338</v>
+      <c r="B112" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C112" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="E112" s="8">
         <v>2.0</v>
@@ -7217,12 +7710,15 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="J112" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K112" s="22">
         <v>166.0</v>
       </c>
-      <c r="K112" s="15">
+      <c r="L112" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7230,14 +7726,14 @@
       <c r="A113" s="16">
         <v>111.0</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C113" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>341</v>
+      <c r="B113" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="E113" s="8">
         <v>2.0</v>
@@ -7252,12 +7748,15 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="J113" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K113" s="22">
         <v>167.0</v>
       </c>
-      <c r="K113" s="15">
+      <c r="L113" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7265,14 +7764,14 @@
       <c r="A114" s="16">
         <v>112.0</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C114" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>344</v>
+      <c r="B114" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="E114" s="8">
         <v>2.0</v>
@@ -7287,12 +7786,15 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="J114" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K114" s="22">
         <v>168.0</v>
       </c>
-      <c r="K114" s="15">
+      <c r="L114" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7300,14 +7802,14 @@
       <c r="A115" s="16">
         <v>113.0</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C115" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>347</v>
+      <c r="B115" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="E115" s="8">
         <v>2.0</v>
@@ -7322,12 +7824,15 @@
         <v>0.0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="J115" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K115" s="22">
         <v>169.0</v>
       </c>
-      <c r="K115" s="15">
+      <c r="L115" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7335,14 +7840,14 @@
       <c r="A116" s="16">
         <v>114.0</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C116" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>350</v>
+      <c r="B116" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="E116" s="8">
         <v>2.0</v>
@@ -7357,12 +7862,15 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="J116" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K116" s="22">
         <v>170.0</v>
       </c>
-      <c r="K116" s="15">
+      <c r="L116" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7370,14 +7878,14 @@
       <c r="A117" s="16">
         <v>115.0</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C117" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>353</v>
+      <c r="B117" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="E117" s="8">
         <v>2.0</v>
@@ -7392,12 +7900,15 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="J117" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="22">
         <v>171.0</v>
       </c>
-      <c r="K117" s="15">
+      <c r="L117" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7405,14 +7916,14 @@
       <c r="A118" s="16">
         <v>116.0</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C118" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>356</v>
+      <c r="B118" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="E118" s="8">
         <v>2.0</v>
@@ -7427,12 +7938,15 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="J118" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K118" s="22">
         <v>172.0</v>
       </c>
-      <c r="K118" s="15">
+      <c r="L118" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7440,14 +7954,14 @@
       <c r="A119" s="16">
         <v>117.0</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C119" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>359</v>
+      <c r="B119" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>388</v>
       </c>
       <c r="E119" s="8">
         <v>2.0</v>
@@ -7462,12 +7976,15 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="J119" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K119" s="22">
         <v>173.0</v>
       </c>
-      <c r="K119" s="15">
+      <c r="L119" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7475,14 +7992,14 @@
       <c r="A120" s="16">
         <v>118.0</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C120" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>362</v>
+      <c r="B120" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="E120" s="8">
         <v>2.0</v>
@@ -7497,12 +8014,15 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="J120" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K120" s="22">
         <v>174.0</v>
       </c>
-      <c r="K120" s="15">
+      <c r="L120" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7510,14 +8030,14 @@
       <c r="A121" s="16">
         <v>119.0</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C121" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>365</v>
+      <c r="B121" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="E121" s="8">
         <v>2.0</v>
@@ -7532,12 +8052,15 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="J121" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K121" s="22">
         <v>175.0</v>
       </c>
-      <c r="K121" s="15">
+      <c r="L121" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7545,14 +8068,14 @@
       <c r="A122" s="16">
         <v>120.0</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C122" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>368</v>
+      <c r="B122" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="E122" s="8">
         <v>2.0</v>
@@ -7567,12 +8090,15 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="J122" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K122" s="22">
         <v>176.0</v>
       </c>
-      <c r="K122" s="15">
+      <c r="L122" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7580,14 +8106,14 @@
       <c r="A123" s="16">
         <v>121.0</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C123" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>371</v>
+      <c r="B123" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C123" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="E123" s="8">
         <v>2.0</v>
@@ -7602,12 +8128,15 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="J123" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K123" s="22">
         <v>177.0</v>
       </c>
-      <c r="K123" s="15">
+      <c r="L123" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7615,14 +8144,14 @@
       <c r="A124" s="16">
         <v>122.0</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C124" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>374</v>
+      <c r="B124" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C124" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="E124" s="8">
         <v>2.0</v>
@@ -7637,12 +8166,15 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="J124" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K124" s="22">
         <v>178.0</v>
       </c>
-      <c r="K124" s="15">
+      <c r="L124" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7650,14 +8182,14 @@
       <c r="A125" s="16">
         <v>123.0</v>
       </c>
-      <c r="B125" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C125" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>377</v>
+      <c r="B125" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C125" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E125" s="8">
         <v>2.0</v>
@@ -7672,12 +8204,15 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="J125" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K125" s="22">
         <v>179.0</v>
       </c>
-      <c r="K125" s="15">
+      <c r="L125" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7685,14 +8220,14 @@
       <c r="A126" s="16">
         <v>124.0</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C126" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>380</v>
+      <c r="B126" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C126" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="E126" s="8">
         <v>2.0</v>
@@ -7707,12 +8242,15 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="J126" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K126" s="22">
         <v>180.0</v>
       </c>
-      <c r="K126" s="15">
+      <c r="L126" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7720,14 +8258,14 @@
       <c r="A127" s="16">
         <v>125.0</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C127" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>383</v>
+      <c r="B127" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="E127" s="8">
         <v>2.0</v>
@@ -7742,12 +8280,15 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="J127" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K127" s="22">
         <v>181.0</v>
       </c>
-      <c r="K127" s="15">
+      <c r="L127" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7755,14 +8296,14 @@
       <c r="A128" s="16">
         <v>126.0</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C128" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>386</v>
+      <c r="B128" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C128" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>415</v>
       </c>
       <c r="E128" s="8">
         <v>2.0</v>
@@ -7777,12 +8318,15 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="J128" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K128" s="22">
         <v>182.0</v>
       </c>
-      <c r="K128" s="15">
+      <c r="L128" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7790,14 +8334,14 @@
       <c r="A129" s="16">
         <v>127.0</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C129" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>388</v>
+      <c r="B129" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>417</v>
       </c>
       <c r="E129" s="8">
         <v>2.0</v>
@@ -7812,12 +8356,15 @@
         <v>0.0</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="J129" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K129" s="22">
         <v>183.0</v>
       </c>
-      <c r="K129" s="15">
+      <c r="L129" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7825,14 +8372,14 @@
       <c r="A130" s="16">
         <v>128.0</v>
       </c>
-      <c r="B130" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C130" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>390</v>
+      <c r="B130" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C130" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="E130" s="8">
         <v>2.0</v>
@@ -7847,12 +8394,15 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="J130" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K130" s="22">
         <v>184.0</v>
       </c>
-      <c r="K130" s="15">
+      <c r="L130" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7860,14 +8410,14 @@
       <c r="A131" s="16">
         <v>129.0</v>
       </c>
-      <c r="B131" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C131" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>393</v>
+      <c r="B131" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>422</v>
       </c>
       <c r="E131" s="8">
         <v>2.0</v>
@@ -7882,12 +8432,15 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J131" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K131" s="22">
         <v>185.0</v>
       </c>
-      <c r="K131" s="15">
+      <c r="L131" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7895,14 +8448,14 @@
       <c r="A132" s="16">
         <v>130.0</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="C132" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>395</v>
+      <c r="B132" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C132" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="E132" s="8">
         <v>2.0</v>
@@ -7917,12 +8470,15 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="J132" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K132" s="22">
         <v>186.0</v>
       </c>
-      <c r="K132" s="15">
+      <c r="L132" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7930,14 +8486,14 @@
       <c r="A133" s="16">
         <v>131.0</v>
       </c>
-      <c r="B133" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="C133" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>398</v>
+      <c r="B133" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C133" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="E133" s="8">
         <v>2.0</v>
@@ -7952,12 +8508,15 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="J133" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K133" s="22">
         <v>187.0</v>
       </c>
-      <c r="K133" s="15">
+      <c r="L133" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7965,14 +8524,14 @@
       <c r="A134" s="16">
         <v>132.0</v>
       </c>
-      <c r="B134" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="C134" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>401</v>
+      <c r="B134" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C134" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="E134" s="8">
         <v>2.0</v>
@@ -7987,12 +8546,15 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="J134" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K134" s="22">
         <v>188.0</v>
       </c>
-      <c r="K134" s="15">
+      <c r="L134" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8000,14 +8562,14 @@
       <c r="A135" s="16">
         <v>133.0</v>
       </c>
-      <c r="B135" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="C135" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>404</v>
+      <c r="B135" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>433</v>
       </c>
       <c r="E135" s="8">
         <v>2.0</v>
@@ -8022,12 +8584,15 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="J135" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K135" s="22">
         <v>189.0</v>
       </c>
-      <c r="K135" s="15">
+      <c r="L135" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8035,14 +8600,14 @@
       <c r="A136" s="16">
         <v>134.0</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C136" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>407</v>
+      <c r="B136" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C136" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="E136" s="8">
         <v>2.0</v>
@@ -8057,12 +8622,15 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="J136" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K136" s="22">
         <v>190.0</v>
       </c>
-      <c r="K136" s="15">
+      <c r="L136" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8070,14 +8638,14 @@
       <c r="A137" s="16">
         <v>135.0</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C137" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>410</v>
+      <c r="B137" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C137" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="E137" s="8">
         <v>2.0</v>
@@ -8092,12 +8660,15 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="J137" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K137" s="22">
         <v>191.0</v>
       </c>
-      <c r="K137" s="15">
+      <c r="L137" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8105,14 +8676,14 @@
       <c r="A138" s="16">
         <v>136.0</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>412</v>
+      <c r="B138" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C138" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="E138" s="8">
         <v>2.0</v>
@@ -8127,12 +8698,15 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="J138" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K138" s="22">
         <v>192.0</v>
       </c>
-      <c r="K138" s="15">
+      <c r="L138" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8140,14 +8714,14 @@
       <c r="A139" s="16">
         <v>137.0</v>
       </c>
-      <c r="B139" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C139" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>414</v>
+      <c r="B139" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>443</v>
       </c>
       <c r="E139" s="8">
         <v>2.0</v>
@@ -8162,12 +8736,15 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="J139" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K139" s="22">
         <v>204.0</v>
       </c>
-      <c r="K139" s="15">
+      <c r="L139" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8175,14 +8752,14 @@
       <c r="A140" s="16">
         <v>138.0</v>
       </c>
-      <c r="B140" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="C140" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>417</v>
+      <c r="B140" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C140" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>446</v>
       </c>
       <c r="E140" s="8">
         <v>2.0</v>
@@ -8197,12 +8774,15 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="J140" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K140" s="22">
         <v>205.0</v>
       </c>
-      <c r="K140" s="15">
+      <c r="L140" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8210,14 +8790,14 @@
       <c r="A141" s="16">
         <v>139.0</v>
       </c>
-      <c r="B141" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C141" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>420</v>
+      <c r="B141" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C141" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>449</v>
       </c>
       <c r="E141" s="8">
         <v>2.0</v>
@@ -8232,12 +8812,15 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="J141" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K141" s="22">
         <v>206.0</v>
       </c>
-      <c r="K141" s="15">
+      <c r="L141" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8245,14 +8828,14 @@
       <c r="A142" s="16">
         <v>140.0</v>
       </c>
-      <c r="B142" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="C142" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>423</v>
+      <c r="B142" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C142" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="E142" s="8">
         <v>2.0</v>
@@ -8267,12 +8850,15 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="J142" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K142" s="22">
         <v>207.0</v>
       </c>
-      <c r="K142" s="15">
+      <c r="L142" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8280,14 +8866,14 @@
       <c r="A143" s="16">
         <v>141.0</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C143" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D143" s="21" t="s">
-        <v>426</v>
+      <c r="B143" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C143" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="E143" s="8">
         <v>2.0</v>
@@ -8302,12 +8888,15 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="J143" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K143" s="22">
         <v>208.0</v>
       </c>
-      <c r="K143" s="15">
+      <c r="L143" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8315,14 +8904,14 @@
       <c r="A144" s="16">
         <v>142.0</v>
       </c>
-      <c r="B144" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C144" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>429</v>
+      <c r="B144" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="C144" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>458</v>
       </c>
       <c r="E144" s="8">
         <v>2.0</v>
@@ -8337,12 +8926,15 @@
         <v>0.0</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="J144" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K144" s="22">
         <v>209.0</v>
       </c>
-      <c r="K144" s="15">
+      <c r="L144" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8350,14 +8942,14 @@
       <c r="A145" s="16">
         <v>143.0</v>
       </c>
-      <c r="B145" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C145" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>432</v>
+      <c r="B145" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C145" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>461</v>
       </c>
       <c r="E145" s="8">
         <v>2.0</v>
@@ -8372,12 +8964,15 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="J145" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K145" s="22">
         <v>210.0</v>
       </c>
-      <c r="K145" s="15">
+      <c r="L145" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8385,14 +8980,14 @@
       <c r="A146" s="16">
         <v>144.0</v>
       </c>
-      <c r="B146" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C146" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>435</v>
+      <c r="B146" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C146" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>464</v>
       </c>
       <c r="E146" s="8">
         <v>2.0</v>
@@ -8407,12 +9002,15 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="J146" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K146" s="22">
         <v>211.0</v>
       </c>
-      <c r="K146" s="15">
+      <c r="L146" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8420,14 +9018,14 @@
       <c r="A147" s="16">
         <v>145.0</v>
       </c>
-      <c r="B147" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C147" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>438</v>
+      <c r="B147" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C147" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="E147" s="8">
         <v>2.0</v>
@@ -8442,12 +9040,15 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="J147" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K147" s="22">
         <v>212.0</v>
       </c>
-      <c r="K147" s="15">
+      <c r="L147" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8455,14 +9056,14 @@
       <c r="A148" s="16">
         <v>146.0</v>
       </c>
-      <c r="B148" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C148" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>441</v>
+      <c r="B148" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C148" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="E148" s="8">
         <v>2.0</v>
@@ -8477,12 +9078,15 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="J148" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K148" s="22">
         <v>213.0</v>
       </c>
-      <c r="K148" s="15">
+      <c r="L148" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8490,14 +9094,14 @@
       <c r="A149" s="16">
         <v>147.0</v>
       </c>
-      <c r="B149" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="C149" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>444</v>
+      <c r="B149" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C149" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="E149" s="8">
         <v>2.0</v>
@@ -8512,12 +9116,15 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="J149" s="21">
+        <v>474</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="K149" s="22">
         <v>214.0</v>
       </c>
-      <c r="K149" s="15">
+      <c r="L149" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8525,14 +9132,14 @@
       <c r="A150" s="16">
         <v>148.0</v>
       </c>
-      <c r="B150" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C150" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>447</v>
+      <c r="B150" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C150" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>477</v>
       </c>
       <c r="E150" s="8">
         <v>2.0</v>
@@ -8547,12 +9154,15 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="J150" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K150" s="22">
         <v>215.0</v>
       </c>
-      <c r="K150" s="15">
+      <c r="L150" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8560,14 +9170,14 @@
       <c r="A151" s="16">
         <v>149.0</v>
       </c>
-      <c r="B151" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C151" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>450</v>
+      <c r="B151" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C151" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>480</v>
       </c>
       <c r="E151" s="8">
         <v>2.0</v>
@@ -8582,12 +9192,15 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="J151" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K151" s="22">
         <v>216.0</v>
       </c>
-      <c r="K151" s="15">
+      <c r="L151" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8595,14 +9208,14 @@
       <c r="A152" s="16">
         <v>150.0</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="C152" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>453</v>
+      <c r="B152" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C152" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>483</v>
       </c>
       <c r="E152" s="8">
         <v>2.0</v>
@@ -8617,12 +9230,15 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="J152" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K152" s="22">
         <v>217.0</v>
       </c>
-      <c r="K152" s="15">
+      <c r="L152" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8630,14 +9246,14 @@
       <c r="A153" s="16">
         <v>151.0</v>
       </c>
-      <c r="B153" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C153" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>455</v>
+      <c r="B153" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C153" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="E153" s="8">
         <v>2.0</v>
@@ -8652,12 +9268,15 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="J153" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K153" s="22">
         <v>218.0</v>
       </c>
-      <c r="K153" s="15">
+      <c r="L153" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8665,14 +9284,14 @@
       <c r="A154" s="16">
         <v>152.0</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C154" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>456</v>
+      <c r="B154" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C154" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>486</v>
       </c>
       <c r="E154" s="8">
         <v>2.0</v>
@@ -8687,12 +9306,15 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="J154" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K154" s="22">
         <v>219.0</v>
       </c>
-      <c r="K154" s="15">
+      <c r="L154" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8700,14 +9322,14 @@
       <c r="A155" s="16">
         <v>153.0</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C155" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>458</v>
+      <c r="B155" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C155" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="E155" s="8">
         <v>2.0</v>
@@ -8722,12 +9344,15 @@
         <v>0.0</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="J155" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K155" s="22">
         <v>220.0</v>
       </c>
-      <c r="K155" s="15">
+      <c r="L155" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8735,14 +9360,14 @@
       <c r="A156" s="16">
         <v>154.0</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C156" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>461</v>
+      <c r="B156" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C156" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="E156" s="8">
         <v>2.0</v>
@@ -8757,12 +9382,15 @@
         <v>0.0</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="J156" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K156" s="22">
         <v>221.0</v>
       </c>
-      <c r="K156" s="15">
+      <c r="L156" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8770,14 +9398,14 @@
       <c r="A157" s="16">
         <v>155.0</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C157" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>464</v>
+      <c r="B157" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C157" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>494</v>
       </c>
       <c r="E157" s="8">
         <v>2.0</v>
@@ -8792,12 +9420,15 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="J157" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K157" s="22">
         <v>222.0</v>
       </c>
-      <c r="K157" s="15">
+      <c r="L157" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8805,14 +9436,14 @@
       <c r="A158" s="16">
         <v>156.0</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="C158" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>467</v>
+      <c r="B158" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C158" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>497</v>
       </c>
       <c r="E158" s="8">
         <v>2.0</v>
@@ -8827,12 +9458,15 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="J158" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K158" s="22">
         <v>223.0</v>
       </c>
-      <c r="K158" s="15">
+      <c r="L158" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8841,13 +9475,13 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="C159" s="8">
         <v>0.0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E159" s="8">
         <v>2.0</v>
@@ -8862,12 +9496,15 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="J159" s="8">
+        <v>501</v>
+      </c>
+      <c r="J159" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="K159" s="8">
         <v>227.0</v>
       </c>
-      <c r="K159" s="15">
+      <c r="L159" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -8876,13 +9513,13 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C160" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D160" s="24" t="s">
-        <v>473</v>
+        <v>502</v>
+      </c>
+      <c r="C160" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>503</v>
       </c>
       <c r="E160" s="8">
         <v>2.0</v>
@@ -8897,12 +9534,15 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="J160" s="8">
+        <v>504</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="K160" s="8">
         <v>199.0</v>
       </c>
-      <c r="K160" s="15">
+      <c r="L160" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8911,13 +9551,13 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="C161" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>476</v>
+        <v>506</v>
+      </c>
+      <c r="C161" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>507</v>
       </c>
       <c r="E161" s="8">
         <v>2.0</v>
@@ -8932,12 +9572,15 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="J161" s="8">
+        <v>508</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="K161" s="8">
         <v>112.0</v>
       </c>
-      <c r="K161" s="15">
+      <c r="L161" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8946,13 +9589,13 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="C162" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>479</v>
+        <v>510</v>
+      </c>
+      <c r="C162" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>511</v>
       </c>
       <c r="E162" s="8">
         <v>2.0</v>
@@ -8967,12 +9610,15 @@
         <v>0.0</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J162" s="8">
+        <v>512</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="K162" s="8">
         <v>143.0</v>
       </c>
-      <c r="K162" s="15">
+      <c r="L162" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -8981,13 +9627,13 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C163" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>482</v>
+        <v>514</v>
+      </c>
+      <c r="C163" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>515</v>
       </c>
       <c r="E163" s="8">
         <v>2.0</v>
@@ -9002,12 +9648,15 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="J163" s="8">
+        <v>516</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="K163" s="8">
         <v>146.0</v>
       </c>
-      <c r="K163" s="15">
+      <c r="L163" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9015,14 +9664,14 @@
       <c r="A164" s="16">
         <v>162.0</v>
       </c>
-      <c r="B164" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C164" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>485</v>
+      <c r="B164" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C164" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>519</v>
       </c>
       <c r="E164" s="8">
         <v>2.0</v>
@@ -9037,12 +9686,15 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="J164" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K164" s="8">
         <v>18.0</v>
       </c>
-      <c r="K164" s="15">
+      <c r="L164" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9051,13 +9703,13 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="C165" s="8">
         <v>0.0</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="E165" s="8">
         <v>2.0</v>
@@ -9072,12 +9724,15 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="J165" s="8">
+        <v>522</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="K165" s="8">
         <v>201.0</v>
       </c>
-      <c r="K165" s="15">
+      <c r="L165" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9086,13 +9741,13 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="C166" s="8">
         <v>0.0</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E166" s="8">
         <v>2.0</v>
@@ -9107,12 +9762,15 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="J166" s="8">
+        <v>526</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="K166" s="8">
         <v>86.0</v>
       </c>
-      <c r="K166" s="15">
+      <c r="L166" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9121,13 +9779,13 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="C167" s="8">
         <v>0.0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="E167" s="8">
         <v>2.0</v>
@@ -9142,12 +9800,15 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="J167" s="8">
+        <v>530</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="K167" s="8">
         <v>141.0</v>
       </c>
-      <c r="K167" s="15">
+      <c r="L167" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9156,13 +9817,13 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C168" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>496</v>
+        <v>532</v>
+      </c>
+      <c r="C168" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>533</v>
       </c>
       <c r="E168" s="8">
         <v>2.0</v>
@@ -9177,12 +9838,15 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="J168" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K168" s="8">
         <v>107.0</v>
       </c>
-      <c r="K168" s="15">
+      <c r="L168" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9191,13 +9855,13 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="C169" s="8">
         <v>0.0</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="E169" s="8">
         <v>2.0</v>
@@ -9212,12 +9876,15 @@
         <v>0.0</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="J169" s="8">
+        <v>537</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="K169" s="8">
         <v>81.0</v>
       </c>
-      <c r="K169" s="15">
+      <c r="L169" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9226,13 +9893,13 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="C170" s="8">
         <v>0.0</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="E170" s="8">
         <v>2.0</v>
@@ -9247,12 +9914,15 @@
         <v>0.0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="J170" s="8">
+        <v>541</v>
+      </c>
+      <c r="J170" s="27">
+        <v>35107.0</v>
+      </c>
+      <c r="K170" s="8">
         <v>108.0</v>
       </c>
-      <c r="K170" s="15">
+      <c r="L170" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9261,13 +9931,13 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="C171" s="8">
         <v>0.0</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="E171" s="8">
         <v>2.0</v>
@@ -9282,12 +9952,15 @@
         <v>0.0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="J171" s="8">
+        <v>544</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="K171" s="8">
         <v>139.0</v>
       </c>
-      <c r="K171" s="15">
+      <c r="L171" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9296,13 +9969,13 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="C172" s="8">
         <v>0.0</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="E172" s="8">
         <v>2.0</v>
@@ -9317,12 +9990,15 @@
         <v>0.0</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="J172" s="8">
+        <v>548</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="K172" s="8">
         <v>194.0</v>
       </c>
-      <c r="K172" s="15">
+      <c r="L172" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9331,13 +10007,13 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="C173" s="8">
         <v>0.0</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="E173" s="8">
         <v>2.0</v>
@@ -9352,12 +10028,15 @@
         <v>0.0</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="J173" s="8">
+        <v>552</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="K173" s="8">
         <v>83.0</v>
       </c>
-      <c r="K173" s="15">
+      <c r="L173" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9366,13 +10045,13 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C174" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D174" s="24" t="s">
-        <v>514</v>
+        <v>554</v>
+      </c>
+      <c r="C174" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>555</v>
       </c>
       <c r="E174" s="8">
         <v>2.0</v>
@@ -9387,12 +10066,15 @@
         <v>0.0</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="J174" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K174" s="8">
         <v>228.0</v>
       </c>
-      <c r="K174" s="15">
+      <c r="L174" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9401,13 +10083,13 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="C175" s="8">
         <v>0.0</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="E175" s="8">
         <v>2.0</v>
@@ -9422,12 +10104,15 @@
         <v>0.0</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="J175" s="8">
+        <v>559</v>
+      </c>
+      <c r="J175" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="K175" s="8">
         <v>197.0</v>
       </c>
-      <c r="K175" s="15">
+      <c r="L175" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9436,13 +10121,13 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="C176" s="8">
         <v>0.0</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="E176" s="8">
         <v>2.0</v>
@@ -9457,12 +10142,15 @@
         <v>0.0</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="J176" s="8">
+        <v>563</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="K176" s="8">
         <v>226.0</v>
       </c>
-      <c r="K176" s="15">
+      <c r="L176" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9471,13 +10159,13 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="C177" s="8">
         <v>0.0</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="E177" s="8">
         <v>2.0</v>
@@ -9492,12 +10180,15 @@
         <v>0.0</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="J177" s="8">
+        <v>567</v>
+      </c>
+      <c r="J177" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="K177" s="8">
         <v>225.0</v>
       </c>
-      <c r="K177" s="15">
+      <c r="L177" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9506,13 +10197,13 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="C178" s="8">
         <v>0.0</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="E178" s="8">
         <v>2.0</v>
@@ -9527,12 +10218,15 @@
         <v>0.0</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="J178" s="8">
+        <v>571</v>
+      </c>
+      <c r="J178" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="K178" s="8">
         <v>111.0</v>
       </c>
-      <c r="K178" s="15">
+      <c r="L178" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9541,13 +10235,13 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="C179" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>529</v>
+        <v>573</v>
+      </c>
+      <c r="C179" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>574</v>
       </c>
       <c r="E179" s="8">
         <v>2.0</v>
@@ -9562,12 +10256,15 @@
         <v>0.0</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="J179" s="8">
+        <v>575</v>
+      </c>
+      <c r="J179" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="K179" s="8">
         <v>145.0</v>
       </c>
-      <c r="K179" s="15">
+      <c r="L179" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9576,13 +10273,13 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="C180" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D180" s="24" t="s">
-        <v>532</v>
+        <v>577</v>
+      </c>
+      <c r="C180" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>578</v>
       </c>
       <c r="E180" s="8">
         <v>2.0</v>
@@ -9597,12 +10294,15 @@
         <v>0.0</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="J180" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K180" s="8">
         <v>109.0</v>
       </c>
-      <c r="K180" s="15">
+      <c r="L180" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9611,13 +10311,13 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="C181" s="8">
         <v>0.0</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="E181" s="8">
         <v>2.0</v>
@@ -9632,12 +10332,15 @@
         <v>0.0</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="J181" s="8">
+        <v>582</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="K181" s="8">
         <v>198.0</v>
       </c>
-      <c r="K181" s="15">
+      <c r="L181" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9646,13 +10349,13 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="C182" s="8">
         <v>0.0</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="E182" s="8">
         <v>2.0</v>
@@ -9667,12 +10370,15 @@
         <v>0.0</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="J182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K182" s="8">
         <v>144.0</v>
       </c>
-      <c r="K182" s="15">
+      <c r="L182" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9681,13 +10387,13 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="C183" s="8">
         <v>0.0</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="E183" s="8">
         <v>2.0</v>
@@ -9702,12 +10408,15 @@
         <v>0.0</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="J183" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K183" s="8">
         <v>110.0</v>
       </c>
-      <c r="K183" s="15">
+      <c r="L183" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9715,14 +10424,14 @@
       <c r="A184" s="16">
         <v>182.0</v>
       </c>
-      <c r="B184" s="25" t="s">
-        <v>543</v>
+      <c r="B184" s="26" t="s">
+        <v>590</v>
       </c>
       <c r="C184" s="8">
         <v>0.0</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="E184" s="8">
         <v>2.0</v>
@@ -9737,12 +10446,15 @@
         <v>0.0</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="J184" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K184" s="8">
         <v>64.0</v>
       </c>
-      <c r="K184" s="15">
+      <c r="L184" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9751,13 +10463,13 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C185" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D185" s="24" t="s">
-        <v>545</v>
+        <v>460</v>
+      </c>
+      <c r="C185" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D185" s="25" t="s">
+        <v>592</v>
       </c>
       <c r="E185" s="8">
         <v>2.0</v>
@@ -9772,12 +10484,15 @@
         <v>0.0</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="J185" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K185" s="8">
         <v>210.0</v>
       </c>
-      <c r="K185" s="15">
+      <c r="L185" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9786,13 +10501,13 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="C186" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>547</v>
+        <v>593</v>
+      </c>
+      <c r="C186" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>594</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -9807,12 +10522,15 @@
         <v>0.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="J186" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K186" s="8">
         <v>202.0</v>
       </c>
-      <c r="K186" s="15">
+      <c r="L186" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9821,13 +10539,13 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -9842,12 +10560,15 @@
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="J187" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K187" s="8">
         <v>138.0</v>
       </c>
-      <c r="K187" s="15">
+      <c r="L187" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9856,13 +10577,13 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -9877,12 +10598,15 @@
         <v>0.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="J188" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K188" s="8">
         <v>142.0</v>
       </c>
-      <c r="K188" s="15">
+      <c r="L188" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9891,13 +10615,13 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -9912,12 +10636,15 @@
         <v>0.0</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="J189" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K189" s="8">
         <v>196.0</v>
       </c>
-      <c r="K189" s="15">
+      <c r="L189" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9926,13 +10653,13 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C190" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D190" s="24" t="s">
-        <v>559</v>
+        <v>605</v>
+      </c>
+      <c r="C190" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>606</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -9947,12 +10674,15 @@
         <v>0.0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="J190" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K190" s="8">
         <v>195.0</v>
       </c>
-      <c r="K190" s="15">
+      <c r="L190" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9961,13 +10691,13 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C191" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D191" s="24" t="s">
-        <v>562</v>
+        <v>608</v>
+      </c>
+      <c r="C191" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>609</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -9982,12 +10712,15 @@
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="J191" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K191" s="8">
         <v>113.0</v>
       </c>
-      <c r="K191" s="15">
+      <c r="L191" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9996,13 +10729,13 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="C192" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D192" s="24" t="s">
-        <v>565</v>
+        <v>611</v>
+      </c>
+      <c r="C192" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>612</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -10017,12 +10750,15 @@
         <v>0.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="J192" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K192" s="8">
         <v>193.0</v>
       </c>
-      <c r="K192" s="15">
+      <c r="L192" s="15">
         <v>60.0</v>
       </c>
     </row>

--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -3839,8 +3839,8 @@
       <c r="F10" s="8">
         <v>10.0</v>
       </c>
-      <c r="G10" s="8">
-        <v>2.0</v>
+      <c r="G10" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H10" s="8">
         <v>42.0</v>
@@ -3877,8 +3877,8 @@
       <c r="F11" s="8">
         <v>14.0</v>
       </c>
-      <c r="G11" s="8">
-        <v>2.0</v>
+      <c r="G11" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H11" s="8">
         <v>45.0</v>
@@ -3915,8 +3915,8 @@
       <c r="F12" s="8">
         <v>15.0</v>
       </c>
-      <c r="G12" s="8">
-        <v>2.0</v>
+      <c r="G12" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H12" s="8">
         <v>57.0</v>
@@ -3953,8 +3953,8 @@
       <c r="F13" s="8">
         <v>17.0</v>
       </c>
-      <c r="G13" s="8">
-        <v>2.0</v>
+      <c r="G13" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H13" s="8">
         <v>63.0</v>
@@ -3991,8 +3991,8 @@
       <c r="F14" s="8">
         <v>8.0</v>
       </c>
-      <c r="G14" s="8">
-        <v>2.0</v>
+      <c r="G14" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H14" s="8">
         <v>40.0</v>
@@ -4029,8 +4029,8 @@
       <c r="F15" s="8">
         <v>12.0</v>
       </c>
-      <c r="G15" s="8">
-        <v>2.0</v>
+      <c r="G15" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H15" s="8">
         <v>44.0</v>
@@ -4067,8 +4067,8 @@
       <c r="F16" s="8">
         <v>16.0</v>
       </c>
-      <c r="G16" s="8">
-        <v>2.0</v>
+      <c r="G16" s="15">
+        <v>1002.0</v>
       </c>
       <c r="H16" s="8">
         <v>62.0</v>
@@ -4105,8 +4105,8 @@
       <c r="F17" s="8">
         <v>9.0</v>
       </c>
-      <c r="G17" s="8">
-        <v>7.0</v>
+      <c r="G17" s="15">
+        <v>1007.0</v>
       </c>
       <c r="H17" s="8">
         <v>28.0</v>

--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="617">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>이현</t>
+  </si>
+  <si>
+    <t>칼럼 이름 변경 AddFood1,AddFood2 -&gt; AddFood,ComplexFood</t>
+  </si>
+  <si>
+    <t>AddFood</t>
+  </si>
+  <si>
+    <t>ComplexFood</t>
   </si>
   <si>
     <t>int</t>
@@ -2466,7 +2475,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="14">
+        <v>45283.0</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="25" ht="16.5" customHeight="1"/>
     <row r="26" ht="16.5" customHeight="1"/>
     <row r="27" ht="16.5" customHeight="1"/>
@@ -3506,10 +3522,10 @@
         <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>20</v>
@@ -3520,38 +3536,38 @@
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -3559,13 +3575,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8">
         <v>2.0</v>
@@ -3580,7 +3596,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" s="8">
         <v>0.0</v>
@@ -3597,13 +3613,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8">
         <v>2.0</v>
@@ -3618,10 +3634,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4" s="8">
         <v>65.0</v>
@@ -3635,13 +3651,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="8">
         <v>2.0</v>
@@ -3656,10 +3672,10 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="8">
         <v>26.0</v>
@@ -3673,13 +3689,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="8">
         <v>0.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8">
         <v>2.0</v>
@@ -3694,10 +3710,10 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6" s="8">
         <v>25.0</v>
@@ -3711,13 +3727,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" s="8">
         <v>2.0</v>
@@ -3732,10 +3748,10 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7" s="8">
         <v>39.0</v>
@@ -3749,13 +3765,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="8">
         <v>2.0</v>
@@ -3770,10 +3786,10 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8" s="8">
         <v>66.0</v>
@@ -3787,13 +3803,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>0.0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="8">
         <v>2.0</v>
@@ -3808,7 +3824,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9" s="8">
         <v>0.0</v>
@@ -3825,13 +3841,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8">
         <v>1.0</v>
@@ -3863,13 +3879,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="8">
         <v>1.0</v>
@@ -3901,13 +3917,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8">
         <v>1.0</v>
@@ -3939,13 +3955,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8">
         <v>1.0</v>
@@ -3977,13 +3993,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E14" s="8">
         <v>1.0</v>
@@ -4015,13 +4031,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8">
         <v>1.0</v>
@@ -4053,13 +4069,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8">
         <v>1.0</v>
@@ -4091,13 +4107,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="8">
         <v>1.0</v>
@@ -4129,13 +4145,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" s="8">
         <v>2.0</v>
@@ -4150,7 +4166,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" s="8">
         <v>0.0</v>
@@ -4167,13 +4183,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8">
         <v>0.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8">
         <v>2.0</v>
@@ -4188,10 +4204,10 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K19" s="8">
         <v>82.0</v>
@@ -4205,13 +4221,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" s="8">
         <v>2.0</v>
@@ -4226,10 +4242,10 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K20" s="8">
         <v>200.0</v>
@@ -4243,13 +4259,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8">
         <v>2.0</v>
@@ -4264,10 +4280,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K21" s="8">
         <v>85.0</v>
@@ -4281,13 +4297,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C22" s="8">
         <v>0.0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E22" s="8">
         <v>2.0</v>
@@ -4302,10 +4318,10 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K22" s="8">
         <v>140.0</v>
@@ -4319,13 +4335,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E23" s="8">
         <v>2.0</v>
@@ -4340,10 +4356,10 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K23" s="8">
         <v>87.0</v>
@@ -4357,13 +4373,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="8">
         <v>0.0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24" s="8">
         <v>2.0</v>
@@ -4378,7 +4394,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J24" s="8">
         <v>0.0</v>
@@ -4395,13 +4411,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E25" s="8">
         <v>2.0</v>
@@ -4416,7 +4432,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J25" s="8">
         <v>0.0</v>
@@ -4433,13 +4449,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E26" s="8">
         <v>2.0</v>
@@ -4454,7 +4470,7 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J26" s="8">
         <v>0.0</v>
@@ -4471,13 +4487,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C27" s="8">
         <v>0.0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E27" s="8">
         <v>2.0</v>
@@ -4492,7 +4508,7 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J27" s="8">
         <v>0.0</v>
@@ -4509,13 +4525,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" s="8">
         <v>0.0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" s="8">
         <v>2.0</v>
@@ -4530,7 +4546,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J28" s="8">
         <v>0.0</v>
@@ -4547,13 +4563,13 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E29" s="8">
         <v>2.0</v>
@@ -4568,7 +4584,7 @@
         <v>0.0</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J29" s="8">
         <v>0.0</v>
@@ -4585,13 +4601,13 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C30" s="8">
         <v>0.0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E30" s="8">
         <v>2.0</v>
@@ -4606,7 +4622,7 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J30" s="8">
         <v>0.0</v>
@@ -4623,13 +4639,13 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C31" s="8">
         <v>0.0</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E31" s="8">
         <v>2.0</v>
@@ -4644,7 +4660,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J31" s="8">
         <v>0.0</v>
@@ -4661,13 +4677,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" s="8">
         <v>0.0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E32" s="8">
         <v>2.0</v>
@@ -4682,7 +4698,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J32" s="8">
         <v>0.0</v>
@@ -4699,13 +4715,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C33" s="8">
         <v>0.0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8">
         <v>2.0</v>
@@ -4720,7 +4736,7 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J33" s="8">
         <v>0.0</v>
@@ -4737,13 +4753,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8">
         <v>0.0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E34" s="8">
         <v>2.0</v>
@@ -4758,7 +4774,7 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J34" s="8">
         <v>0.0</v>
@@ -4775,13 +4791,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E35" s="8">
         <v>2.0</v>
@@ -4796,7 +4812,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J35" s="8">
         <v>0.0</v>
@@ -4813,13 +4829,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8">
         <v>0.0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E36" s="8">
         <v>2.0</v>
@@ -4834,7 +4850,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J36" s="8">
         <v>0.0</v>
@@ -4851,13 +4867,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C37" s="8">
         <v>0.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E37" s="8">
         <v>2.0</v>
@@ -4872,7 +4888,7 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J37" s="8">
         <v>0.0</v>
@@ -4889,13 +4905,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C38" s="8">
         <v>0.0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E38" s="8">
         <v>2.0</v>
@@ -4910,7 +4926,7 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J38" s="8">
         <v>0.0</v>
@@ -4927,13 +4943,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39" s="8">
         <v>0.0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E39" s="8">
         <v>2.0</v>
@@ -4948,7 +4964,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J39" s="8">
         <v>0.0</v>
@@ -4965,13 +4981,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C40" s="8">
         <v>0.0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E40" s="8">
         <v>2.0</v>
@@ -4986,7 +5002,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J40" s="8">
         <v>0.0</v>
@@ -5003,13 +5019,13 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C41" s="8">
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E41" s="8">
         <v>2.0</v>
@@ -5024,7 +5040,7 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J41" s="8">
         <v>0.0</v>
@@ -5041,13 +5057,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C42" s="8">
         <v>0.0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E42" s="8">
         <v>2.0</v>
@@ -5062,7 +5078,7 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J42" s="8">
         <v>0.0</v>
@@ -5079,13 +5095,13 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C43" s="8">
         <v>0.0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E43" s="8">
         <v>2.0</v>
@@ -5100,7 +5116,7 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J43" s="8">
         <v>0.0</v>
@@ -5117,13 +5133,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C44" s="8">
         <v>0.0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E44" s="8">
         <v>2.0</v>
@@ -5138,7 +5154,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J44" s="8">
         <v>0.0</v>
@@ -5155,13 +5171,13 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C45" s="8">
         <v>0.0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E45" s="8">
         <v>2.0</v>
@@ -5176,7 +5192,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J45" s="8">
         <v>0.0</v>
@@ -5193,13 +5209,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C46" s="8">
         <v>0.0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E46" s="8">
         <v>2.0</v>
@@ -5214,7 +5230,7 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J46" s="8">
         <v>0.0</v>
@@ -5231,13 +5247,13 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C47" s="8">
         <v>0.0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E47" s="8">
         <v>2.0</v>
@@ -5252,7 +5268,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J47" s="8">
         <v>0.0</v>
@@ -5269,13 +5285,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C48" s="8">
         <v>0.0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E48" s="8">
         <v>2.0</v>
@@ -5290,7 +5306,7 @@
         <v>0.0</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J48" s="8">
         <v>0.0</v>
@@ -5307,13 +5323,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C49" s="19">
         <v>0.0</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E49" s="8">
         <v>2.0</v>
@@ -5328,7 +5344,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J49" s="8">
         <v>0.0</v>
@@ -5345,13 +5361,13 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" s="8">
         <v>0.0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E50" s="8">
         <v>2.0</v>
@@ -5366,7 +5382,7 @@
         <v>0.0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J50" s="8">
         <v>0.0</v>
@@ -5383,13 +5399,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C51" s="8">
         <v>0.0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E51" s="8">
         <v>2.0</v>
@@ -5404,7 +5420,7 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J51" s="8">
         <v>0.0</v>
@@ -5421,13 +5437,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C52" s="8">
         <v>0.0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E52" s="8">
         <v>2.0</v>
@@ -5442,7 +5458,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J52" s="8">
         <v>0.0</v>
@@ -5459,13 +5475,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C53" s="8">
         <v>0.0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E53" s="8">
         <v>2.0</v>
@@ -5480,7 +5496,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J53" s="8">
         <v>0.0</v>
@@ -5497,13 +5513,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8">
         <v>0.0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E54" s="8">
         <v>2.0</v>
@@ -5518,7 +5534,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J54" s="8">
         <v>0.0</v>
@@ -5535,13 +5551,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C55" s="8">
         <v>0.0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E55" s="8">
         <v>2.0</v>
@@ -5556,7 +5572,7 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J55" s="8">
         <v>0.0</v>
@@ -5573,13 +5589,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C56" s="8">
         <v>0.0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E56" s="8">
         <v>2.0</v>
@@ -5594,7 +5610,7 @@
         <v>0.0</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J56" s="8">
         <v>0.0</v>
@@ -5611,13 +5627,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C57" s="8">
         <v>0.0</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E57" s="8">
         <v>2.0</v>
@@ -5632,7 +5648,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J57" s="8">
         <v>0.0</v>
@@ -5649,13 +5665,13 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C58" s="8">
         <v>0.0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E58" s="8">
         <v>2.0</v>
@@ -5670,7 +5686,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J58" s="8">
         <v>0.0</v>
@@ -5687,13 +5703,13 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C59" s="8">
         <v>0.0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E59" s="8">
         <v>2.0</v>
@@ -5708,7 +5724,7 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J59" s="8">
         <v>0.0</v>
@@ -5725,13 +5741,13 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C60" s="8">
         <v>0.0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E60" s="8">
         <v>2.0</v>
@@ -5746,7 +5762,7 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J60" s="8">
         <v>0.0</v>
@@ -5763,13 +5779,13 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C61" s="8">
         <v>0.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E61" s="8">
         <v>2.0</v>
@@ -5784,7 +5800,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J61" s="8">
         <v>0.0</v>
@@ -5801,13 +5817,13 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C62" s="8">
         <v>0.0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E62" s="8">
         <v>2.0</v>
@@ -5822,7 +5838,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J62" s="8">
         <v>0.0</v>
@@ -5839,13 +5855,13 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C63" s="8">
         <v>0.0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E63" s="8">
         <v>2.0</v>
@@ -5860,7 +5876,7 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J63" s="8">
         <v>0.0</v>
@@ -5877,13 +5893,13 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C64" s="8">
         <v>0.0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E64" s="8">
         <v>2.0</v>
@@ -5898,7 +5914,7 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J64" s="8">
         <v>0.0</v>
@@ -5915,13 +5931,13 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C65" s="8">
         <v>0.0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E65" s="8">
         <v>2.0</v>
@@ -5936,7 +5952,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J65" s="8">
         <v>0.0</v>
@@ -5953,13 +5969,13 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C66" s="8">
         <v>0.0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E66" s="8">
         <v>2.0</v>
@@ -5974,7 +5990,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J66" s="8">
         <v>0.0</v>
@@ -5991,13 +6007,13 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C67" s="8">
         <v>0.0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E67" s="8">
         <v>2.0</v>
@@ -6012,7 +6028,7 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J67" s="8">
         <v>0.0</v>
@@ -6029,13 +6045,13 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C68" s="8">
         <v>0.0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E68" s="8">
         <v>2.0</v>
@@ -6050,7 +6066,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J68" s="8">
         <v>0.0</v>
@@ -6067,13 +6083,13 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C69" s="19">
         <v>0.0</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E69" s="8">
         <v>2.0</v>
@@ -6088,7 +6104,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J69" s="8">
         <v>0.0</v>
@@ -6105,13 +6121,13 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C70" s="8">
         <v>0.0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E70" s="8">
         <v>2.0</v>
@@ -6126,7 +6142,7 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J70" s="8">
         <v>0.0</v>
@@ -6143,13 +6159,13 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C71" s="8">
         <v>0.0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E71" s="8">
         <v>2.0</v>
@@ -6164,7 +6180,7 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J71" s="8">
         <v>0.0</v>
@@ -6181,13 +6197,13 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C72" s="8">
         <v>0.0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E72" s="8">
         <v>2.0</v>
@@ -6202,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J72" s="8">
         <v>0.0</v>
@@ -6219,13 +6235,13 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C73" s="8">
         <v>0.0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E73" s="8">
         <v>2.0</v>
@@ -6240,7 +6256,7 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J73" s="8">
         <v>0.0</v>
@@ -6257,13 +6273,13 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C74" s="8">
         <v>0.0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E74" s="8">
         <v>2.0</v>
@@ -6278,7 +6294,7 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J74" s="8">
         <v>0.0</v>
@@ -6295,13 +6311,13 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C75" s="8">
         <v>0.0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E75" s="8">
         <v>2.0</v>
@@ -6316,10 +6332,10 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K75" s="8">
         <v>120.0</v>
@@ -6333,13 +6349,13 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C76" s="8">
         <v>0.0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E76" s="8">
         <v>2.0</v>
@@ -6354,10 +6370,10 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K76" s="8">
         <v>121.0</v>
@@ -6371,13 +6387,13 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C77" s="8">
         <v>0.0</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E77" s="8">
         <v>2.0</v>
@@ -6392,10 +6408,10 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K77" s="8">
         <v>122.0</v>
@@ -6409,13 +6425,13 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C78" s="8">
         <v>0.0</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E78" s="8">
         <v>2.0</v>
@@ -6430,10 +6446,10 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K78" s="8">
         <v>123.0</v>
@@ -6447,13 +6463,13 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C79" s="8">
         <v>0.0</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E79" s="8">
         <v>2.0</v>
@@ -6468,7 +6484,7 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J79" s="8">
         <v>0.0</v>
@@ -6485,13 +6501,13 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C80" s="8">
         <v>0.0</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E80" s="8">
         <v>2.0</v>
@@ -6506,10 +6522,10 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K80" s="8">
         <v>125.0</v>
@@ -6523,13 +6539,13 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C81" s="8">
         <v>0.0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E81" s="8">
         <v>2.0</v>
@@ -6544,10 +6560,10 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K81" s="8">
         <v>126.0</v>
@@ -6561,13 +6577,13 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C82" s="8">
         <v>0.0</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E82" s="8">
         <v>2.0</v>
@@ -6582,10 +6598,10 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K82" s="8">
         <v>127.0</v>
@@ -6599,13 +6615,13 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C83" s="21">
         <v>0.0</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E83" s="8">
         <v>2.0</v>
@@ -6620,10 +6636,10 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K83" s="22">
         <v>128.0</v>
@@ -6637,13 +6653,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C84" s="21">
         <v>0.0</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E84" s="8">
         <v>2.0</v>
@@ -6658,7 +6674,7 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J84" s="21">
         <v>0.0</v>
@@ -6675,13 +6691,13 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C85" s="21">
         <v>0.0</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E85" s="8">
         <v>2.0</v>
@@ -6696,7 +6712,7 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J85" s="21">
         <v>0.0</v>
@@ -6713,13 +6729,13 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C86" s="21">
         <v>0.0</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E86" s="8">
         <v>2.0</v>
@@ -6734,7 +6750,7 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J86" s="21">
         <v>0.0</v>
@@ -6751,13 +6767,13 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C87" s="21">
         <v>0.0</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E87" s="8">
         <v>2.0</v>
@@ -6772,7 +6788,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J87" s="21">
         <v>0.0</v>
@@ -6789,13 +6805,13 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C88" s="23">
         <v>0.0</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E88" s="8">
         <v>2.0</v>
@@ -6810,10 +6826,10 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K88" s="22">
         <v>133.0</v>
@@ -6827,13 +6843,13 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C89" s="21">
         <v>0.0</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E89" s="8">
         <v>2.0</v>
@@ -6848,10 +6864,10 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K89" s="22">
         <v>134.0</v>
@@ -6865,13 +6881,13 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C90" s="23">
         <v>0.0</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E90" s="8">
         <v>2.0</v>
@@ -6886,10 +6902,10 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K90" s="22">
         <v>135.0</v>
@@ -6903,13 +6919,13 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C91" s="21">
         <v>0.0</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E91" s="8">
         <v>2.0</v>
@@ -6924,10 +6940,10 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K91" s="22">
         <v>136.0</v>
@@ -6941,13 +6957,13 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C92" s="21">
         <v>0.0</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E92" s="8">
         <v>2.0</v>
@@ -6962,7 +6978,7 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="22">
@@ -6977,13 +6993,13 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C93" s="21">
         <v>0.0</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E93" s="8">
         <v>2.0</v>
@@ -6998,7 +7014,7 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="22">
@@ -7013,13 +7029,13 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C94" s="21">
         <v>0.0</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E94" s="8">
         <v>2.0</v>
@@ -7034,7 +7050,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="22">
@@ -7049,13 +7065,13 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C95" s="21">
         <v>0.0</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E95" s="8">
         <v>2.0</v>
@@ -7070,7 +7086,7 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="22">
@@ -7085,13 +7101,13 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C96" s="21">
         <v>0.0</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E96" s="8">
         <v>2.0</v>
@@ -7106,7 +7122,7 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J96" s="22"/>
       <c r="K96" s="22">
@@ -7121,13 +7137,13 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C97" s="21">
         <v>0.0</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E97" s="8">
         <v>2.0</v>
@@ -7142,7 +7158,7 @@
         <v>0.0</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="22">
@@ -7157,13 +7173,13 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C98" s="21">
         <v>0.0</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E98" s="8">
         <v>2.0</v>
@@ -7178,10 +7194,10 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K98" s="22">
         <v>152.0</v>
@@ -7195,13 +7211,13 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C99" s="21">
         <v>0.0</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E99" s="8">
         <v>2.0</v>
@@ -7216,10 +7232,10 @@
         <v>0.0</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K99" s="22">
         <v>153.0</v>
@@ -7233,13 +7249,13 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C100" s="21">
         <v>0.0</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E100" s="8">
         <v>2.0</v>
@@ -7254,10 +7270,10 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K100" s="22">
         <v>154.0</v>
@@ -7271,13 +7287,13 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C101" s="21">
         <v>0.0</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E101" s="8">
         <v>2.0</v>
@@ -7292,7 +7308,7 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J101" s="21">
         <v>0.0</v>
@@ -7309,13 +7325,13 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C102" s="21">
         <v>0.0</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E102" s="8">
         <v>2.0</v>
@@ -7330,7 +7346,7 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J102" s="21">
         <v>0.0</v>
@@ -7347,13 +7363,13 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C103" s="21">
         <v>0.0</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E103" s="8">
         <v>2.0</v>
@@ -7368,7 +7384,7 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J103" s="21">
         <v>0.0</v>
@@ -7385,13 +7401,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C104" s="21">
         <v>0.0</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E104" s="8">
         <v>2.0</v>
@@ -7406,7 +7422,7 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J104" s="21">
         <v>0.0</v>
@@ -7423,13 +7439,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C105" s="21">
         <v>0.0</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E105" s="8">
         <v>2.0</v>
@@ -7444,7 +7460,7 @@
         <v>0.0</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J105" s="21">
         <v>0.0</v>
@@ -7461,13 +7477,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C106" s="21">
         <v>0.0</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E106" s="8">
         <v>2.0</v>
@@ -7482,7 +7498,7 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J106" s="21">
         <v>0.0</v>
@@ -7499,13 +7515,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C107" s="21">
         <v>0.0</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E107" s="8">
         <v>2.0</v>
@@ -7520,7 +7536,7 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J107" s="21">
         <v>0.0</v>
@@ -7537,13 +7553,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C108" s="21">
         <v>0.0</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E108" s="8">
         <v>2.0</v>
@@ -7558,7 +7574,7 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J108" s="21">
         <v>0.0</v>
@@ -7575,13 +7591,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C109" s="21">
         <v>0.0</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E109" s="8">
         <v>2.0</v>
@@ -7596,10 +7612,10 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K109" s="22">
         <v>163.0</v>
@@ -7613,13 +7629,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C110" s="21">
         <v>0.0</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E110" s="8">
         <v>2.0</v>
@@ -7634,7 +7650,7 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J110" s="21">
         <v>0.0</v>
@@ -7651,13 +7667,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C111" s="21">
         <v>0.0</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E111" s="8">
         <v>2.0</v>
@@ -7672,7 +7688,7 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J111" s="21">
         <v>0.0</v>
@@ -7689,13 +7705,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C112" s="21">
         <v>0.0</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E112" s="8">
         <v>2.0</v>
@@ -7710,7 +7726,7 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J112" s="21">
         <v>0.0</v>
@@ -7727,13 +7743,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C113" s="21">
         <v>0.0</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E113" s="8">
         <v>2.0</v>
@@ -7748,7 +7764,7 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J113" s="21">
         <v>0.0</v>
@@ -7765,13 +7781,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C114" s="21">
         <v>0.0</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E114" s="8">
         <v>2.0</v>
@@ -7786,7 +7802,7 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J114" s="21">
         <v>0.0</v>
@@ -7803,13 +7819,13 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C115" s="21">
         <v>0.0</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E115" s="8">
         <v>2.0</v>
@@ -7824,7 +7840,7 @@
         <v>0.0</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J115" s="21">
         <v>0.0</v>
@@ -7841,13 +7857,13 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C116" s="21">
         <v>0.0</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E116" s="8">
         <v>2.0</v>
@@ -7862,7 +7878,7 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J116" s="21">
         <v>0.0</v>
@@ -7879,13 +7895,13 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C117" s="21">
         <v>0.0</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E117" s="8">
         <v>2.0</v>
@@ -7900,7 +7916,7 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J117" s="21">
         <v>0.0</v>
@@ -7917,13 +7933,13 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C118" s="21">
         <v>0.0</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E118" s="8">
         <v>2.0</v>
@@ -7938,7 +7954,7 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J118" s="21">
         <v>0.0</v>
@@ -7955,13 +7971,13 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C119" s="21">
         <v>0.0</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E119" s="8">
         <v>2.0</v>
@@ -7976,7 +7992,7 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J119" s="21">
         <v>0.0</v>
@@ -7993,13 +8009,13 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C120" s="21">
         <v>0.0</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E120" s="8">
         <v>2.0</v>
@@ -8014,7 +8030,7 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J120" s="21">
         <v>0.0</v>
@@ -8031,13 +8047,13 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C121" s="21">
         <v>0.0</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E121" s="8">
         <v>2.0</v>
@@ -8052,7 +8068,7 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J121" s="21">
         <v>0.0</v>
@@ -8069,13 +8085,13 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C122" s="21">
         <v>0.0</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E122" s="8">
         <v>2.0</v>
@@ -8090,7 +8106,7 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="J122" s="21">
         <v>0.0</v>
@@ -8107,13 +8123,13 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C123" s="21">
         <v>0.0</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E123" s="8">
         <v>2.0</v>
@@ -8128,7 +8144,7 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J123" s="21">
         <v>0.0</v>
@@ -8145,13 +8161,13 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C124" s="21">
         <v>0.0</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E124" s="8">
         <v>2.0</v>
@@ -8166,7 +8182,7 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J124" s="21">
         <v>0.0</v>
@@ -8183,13 +8199,13 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C125" s="21">
         <v>0.0</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E125" s="8">
         <v>2.0</v>
@@ -8204,7 +8220,7 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J125" s="21">
         <v>0.0</v>
@@ -8221,13 +8237,13 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C126" s="21">
         <v>0.0</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E126" s="8">
         <v>2.0</v>
@@ -8242,7 +8258,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J126" s="21">
         <v>0.0</v>
@@ -8259,13 +8275,13 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C127" s="21">
         <v>0.0</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E127" s="8">
         <v>2.0</v>
@@ -8280,7 +8296,7 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J127" s="21">
         <v>0.0</v>
@@ -8297,13 +8313,13 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C128" s="21">
         <v>0.0</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E128" s="8">
         <v>2.0</v>
@@ -8318,7 +8334,7 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J128" s="21">
         <v>0.0</v>
@@ -8335,13 +8351,13 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C129" s="21">
         <v>0.0</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E129" s="8">
         <v>2.0</v>
@@ -8356,7 +8372,7 @@
         <v>0.0</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J129" s="21">
         <v>0.0</v>
@@ -8373,13 +8389,13 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C130" s="21">
         <v>0.0</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E130" s="8">
         <v>2.0</v>
@@ -8394,7 +8410,7 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J130" s="21">
         <v>0.0</v>
@@ -8411,13 +8427,13 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C131" s="21">
         <v>0.0</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E131" s="8">
         <v>2.0</v>
@@ -8432,7 +8448,7 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J131" s="21">
         <v>0.0</v>
@@ -8449,13 +8465,13 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C132" s="21">
         <v>0.0</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E132" s="8">
         <v>2.0</v>
@@ -8470,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J132" s="21">
         <v>0.0</v>
@@ -8487,13 +8503,13 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C133" s="23">
         <v>0.0</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E133" s="8">
         <v>2.0</v>
@@ -8508,7 +8524,7 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J133" s="21">
         <v>0.0</v>
@@ -8525,13 +8541,13 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C134" s="21">
         <v>0.0</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E134" s="8">
         <v>2.0</v>
@@ -8546,7 +8562,7 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J134" s="21">
         <v>0.0</v>
@@ -8563,13 +8579,13 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C135" s="21">
         <v>0.0</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E135" s="8">
         <v>2.0</v>
@@ -8584,7 +8600,7 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J135" s="21">
         <v>0.0</v>
@@ -8601,13 +8617,13 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C136" s="21">
         <v>0.0</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E136" s="8">
         <v>2.0</v>
@@ -8622,7 +8638,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J136" s="21">
         <v>0.0</v>
@@ -8639,13 +8655,13 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C137" s="21">
         <v>0.0</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E137" s="8">
         <v>2.0</v>
@@ -8660,7 +8676,7 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J137" s="21">
         <v>0.0</v>
@@ -8677,13 +8693,13 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C138" s="21">
         <v>0.0</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E138" s="8">
         <v>2.0</v>
@@ -8698,7 +8714,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J138" s="21">
         <v>0.0</v>
@@ -8715,13 +8731,13 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C139" s="21">
         <v>0.0</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E139" s="8">
         <v>2.0</v>
@@ -8736,7 +8752,7 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J139" s="21">
         <v>0.0</v>
@@ -8753,13 +8769,13 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C140" s="21">
         <v>0.0</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E140" s="8">
         <v>2.0</v>
@@ -8774,7 +8790,7 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J140" s="21">
         <v>0.0</v>
@@ -8791,13 +8807,13 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C141" s="21">
         <v>0.0</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E141" s="8">
         <v>2.0</v>
@@ -8812,7 +8828,7 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J141" s="21">
         <v>0.0</v>
@@ -8829,13 +8845,13 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C142" s="23">
         <v>0.0</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E142" s="8">
         <v>2.0</v>
@@ -8850,7 +8866,7 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="J142" s="21">
         <v>0.0</v>
@@ -8867,13 +8883,13 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C143" s="21">
         <v>0.0</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E143" s="8">
         <v>2.0</v>
@@ -8888,7 +8904,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J143" s="21">
         <v>0.0</v>
@@ -8905,13 +8921,13 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C144" s="21">
         <v>0.0</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E144" s="8">
         <v>2.0</v>
@@ -8926,7 +8942,7 @@
         <v>0.0</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J144" s="21">
         <v>0.0</v>
@@ -8943,13 +8959,13 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C145" s="21">
         <v>0.0</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E145" s="8">
         <v>2.0</v>
@@ -8964,7 +8980,7 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J145" s="21">
         <v>0.0</v>
@@ -8981,13 +8997,13 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C146" s="21">
         <v>0.0</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E146" s="8">
         <v>2.0</v>
@@ -9002,7 +9018,7 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J146" s="21">
         <v>0.0</v>
@@ -9019,13 +9035,13 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C147" s="21">
         <v>0.0</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E147" s="8">
         <v>2.0</v>
@@ -9040,7 +9056,7 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J147" s="21">
         <v>0.0</v>
@@ -9057,13 +9073,13 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C148" s="21">
         <v>0.0</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E148" s="8">
         <v>2.0</v>
@@ -9078,7 +9094,7 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J148" s="21">
         <v>0.0</v>
@@ -9095,13 +9111,13 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C149" s="21">
         <v>0.0</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E149" s="8">
         <v>2.0</v>
@@ -9116,10 +9132,10 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K149" s="22">
         <v>214.0</v>
@@ -9133,13 +9149,13 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C150" s="21">
         <v>0.0</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E150" s="8">
         <v>2.0</v>
@@ -9154,7 +9170,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J150" s="21">
         <v>0.0</v>
@@ -9171,13 +9187,13 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C151" s="21">
         <v>0.0</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E151" s="8">
         <v>2.0</v>
@@ -9192,7 +9208,7 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J151" s="21">
         <v>0.0</v>
@@ -9209,13 +9225,13 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C152" s="21">
         <v>0.0</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E152" s="8">
         <v>2.0</v>
@@ -9230,7 +9246,7 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J152" s="21">
         <v>0.0</v>
@@ -9247,13 +9263,13 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C153" s="21">
         <v>0.0</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E153" s="8">
         <v>2.0</v>
@@ -9268,7 +9284,7 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="J153" s="21">
         <v>0.0</v>
@@ -9285,13 +9301,13 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C154" s="21">
         <v>0.0</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E154" s="8">
         <v>2.0</v>
@@ -9306,7 +9322,7 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J154" s="21">
         <v>0.0</v>
@@ -9323,13 +9339,13 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C155" s="23">
         <v>0.0</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E155" s="8">
         <v>2.0</v>
@@ -9344,7 +9360,7 @@
         <v>0.0</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J155" s="21">
         <v>0.0</v>
@@ -9361,13 +9377,13 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C156" s="21">
         <v>0.0</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E156" s="8">
         <v>2.0</v>
@@ -9382,7 +9398,7 @@
         <v>0.0</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J156" s="21">
         <v>0.0</v>
@@ -9399,13 +9415,13 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C157" s="21">
         <v>0.0</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E157" s="8">
         <v>2.0</v>
@@ -9420,7 +9436,7 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J157" s="21">
         <v>0.0</v>
@@ -9437,13 +9453,13 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C158" s="21">
         <v>0.0</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E158" s="8">
         <v>2.0</v>
@@ -9458,7 +9474,7 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="J158" s="21">
         <v>0.0</v>
@@ -9475,13 +9491,13 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C159" s="8">
         <v>0.0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E159" s="8">
         <v>2.0</v>
@@ -9496,7 +9512,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J159" s="21">
         <v>0.0</v>
@@ -9513,13 +9529,13 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C160" s="25">
         <v>0.0</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E160" s="8">
         <v>2.0</v>
@@ -9534,10 +9550,10 @@
         <v>0.0</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K160" s="8">
         <v>199.0</v>
@@ -9551,13 +9567,13 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C161" s="25">
         <v>0.0</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E161" s="8">
         <v>2.0</v>
@@ -9572,10 +9588,10 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K161" s="8">
         <v>112.0</v>
@@ -9589,13 +9605,13 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C162" s="25">
         <v>0.0</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E162" s="8">
         <v>2.0</v>
@@ -9610,10 +9626,10 @@
         <v>0.0</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K162" s="8">
         <v>143.0</v>
@@ -9627,13 +9643,13 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C163" s="25">
         <v>0.0</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E163" s="8">
         <v>2.0</v>
@@ -9648,10 +9664,10 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K163" s="8">
         <v>146.0</v>
@@ -9665,13 +9681,13 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C164" s="25">
         <v>0.0</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E164" s="8">
         <v>2.0</v>
@@ -9686,7 +9702,7 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J164" s="8">
         <v>0.0</v>
@@ -9703,13 +9719,13 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C165" s="8">
         <v>0.0</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E165" s="8">
         <v>2.0</v>
@@ -9724,10 +9740,10 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K165" s="8">
         <v>201.0</v>
@@ -9741,13 +9757,13 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C166" s="8">
         <v>0.0</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E166" s="8">
         <v>2.0</v>
@@ -9762,10 +9778,10 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K166" s="8">
         <v>86.0</v>
@@ -9779,13 +9795,13 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C167" s="8">
         <v>0.0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E167" s="8">
         <v>2.0</v>
@@ -9800,10 +9816,10 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K167" s="8">
         <v>141.0</v>
@@ -9817,13 +9833,13 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C168" s="19">
         <v>0.0</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E168" s="8">
         <v>2.0</v>
@@ -9838,7 +9854,7 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J168" s="8">
         <v>0.0</v>
@@ -9855,13 +9871,13 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C169" s="8">
         <v>0.0</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E169" s="8">
         <v>2.0</v>
@@ -9876,10 +9892,10 @@
         <v>0.0</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K169" s="8">
         <v>81.0</v>
@@ -9893,13 +9909,13 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C170" s="8">
         <v>0.0</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E170" s="8">
         <v>2.0</v>
@@ -9914,7 +9930,7 @@
         <v>0.0</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J170" s="27">
         <v>35107.0</v>
@@ -9931,13 +9947,13 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C171" s="8">
         <v>0.0</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E171" s="8">
         <v>2.0</v>
@@ -9952,10 +9968,10 @@
         <v>0.0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K171" s="8">
         <v>139.0</v>
@@ -9969,13 +9985,13 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C172" s="8">
         <v>0.0</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E172" s="8">
         <v>2.0</v>
@@ -9990,10 +10006,10 @@
         <v>0.0</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K172" s="8">
         <v>194.0</v>
@@ -10007,13 +10023,13 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C173" s="8">
         <v>0.0</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E173" s="8">
         <v>2.0</v>
@@ -10028,10 +10044,10 @@
         <v>0.0</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K173" s="8">
         <v>83.0</v>
@@ -10045,13 +10061,13 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C174" s="25">
         <v>0.0</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E174" s="8">
         <v>2.0</v>
@@ -10066,7 +10082,7 @@
         <v>0.0</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J174" s="8">
         <v>0.0</v>
@@ -10083,13 +10099,13 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C175" s="8">
         <v>0.0</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E175" s="8">
         <v>2.0</v>
@@ -10104,10 +10120,10 @@
         <v>0.0</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K175" s="8">
         <v>197.0</v>
@@ -10121,13 +10137,13 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C176" s="8">
         <v>0.0</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E176" s="8">
         <v>2.0</v>
@@ -10142,10 +10158,10 @@
         <v>0.0</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K176" s="8">
         <v>226.0</v>
@@ -10159,13 +10175,13 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C177" s="8">
         <v>0.0</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E177" s="8">
         <v>2.0</v>
@@ -10180,10 +10196,10 @@
         <v>0.0</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K177" s="8">
         <v>225.0</v>
@@ -10197,13 +10213,13 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C178" s="8">
         <v>0.0</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E178" s="8">
         <v>2.0</v>
@@ -10218,10 +10234,10 @@
         <v>0.0</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K178" s="8">
         <v>111.0</v>
@@ -10235,13 +10251,13 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C179" s="25">
         <v>0.0</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E179" s="8">
         <v>2.0</v>
@@ -10256,10 +10272,10 @@
         <v>0.0</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K179" s="8">
         <v>145.0</v>
@@ -10273,13 +10289,13 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C180" s="25">
         <v>0.0</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E180" s="8">
         <v>2.0</v>
@@ -10294,7 +10310,7 @@
         <v>0.0</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="J180" s="8">
         <v>0.0</v>
@@ -10311,13 +10327,13 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C181" s="8">
         <v>0.0</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E181" s="8">
         <v>2.0</v>
@@ -10332,10 +10348,10 @@
         <v>0.0</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K181" s="8">
         <v>198.0</v>
@@ -10349,13 +10365,13 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C182" s="8">
         <v>0.0</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E182" s="8">
         <v>2.0</v>
@@ -10370,7 +10386,7 @@
         <v>0.0</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J182" s="8">
         <v>0.0</v>
@@ -10387,13 +10403,13 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C183" s="8">
         <v>0.0</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E183" s="8">
         <v>2.0</v>
@@ -10408,7 +10424,7 @@
         <v>0.0</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J183" s="8">
         <v>0.0</v>
@@ -10425,13 +10441,13 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C184" s="8">
         <v>0.0</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E184" s="8">
         <v>2.0</v>
@@ -10446,7 +10462,7 @@
         <v>0.0</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J184" s="8">
         <v>0.0</v>
@@ -10463,13 +10479,13 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C185" s="25">
         <v>0.0</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E185" s="8">
         <v>2.0</v>
@@ -10484,7 +10500,7 @@
         <v>0.0</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J185" s="8">
         <v>0.0</v>
@@ -10501,13 +10517,13 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C186" s="25">
         <v>0.0</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -10522,7 +10538,7 @@
         <v>0.0</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J186" s="8">
         <v>0.0</v>
@@ -10539,13 +10555,13 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -10560,7 +10576,7 @@
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="J187" s="8">
         <v>0.0</v>
@@ -10577,13 +10593,13 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -10598,7 +10614,7 @@
         <v>0.0</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="J188" s="8">
         <v>0.0</v>
@@ -10615,13 +10631,13 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -10636,7 +10652,7 @@
         <v>0.0</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="J189" s="8">
         <v>0.0</v>
@@ -10653,13 +10669,13 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C190" s="25">
         <v>0.0</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -10674,7 +10690,7 @@
         <v>0.0</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J190" s="8">
         <v>0.0</v>
@@ -10691,13 +10707,13 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C191" s="25">
         <v>0.0</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -10712,7 +10728,7 @@
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="J191" s="8">
         <v>0.0</v>
@@ -10729,13 +10745,13 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C192" s="25">
         <v>0.0</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -10750,7 +10766,7 @@
         <v>0.0</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J192" s="8">
         <v>0.0</v>

--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>35</v>

--- a/ExcelConverter/ExcelFiles/RecipeTable.xlsx
+++ b/ExcelConverter/ExcelFiles/RecipeTable.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Ex1fhSwvDBFAYEr/vjXnKIzQl5Ri8/LoeDp1VuWAFAw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="oWiRSS2idTK3LG3ybIvyEYT0V+pTyUeTP7+89o2Br+M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="618">
   <si>
     <t>테이블 용도: 레시피의 데이터를 관리및 설정하는 테이블</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>ComplexFood</t>
+  </si>
+  <si>
+    <t>FoodOutput</t>
   </si>
   <si>
     <t>int</t>
@@ -2481,6 +2484,9 @@
       </c>
       <c r="B24" s="15" t="s">
         <v>32</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1"/>
@@ -3487,13 +3493,12 @@
     <col customWidth="1" min="3" max="4" width="44.14"/>
     <col customWidth="1" min="5" max="5" width="10.43"/>
     <col customWidth="1" min="6" max="7" width="10.86"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="9" width="15.86"/>
-    <col customWidth="1" min="10" max="10" width="10.86"/>
-    <col customWidth="1" min="11" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="22" width="8.71"/>
-    <col customWidth="1" min="23" max="23" width="20.43"/>
-    <col customWidth="1" min="24" max="28" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="15.86"/>
+    <col customWidth="1" min="9" max="9" width="10.86"/>
+    <col customWidth="1" min="10" max="10" width="10.0"/>
+    <col customWidth="1" min="11" max="21" width="8.71"/>
+    <col customWidth="1" min="22" max="22" width="20.43"/>
+    <col customWidth="1" min="23" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -3518,56 +3523,50 @@
       <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>15</v>
+      <c r="H1" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -3575,13 +3574,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="8">
         <v>2.0</v>
@@ -3592,19 +3591,16 @@
       <c r="G3" s="8">
         <v>0.0</v>
       </c>
-      <c r="H3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>40</v>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.0</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="8">
         <v>38.0</v>
       </c>
-      <c r="L3" s="15">
+      <c r="K3" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3613,13 +3609,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8">
         <v>2.0</v>
@@ -3630,19 +3626,16 @@
       <c r="G4" s="8">
         <v>0.0</v>
       </c>
-      <c r="H4" s="8">
-        <v>0.0</v>
+      <c r="H4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="8">
+        <v>45</v>
+      </c>
+      <c r="J4" s="8">
         <v>65.0</v>
       </c>
-      <c r="L4" s="15">
+      <c r="K4" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -3651,13 +3644,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8">
         <v>2.0</v>
@@ -3668,19 +3661,16 @@
       <c r="G5" s="8">
         <v>0.0</v>
       </c>
-      <c r="H5" s="8">
-        <v>0.0</v>
+      <c r="H5" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="8">
+        <v>49</v>
+      </c>
+      <c r="J5" s="8">
         <v>26.0</v>
       </c>
-      <c r="L5" s="15">
+      <c r="K5" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3689,13 +3679,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8">
         <v>0.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8">
         <v>2.0</v>
@@ -3706,19 +3696,16 @@
       <c r="G6" s="8">
         <v>0.0</v>
       </c>
-      <c r="H6" s="8">
-        <v>0.0</v>
+      <c r="H6" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="8">
+        <v>53</v>
+      </c>
+      <c r="J6" s="8">
         <v>25.0</v>
       </c>
-      <c r="L6" s="15">
+      <c r="K6" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3727,13 +3714,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="8">
         <v>2.0</v>
@@ -3744,19 +3731,16 @@
       <c r="G7" s="8">
         <v>0.0</v>
       </c>
-      <c r="H7" s="8">
-        <v>0.0</v>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="8">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8">
         <v>39.0</v>
       </c>
-      <c r="L7" s="15">
+      <c r="K7" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3765,13 +3749,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8">
         <v>2.0</v>
@@ -3782,19 +3766,16 @@
       <c r="G8" s="8">
         <v>0.0</v>
       </c>
-      <c r="H8" s="8">
-        <v>0.0</v>
+      <c r="H8" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="8">
+        <v>61</v>
+      </c>
+      <c r="J8" s="8">
         <v>66.0</v>
       </c>
-      <c r="L8" s="15">
+      <c r="K8" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3803,13 +3784,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8">
         <v>0.0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="8">
         <v>2.0</v>
@@ -3820,19 +3801,16 @@
       <c r="G9" s="8">
         <v>0.0</v>
       </c>
-      <c r="H9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>63</v>
+      <c r="H9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="8">
         <v>84.0</v>
       </c>
-      <c r="L9" s="15">
+      <c r="K9" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -3841,13 +3819,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8">
         <v>1.0</v>
@@ -3859,18 +3837,15 @@
         <v>1002.0</v>
       </c>
       <c r="H10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="8">
         <v>42.0</v>
       </c>
-      <c r="I10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="K10" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3879,13 +3854,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="8">
         <v>1.0</v>
@@ -3897,18 +3872,15 @@
         <v>1002.0</v>
       </c>
       <c r="H11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8">
         <v>45.0</v>
       </c>
-      <c r="I11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="K11" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3917,13 +3889,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8">
         <v>1.0</v>
@@ -3935,18 +3907,15 @@
         <v>1002.0</v>
       </c>
       <c r="H12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="8">
         <v>57.0</v>
       </c>
-      <c r="I12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="K12" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3955,13 +3924,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8">
         <v>1.0</v>
@@ -3973,18 +3942,15 @@
         <v>1002.0</v>
       </c>
       <c r="H13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="8">
         <v>63.0</v>
       </c>
-      <c r="I13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="K13" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -3993,13 +3959,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="8">
         <v>1.0</v>
@@ -4011,18 +3977,15 @@
         <v>1002.0</v>
       </c>
       <c r="H14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="8">
         <v>40.0</v>
       </c>
-      <c r="I14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="K14" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4031,13 +3994,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" s="8">
         <v>1.0</v>
@@ -4049,18 +4012,15 @@
         <v>1002.0</v>
       </c>
       <c r="H15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="8">
         <v>44.0</v>
       </c>
-      <c r="I15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="K15" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4069,13 +4029,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="8">
         <v>1.0</v>
@@ -4087,18 +4047,15 @@
         <v>1002.0</v>
       </c>
       <c r="H16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8">
         <v>62.0</v>
       </c>
-      <c r="I16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="K16" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4107,13 +4064,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8">
         <v>1.0</v>
@@ -4125,18 +4082,15 @@
         <v>1007.0</v>
       </c>
       <c r="H17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="8">
         <v>28.0</v>
       </c>
-      <c r="I17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="K17" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4145,13 +4099,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="8">
         <v>2.0</v>
@@ -4162,19 +4116,16 @@
       <c r="G18" s="8">
         <v>0.0</v>
       </c>
-      <c r="H18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>82</v>
+      <c r="H18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.0</v>
       </c>
       <c r="J18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="8">
         <v>51.0</v>
       </c>
-      <c r="L18" s="15">
+      <c r="K18" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4183,13 +4134,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="8">
         <v>0.0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8">
         <v>2.0</v>
@@ -4200,19 +4151,16 @@
       <c r="G19" s="8">
         <v>0.0</v>
       </c>
-      <c r="H19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="H19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="8">
+      <c r="I19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="8">
         <v>82.0</v>
       </c>
-      <c r="L19" s="15">
+      <c r="K19" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4221,13 +4169,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" s="8">
         <v>2.0</v>
@@ -4238,19 +4186,16 @@
       <c r="G20" s="8">
         <v>0.0</v>
       </c>
-      <c r="H20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="H20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="8">
+      <c r="I20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="8">
         <v>200.0</v>
       </c>
-      <c r="L20" s="15">
+      <c r="K20" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4259,13 +4204,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" s="8">
         <v>2.0</v>
@@ -4276,19 +4221,16 @@
       <c r="G21" s="8">
         <v>0.0</v>
       </c>
-      <c r="H21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="H21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="8">
+      <c r="I21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="8">
         <v>85.0</v>
       </c>
-      <c r="L21" s="15">
+      <c r="K21" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4297,13 +4239,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="8">
         <v>0.0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="8">
         <v>2.0</v>
@@ -4314,19 +4256,16 @@
       <c r="G22" s="8">
         <v>0.0</v>
       </c>
-      <c r="H22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="H22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="8">
+      <c r="I22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="8">
         <v>140.0</v>
       </c>
-      <c r="L22" s="15">
+      <c r="K22" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4335,13 +4274,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="8">
         <v>2.0</v>
@@ -4352,19 +4291,16 @@
       <c r="G23" s="8">
         <v>0.0</v>
       </c>
-      <c r="H23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="17" t="s">
+      <c r="H23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="8">
+      <c r="I23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="8">
         <v>87.0</v>
       </c>
-      <c r="L23" s="15">
+      <c r="K23" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -4373,13 +4309,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8">
         <v>0.0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="8">
         <v>2.0</v>
@@ -4390,19 +4326,16 @@
       <c r="G24" s="8">
         <v>0.0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>105</v>
+      <c r="H24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.0</v>
       </c>
       <c r="J24" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="8">
         <v>32.0</v>
       </c>
-      <c r="L24" s="15">
+      <c r="K24" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4411,13 +4344,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" s="8">
         <v>2.0</v>
@@ -4428,19 +4361,16 @@
       <c r="G25" s="8">
         <v>0.0</v>
       </c>
-      <c r="H25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>108</v>
+      <c r="H25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.0</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="8">
         <v>33.0</v>
       </c>
-      <c r="L25" s="15">
+      <c r="K25" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4449,13 +4379,13 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="8">
         <v>2.0</v>
@@ -4466,19 +4396,16 @@
       <c r="G26" s="8">
         <v>0.0</v>
       </c>
-      <c r="H26" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>111</v>
+      <c r="H26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.0</v>
       </c>
       <c r="J26" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="8">
         <v>34.0</v>
       </c>
-      <c r="L26" s="15">
+      <c r="K26" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4487,13 +4414,13 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="8">
         <v>0.0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" s="8">
         <v>2.0</v>
@@ -4504,19 +4431,16 @@
       <c r="G27" s="8">
         <v>0.0</v>
       </c>
-      <c r="H27" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>105</v>
+      <c r="H27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.0</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="8">
         <v>46.0</v>
       </c>
-      <c r="L27" s="15">
+      <c r="K27" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4525,13 +4449,13 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" s="8">
         <v>0.0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28" s="8">
         <v>2.0</v>
@@ -4542,19 +4466,16 @@
       <c r="G28" s="8">
         <v>0.0</v>
       </c>
-      <c r="H28" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>116</v>
+      <c r="H28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.0</v>
       </c>
       <c r="J28" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="8">
         <v>47.0</v>
       </c>
-      <c r="L28" s="15">
+      <c r="K28" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4563,13 +4484,13 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="8">
         <v>0.0</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" s="8">
         <v>2.0</v>
@@ -4580,19 +4501,16 @@
       <c r="G29" s="8">
         <v>0.0</v>
       </c>
-      <c r="H29" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>119</v>
+      <c r="H29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.0</v>
       </c>
       <c r="J29" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="8">
         <v>48.0</v>
       </c>
-      <c r="L29" s="15">
+      <c r="K29" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4601,13 +4519,13 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="8">
         <v>0.0</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E30" s="8">
         <v>2.0</v>
@@ -4618,19 +4536,16 @@
       <c r="G30" s="8">
         <v>0.0</v>
       </c>
-      <c r="H30" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>122</v>
+      <c r="H30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.0</v>
       </c>
       <c r="J30" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="8">
         <v>49.0</v>
       </c>
-      <c r="L30" s="15">
+      <c r="K30" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4639,13 +4554,13 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="8">
         <v>0.0</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="8">
         <v>2.0</v>
@@ -4656,19 +4571,16 @@
       <c r="G31" s="8">
         <v>0.0</v>
       </c>
-      <c r="H31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>111</v>
+      <c r="H31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.0</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K31" s="8">
         <v>50.0</v>
       </c>
-      <c r="L31" s="15">
+      <c r="K31" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4677,13 +4589,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="8">
         <v>0.0</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" s="8">
         <v>2.0</v>
@@ -4694,19 +4606,16 @@
       <c r="G32" s="8">
         <v>0.0</v>
       </c>
-      <c r="H32" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>127</v>
+      <c r="H32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.0</v>
       </c>
       <c r="J32" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="8">
         <v>52.0</v>
       </c>
-      <c r="L32" s="15">
+      <c r="K32" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4715,13 +4624,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="8">
         <v>0.0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="8">
         <v>2.0</v>
@@ -4732,19 +4641,16 @@
       <c r="G33" s="8">
         <v>0.0</v>
       </c>
-      <c r="H33" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>130</v>
+      <c r="H33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0.0</v>
       </c>
       <c r="J33" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="8">
         <v>53.0</v>
       </c>
-      <c r="L33" s="15">
+      <c r="K33" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4753,13 +4659,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="8">
         <v>0.0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" s="8">
         <v>2.0</v>
@@ -4770,19 +4676,16 @@
       <c r="G34" s="8">
         <v>0.0</v>
       </c>
-      <c r="H34" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>133</v>
+      <c r="H34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.0</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="8">
         <v>54.0</v>
       </c>
-      <c r="L34" s="15">
+      <c r="K34" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4791,13 +4694,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="8">
         <v>0.0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="8">
         <v>2.0</v>
@@ -4808,19 +4711,16 @@
       <c r="G35" s="8">
         <v>0.0</v>
       </c>
-      <c r="H35" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>136</v>
+      <c r="H35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.0</v>
       </c>
       <c r="J35" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="8">
         <v>55.0</v>
       </c>
-      <c r="L35" s="15">
+      <c r="K35" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4829,13 +4729,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" s="8">
         <v>0.0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="8">
         <v>2.0</v>
@@ -4846,19 +4746,16 @@
       <c r="G36" s="8">
         <v>0.0</v>
       </c>
-      <c r="H36" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>108</v>
+      <c r="H36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.0</v>
       </c>
       <c r="J36" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K36" s="8">
         <v>56.0</v>
       </c>
-      <c r="L36" s="15">
+      <c r="K36" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4867,13 +4764,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37" s="8">
         <v>0.0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E37" s="8">
         <v>2.0</v>
@@ -4884,19 +4781,16 @@
       <c r="G37" s="8">
         <v>0.0</v>
       </c>
-      <c r="H37" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>141</v>
+      <c r="H37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.0</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="8">
         <v>58.0</v>
       </c>
-      <c r="L37" s="15">
+      <c r="K37" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4905,13 +4799,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="8">
         <v>0.0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E38" s="8">
         <v>2.0</v>
@@ -4922,19 +4816,16 @@
       <c r="G38" s="8">
         <v>0.0</v>
       </c>
-      <c r="H38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>144</v>
+      <c r="H38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.0</v>
       </c>
       <c r="J38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K38" s="8">
         <v>59.0</v>
       </c>
-      <c r="L38" s="15">
+      <c r="K38" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4943,13 +4834,13 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="8">
         <v>0.0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" s="8">
         <v>2.0</v>
@@ -4960,19 +4851,16 @@
       <c r="G39" s="8">
         <v>0.0</v>
       </c>
-      <c r="H39" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>147</v>
+      <c r="H39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.0</v>
       </c>
       <c r="J39" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K39" s="8">
         <v>60.0</v>
       </c>
-      <c r="L39" s="15">
+      <c r="K39" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -4981,13 +4869,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" s="8">
         <v>0.0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" s="8">
         <v>2.0</v>
@@ -4998,19 +4886,16 @@
       <c r="G40" s="8">
         <v>0.0</v>
       </c>
-      <c r="H40" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>150</v>
+      <c r="H40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.0</v>
       </c>
       <c r="J40" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K40" s="8">
         <v>61.0</v>
       </c>
-      <c r="L40" s="15">
+      <c r="K40" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5019,13 +4904,13 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C41" s="8">
         <v>0.0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" s="8">
         <v>2.0</v>
@@ -5036,19 +4921,16 @@
       <c r="G41" s="8">
         <v>0.0</v>
       </c>
-      <c r="H41" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>153</v>
+      <c r="H41" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.0</v>
       </c>
       <c r="J41" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="8">
         <v>72.0</v>
       </c>
-      <c r="L41" s="15">
+      <c r="K41" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5057,13 +4939,13 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C42" s="8">
         <v>0.0</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E42" s="8">
         <v>2.0</v>
@@ -5074,19 +4956,16 @@
       <c r="G42" s="8">
         <v>0.0</v>
       </c>
-      <c r="H42" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>156</v>
+      <c r="H42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0.0</v>
       </c>
       <c r="J42" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K42" s="8">
         <v>73.0</v>
       </c>
-      <c r="L42" s="15">
+      <c r="K42" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5095,13 +4974,13 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="8">
         <v>0.0</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E43" s="8">
         <v>2.0</v>
@@ -5112,19 +4991,16 @@
       <c r="G43" s="8">
         <v>0.0</v>
       </c>
-      <c r="H43" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>159</v>
+      <c r="H43" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.0</v>
       </c>
       <c r="J43" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="8">
         <v>74.0</v>
       </c>
-      <c r="L43" s="15">
+      <c r="K43" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5133,13 +5009,13 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="8">
         <v>0.0</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" s="8">
         <v>2.0</v>
@@ -5150,19 +5026,16 @@
       <c r="G44" s="8">
         <v>0.0</v>
       </c>
-      <c r="H44" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>162</v>
+      <c r="H44" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.0</v>
       </c>
       <c r="J44" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K44" s="8">
         <v>75.0</v>
       </c>
-      <c r="L44" s="15">
+      <c r="K44" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5171,13 +5044,13 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="8">
         <v>0.0</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E45" s="8">
         <v>2.0</v>
@@ -5188,19 +5061,16 @@
       <c r="G45" s="8">
         <v>0.0</v>
       </c>
-      <c r="H45" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>165</v>
+      <c r="H45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.0</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K45" s="8">
         <v>76.0</v>
       </c>
-      <c r="L45" s="15">
+      <c r="K45" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5209,13 +5079,13 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C46" s="8">
         <v>0.0</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E46" s="8">
         <v>2.0</v>
@@ -5226,19 +5096,16 @@
       <c r="G46" s="8">
         <v>0.0</v>
       </c>
-      <c r="H46" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>168</v>
+      <c r="H46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.0</v>
       </c>
       <c r="J46" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K46" s="8">
         <v>77.0</v>
       </c>
-      <c r="L46" s="15">
+      <c r="K46" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5247,13 +5114,13 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" s="8">
         <v>0.0</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E47" s="8">
         <v>2.0</v>
@@ -5264,19 +5131,16 @@
       <c r="G47" s="8">
         <v>0.0</v>
       </c>
-      <c r="H47" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>171</v>
+      <c r="H47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.0</v>
       </c>
       <c r="J47" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="8">
         <v>78.0</v>
       </c>
-      <c r="L47" s="15">
+      <c r="K47" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5285,13 +5149,13 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48" s="8">
         <v>0.0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E48" s="8">
         <v>2.0</v>
@@ -5302,19 +5166,16 @@
       <c r="G48" s="8">
         <v>0.0</v>
       </c>
-      <c r="H48" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>174</v>
+      <c r="H48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.0</v>
       </c>
       <c r="J48" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K48" s="8">
         <v>79.0</v>
       </c>
-      <c r="L48" s="15">
+      <c r="K48" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5323,13 +5184,13 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" s="19">
         <v>0.0</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E49" s="8">
         <v>2.0</v>
@@ -5340,19 +5201,16 @@
       <c r="G49" s="8">
         <v>0.0</v>
       </c>
-      <c r="H49" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>177</v>
+      <c r="H49" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.0</v>
       </c>
       <c r="J49" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K49" s="8">
         <v>80.0</v>
       </c>
-      <c r="L49" s="15">
+      <c r="K49" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5361,13 +5219,13 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="8">
         <v>0.0</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E50" s="8">
         <v>2.0</v>
@@ -5378,19 +5236,16 @@
       <c r="G50" s="8">
         <v>0.0</v>
       </c>
-      <c r="H50" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>180</v>
+      <c r="H50" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.0</v>
       </c>
       <c r="J50" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K50" s="8">
         <v>88.0</v>
       </c>
-      <c r="L50" s="15">
+      <c r="K50" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5399,13 +5254,13 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="8">
         <v>0.0</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E51" s="8">
         <v>2.0</v>
@@ -5416,19 +5271,16 @@
       <c r="G51" s="8">
         <v>0.0</v>
       </c>
-      <c r="H51" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>183</v>
+      <c r="H51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.0</v>
       </c>
       <c r="J51" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="8">
         <v>89.0</v>
       </c>
-      <c r="L51" s="15">
+      <c r="K51" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5437,13 +5289,13 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C52" s="8">
         <v>0.0</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E52" s="8">
         <v>2.0</v>
@@ -5454,19 +5306,16 @@
       <c r="G52" s="8">
         <v>0.0</v>
       </c>
-      <c r="H52" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>186</v>
+      <c r="H52" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.0</v>
       </c>
       <c r="J52" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K52" s="8">
         <v>90.0</v>
       </c>
-      <c r="L52" s="15">
+      <c r="K52" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5475,13 +5324,13 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" s="8">
         <v>0.0</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E53" s="8">
         <v>2.0</v>
@@ -5492,19 +5341,16 @@
       <c r="G53" s="8">
         <v>0.0</v>
       </c>
-      <c r="H53" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>189</v>
+      <c r="H53" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.0</v>
       </c>
       <c r="J53" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K53" s="8">
         <v>91.0</v>
       </c>
-      <c r="L53" s="15">
+      <c r="K53" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5513,13 +5359,13 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8">
         <v>0.0</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" s="8">
         <v>2.0</v>
@@ -5530,19 +5376,16 @@
       <c r="G54" s="8">
         <v>0.0</v>
       </c>
-      <c r="H54" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>108</v>
+      <c r="H54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.0</v>
       </c>
       <c r="J54" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K54" s="8">
         <v>92.0</v>
       </c>
-      <c r="L54" s="15">
+      <c r="K54" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5551,13 +5394,13 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" s="8">
         <v>0.0</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E55" s="8">
         <v>2.0</v>
@@ -5568,19 +5411,16 @@
       <c r="G55" s="8">
         <v>0.0</v>
       </c>
-      <c r="H55" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>192</v>
+      <c r="H55" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.0</v>
       </c>
       <c r="J55" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K55" s="8">
         <v>93.0</v>
       </c>
-      <c r="L55" s="15">
+      <c r="K55" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5589,13 +5429,13 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" s="8">
         <v>0.0</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E56" s="8">
         <v>2.0</v>
@@ -5606,19 +5446,16 @@
       <c r="G56" s="8">
         <v>0.0</v>
       </c>
-      <c r="H56" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>195</v>
+      <c r="H56" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.0</v>
       </c>
       <c r="J56" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="8">
         <v>94.0</v>
       </c>
-      <c r="L56" s="15">
+      <c r="K56" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5627,13 +5464,13 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C57" s="8">
         <v>0.0</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E57" s="8">
         <v>2.0</v>
@@ -5644,19 +5481,16 @@
       <c r="G57" s="8">
         <v>0.0</v>
       </c>
-      <c r="H57" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>116</v>
+      <c r="H57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.0</v>
       </c>
       <c r="J57" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K57" s="8">
         <v>95.0</v>
       </c>
-      <c r="L57" s="15">
+      <c r="K57" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5665,13 +5499,13 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C58" s="8">
         <v>0.0</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E58" s="8">
         <v>2.0</v>
@@ -5682,19 +5516,16 @@
       <c r="G58" s="8">
         <v>0.0</v>
       </c>
-      <c r="H58" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>200</v>
+      <c r="H58" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0.0</v>
       </c>
       <c r="J58" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K58" s="8">
         <v>96.0</v>
       </c>
-      <c r="L58" s="15">
+      <c r="K58" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5703,13 +5534,13 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C59" s="8">
         <v>0.0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E59" s="8">
         <v>2.0</v>
@@ -5720,19 +5551,16 @@
       <c r="G59" s="8">
         <v>0.0</v>
       </c>
-      <c r="H59" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>203</v>
+      <c r="H59" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.0</v>
       </c>
       <c r="J59" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K59" s="8">
         <v>97.0</v>
       </c>
-      <c r="L59" s="15">
+      <c r="K59" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5741,13 +5569,13 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C60" s="8">
         <v>0.0</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E60" s="8">
         <v>2.0</v>
@@ -5758,19 +5586,16 @@
       <c r="G60" s="8">
         <v>0.0</v>
       </c>
-      <c r="H60" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>206</v>
+      <c r="H60" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.0</v>
       </c>
       <c r="J60" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="8">
         <v>98.0</v>
       </c>
-      <c r="L60" s="15">
+      <c r="K60" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5779,13 +5604,13 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C61" s="8">
         <v>0.0</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E61" s="8">
         <v>2.0</v>
@@ -5796,19 +5621,16 @@
       <c r="G61" s="8">
         <v>0.0</v>
       </c>
-      <c r="H61" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>209</v>
+      <c r="H61" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.0</v>
       </c>
       <c r="J61" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="8">
         <v>99.0</v>
       </c>
-      <c r="L61" s="15">
+      <c r="K61" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5817,13 +5639,13 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" s="8">
         <v>0.0</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" s="8">
         <v>2.0</v>
@@ -5834,19 +5656,16 @@
       <c r="G62" s="8">
         <v>0.0</v>
       </c>
-      <c r="H62" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>212</v>
+      <c r="H62" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.0</v>
       </c>
       <c r="J62" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="8">
         <v>100.0</v>
       </c>
-      <c r="L62" s="15">
+      <c r="K62" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5855,13 +5674,13 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C63" s="8">
         <v>0.0</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E63" s="8">
         <v>2.0</v>
@@ -5872,19 +5691,16 @@
       <c r="G63" s="8">
         <v>0.0</v>
       </c>
-      <c r="H63" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>215</v>
+      <c r="H63" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.0</v>
       </c>
       <c r="J63" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K63" s="8">
         <v>101.0</v>
       </c>
-      <c r="L63" s="15">
+      <c r="K63" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5893,13 +5709,13 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="8">
         <v>0.0</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E64" s="8">
         <v>2.0</v>
@@ -5910,19 +5726,16 @@
       <c r="G64" s="8">
         <v>0.0</v>
       </c>
-      <c r="H64" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>218</v>
+      <c r="H64" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.0</v>
       </c>
       <c r="J64" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="8">
         <v>102.0</v>
       </c>
-      <c r="L64" s="15">
+      <c r="K64" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5931,13 +5744,13 @@
         <v>63.0</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" s="8">
         <v>0.0</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E65" s="8">
         <v>2.0</v>
@@ -5948,19 +5761,16 @@
       <c r="G65" s="8">
         <v>0.0</v>
       </c>
-      <c r="H65" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>221</v>
+      <c r="H65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.0</v>
       </c>
       <c r="J65" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K65" s="8">
         <v>103.0</v>
       </c>
-      <c r="L65" s="15">
+      <c r="K65" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -5969,13 +5779,13 @@
         <v>64.0</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C66" s="8">
         <v>0.0</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E66" s="8">
         <v>2.0</v>
@@ -5986,19 +5796,16 @@
       <c r="G66" s="8">
         <v>0.0</v>
       </c>
-      <c r="H66" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>224</v>
+      <c r="H66" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.0</v>
       </c>
       <c r="J66" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K66" s="8">
         <v>104.0</v>
       </c>
-      <c r="L66" s="15">
+      <c r="K66" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6007,13 +5814,13 @@
         <v>65.0</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C67" s="8">
         <v>0.0</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E67" s="8">
         <v>2.0</v>
@@ -6024,19 +5831,16 @@
       <c r="G67" s="8">
         <v>0.0</v>
       </c>
-      <c r="H67" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>227</v>
+      <c r="H67" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0.0</v>
       </c>
       <c r="J67" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K67" s="8">
         <v>105.0</v>
       </c>
-      <c r="L67" s="15">
+      <c r="K67" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6045,13 +5849,13 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" s="8">
         <v>0.0</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E68" s="8">
         <v>2.0</v>
@@ -6062,19 +5866,16 @@
       <c r="G68" s="8">
         <v>0.0</v>
       </c>
-      <c r="H68" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>230</v>
+      <c r="H68" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0.0</v>
       </c>
       <c r="J68" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K68" s="8">
         <v>106.0</v>
       </c>
-      <c r="L68" s="15">
+      <c r="K68" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6083,13 +5884,13 @@
         <v>67.0</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C69" s="19">
         <v>0.0</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E69" s="8">
         <v>2.0</v>
@@ -6100,19 +5901,16 @@
       <c r="G69" s="8">
         <v>0.0</v>
       </c>
-      <c r="H69" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>233</v>
+      <c r="H69" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0.0</v>
       </c>
       <c r="J69" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K69" s="8">
         <v>114.0</v>
       </c>
-      <c r="L69" s="15">
+      <c r="K69" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6121,13 +5919,13 @@
         <v>68.0</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C70" s="8">
         <v>0.0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E70" s="8">
         <v>2.0</v>
@@ -6138,19 +5936,16 @@
       <c r="G70" s="8">
         <v>0.0</v>
       </c>
-      <c r="H70" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>236</v>
+      <c r="H70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0.0</v>
       </c>
       <c r="J70" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="8">
         <v>115.0</v>
       </c>
-      <c r="L70" s="15">
+      <c r="K70" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6159,13 +5954,13 @@
         <v>69.0</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C71" s="8">
         <v>0.0</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E71" s="8">
         <v>2.0</v>
@@ -6176,19 +5971,16 @@
       <c r="G71" s="8">
         <v>0.0</v>
       </c>
-      <c r="H71" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>239</v>
+      <c r="H71" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0.0</v>
       </c>
       <c r="J71" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K71" s="8">
         <v>116.0</v>
       </c>
-      <c r="L71" s="15">
+      <c r="K71" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6197,13 +5989,13 @@
         <v>70.0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C72" s="8">
         <v>0.0</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E72" s="8">
         <v>2.0</v>
@@ -6214,19 +6006,16 @@
       <c r="G72" s="8">
         <v>0.0</v>
       </c>
-      <c r="H72" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>242</v>
+      <c r="H72" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0.0</v>
       </c>
       <c r="J72" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K72" s="8">
         <v>117.0</v>
       </c>
-      <c r="L72" s="15">
+      <c r="K72" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6235,13 +6024,13 @@
         <v>71.0</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" s="8">
         <v>0.0</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E73" s="8">
         <v>2.0</v>
@@ -6252,19 +6041,16 @@
       <c r="G73" s="8">
         <v>0.0</v>
       </c>
-      <c r="H73" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>245</v>
+      <c r="H73" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0.0</v>
       </c>
       <c r="J73" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K73" s="8">
         <v>118.0</v>
       </c>
-      <c r="L73" s="15">
+      <c r="K73" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6273,13 +6059,13 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C74" s="8">
         <v>0.0</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E74" s="8">
         <v>2.0</v>
@@ -6290,19 +6076,16 @@
       <c r="G74" s="8">
         <v>0.0</v>
       </c>
-      <c r="H74" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>248</v>
+      <c r="H74" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0.0</v>
       </c>
       <c r="J74" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K74" s="8">
         <v>119.0</v>
       </c>
-      <c r="L74" s="15">
+      <c r="K74" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6311,13 +6094,13 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C75" s="8">
         <v>0.0</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E75" s="8">
         <v>2.0</v>
@@ -6328,19 +6111,16 @@
       <c r="G75" s="8">
         <v>0.0</v>
       </c>
-      <c r="H75" s="8">
-        <v>0.0</v>
+      <c r="H75" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K75" s="8">
+        <v>253</v>
+      </c>
+      <c r="J75" s="8">
         <v>120.0</v>
       </c>
-      <c r="L75" s="15">
+      <c r="K75" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6349,13 +6129,13 @@
         <v>74.0</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C76" s="8">
         <v>0.0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E76" s="8">
         <v>2.0</v>
@@ -6366,19 +6146,16 @@
       <c r="G76" s="8">
         <v>0.0</v>
       </c>
-      <c r="H76" s="8">
-        <v>0.0</v>
+      <c r="H76" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="K76" s="8">
+        <v>257</v>
+      </c>
+      <c r="J76" s="8">
         <v>121.0</v>
       </c>
-      <c r="L76" s="15">
+      <c r="K76" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6387,13 +6164,13 @@
         <v>75.0</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C77" s="8">
         <v>0.0</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E77" s="8">
         <v>2.0</v>
@@ -6404,19 +6181,16 @@
       <c r="G77" s="8">
         <v>0.0</v>
       </c>
-      <c r="H77" s="8">
-        <v>0.0</v>
+      <c r="H77" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="K77" s="8">
+        <v>261</v>
+      </c>
+      <c r="J77" s="8">
         <v>122.0</v>
       </c>
-      <c r="L77" s="15">
+      <c r="K77" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6425,13 +6199,13 @@
         <v>76.0</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C78" s="8">
         <v>0.0</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E78" s="8">
         <v>2.0</v>
@@ -6442,19 +6216,16 @@
       <c r="G78" s="8">
         <v>0.0</v>
       </c>
-      <c r="H78" s="8">
-        <v>0.0</v>
+      <c r="H78" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K78" s="8">
+        <v>265</v>
+      </c>
+      <c r="J78" s="8">
         <v>123.0</v>
       </c>
-      <c r="L78" s="15">
+      <c r="K78" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6463,13 +6234,13 @@
         <v>77.0</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C79" s="8">
         <v>0.0</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E79" s="8">
         <v>2.0</v>
@@ -6480,19 +6251,16 @@
       <c r="G79" s="8">
         <v>0.0</v>
       </c>
-      <c r="H79" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>267</v>
+      <c r="H79" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0.0</v>
       </c>
       <c r="J79" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K79" s="8">
         <v>124.0</v>
       </c>
-      <c r="L79" s="15">
+      <c r="K79" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6501,13 +6269,13 @@
         <v>78.0</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C80" s="8">
         <v>0.0</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E80" s="8">
         <v>2.0</v>
@@ -6518,19 +6286,16 @@
       <c r="G80" s="8">
         <v>0.0</v>
       </c>
-      <c r="H80" s="8">
-        <v>0.0</v>
+      <c r="H80" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K80" s="8">
+        <v>272</v>
+      </c>
+      <c r="J80" s="8">
         <v>125.0</v>
       </c>
-      <c r="L80" s="15">
+      <c r="K80" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6539,13 +6304,13 @@
         <v>79.0</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" s="8">
         <v>0.0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E81" s="8">
         <v>2.0</v>
@@ -6556,19 +6321,16 @@
       <c r="G81" s="8">
         <v>0.0</v>
       </c>
-      <c r="H81" s="8">
-        <v>0.0</v>
+      <c r="H81" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K81" s="8">
+        <v>276</v>
+      </c>
+      <c r="J81" s="8">
         <v>126.0</v>
       </c>
-      <c r="L81" s="15">
+      <c r="K81" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6577,13 +6339,13 @@
         <v>80.0</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C82" s="8">
         <v>0.0</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E82" s="8">
         <v>2.0</v>
@@ -6594,19 +6356,16 @@
       <c r="G82" s="8">
         <v>0.0</v>
       </c>
-      <c r="H82" s="8">
-        <v>0.0</v>
+      <c r="H82" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K82" s="8">
+        <v>280</v>
+      </c>
+      <c r="J82" s="8">
         <v>127.0</v>
       </c>
-      <c r="L82" s="15">
+      <c r="K82" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6615,13 +6374,13 @@
         <v>81.0</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C83" s="21">
         <v>0.0</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E83" s="8">
         <v>2.0</v>
@@ -6632,19 +6391,16 @@
       <c r="G83" s="8">
         <v>0.0</v>
       </c>
-      <c r="H83" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="J83" s="21" t="s">
+      <c r="H83" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="K83" s="22">
+      <c r="I83" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J83" s="22">
         <v>128.0</v>
       </c>
-      <c r="L83" s="15">
+      <c r="K83" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6653,13 +6409,13 @@
         <v>82.0</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C84" s="21">
         <v>0.0</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E84" s="8">
         <v>2.0</v>
@@ -6670,19 +6426,16 @@
       <c r="G84" s="8">
         <v>0.0</v>
       </c>
-      <c r="H84" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J84" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K84" s="22">
+      <c r="H84" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I84" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="22">
         <v>129.0</v>
       </c>
-      <c r="L84" s="15">
+      <c r="K84" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6691,13 +6444,13 @@
         <v>83.0</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C85" s="21">
         <v>0.0</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E85" s="8">
         <v>2.0</v>
@@ -6708,19 +6461,16 @@
       <c r="G85" s="8">
         <v>0.0</v>
       </c>
-      <c r="H85" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="J85" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K85" s="22">
+      <c r="H85" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I85" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="22">
         <v>130.0</v>
       </c>
-      <c r="L85" s="15">
+      <c r="K85" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6729,13 +6479,13 @@
         <v>84.0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C86" s="21">
         <v>0.0</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E86" s="8">
         <v>2.0</v>
@@ -6746,19 +6496,16 @@
       <c r="G86" s="8">
         <v>0.0</v>
       </c>
-      <c r="H86" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J86" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K86" s="22">
+      <c r="H86" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I86" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="22">
         <v>131.0</v>
       </c>
-      <c r="L86" s="15">
+      <c r="K86" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6767,13 +6514,13 @@
         <v>85.0</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C87" s="21">
         <v>0.0</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E87" s="8">
         <v>2.0</v>
@@ -6784,19 +6531,16 @@
       <c r="G87" s="8">
         <v>0.0</v>
       </c>
-      <c r="H87" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="J87" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K87" s="22">
+      <c r="H87" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I87" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="22">
         <v>132.0</v>
       </c>
-      <c r="L87" s="15">
+      <c r="K87" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6805,13 +6549,13 @@
         <v>86.0</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C88" s="23">
         <v>0.0</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E88" s="8">
         <v>2.0</v>
@@ -6822,19 +6566,16 @@
       <c r="G88" s="8">
         <v>0.0</v>
       </c>
-      <c r="H88" s="8">
-        <v>0.0</v>
+      <c r="H88" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="K88" s="22">
+        <v>300</v>
+      </c>
+      <c r="J88" s="22">
         <v>133.0</v>
       </c>
-      <c r="L88" s="15">
+      <c r="K88" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6843,13 +6584,13 @@
         <v>87.0</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C89" s="21">
         <v>0.0</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E89" s="8">
         <v>2.0</v>
@@ -6860,19 +6601,16 @@
       <c r="G89" s="8">
         <v>0.0</v>
       </c>
-      <c r="H89" s="8">
-        <v>0.0</v>
+      <c r="H89" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="K89" s="22">
+        <v>304</v>
+      </c>
+      <c r="J89" s="22">
         <v>134.0</v>
       </c>
-      <c r="L89" s="15">
+      <c r="K89" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6881,13 +6619,13 @@
         <v>88.0</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C90" s="23">
         <v>0.0</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E90" s="8">
         <v>2.0</v>
@@ -6898,19 +6636,16 @@
       <c r="G90" s="8">
         <v>0.0</v>
       </c>
-      <c r="H90" s="8">
-        <v>0.0</v>
+      <c r="H90" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="K90" s="22">
+        <v>308</v>
+      </c>
+      <c r="J90" s="22">
         <v>135.0</v>
       </c>
-      <c r="L90" s="15">
+      <c r="K90" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6919,13 +6654,13 @@
         <v>89.0</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C91" s="21">
         <v>0.0</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E91" s="8">
         <v>2.0</v>
@@ -6936,19 +6671,16 @@
       <c r="G91" s="8">
         <v>0.0</v>
       </c>
-      <c r="H91" s="8">
-        <v>0.0</v>
+      <c r="H91" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="K91" s="22">
+        <v>312</v>
+      </c>
+      <c r="J91" s="22">
         <v>136.0</v>
       </c>
-      <c r="L91" s="15">
+      <c r="K91" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6957,13 +6689,13 @@
         <v>90.0</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C92" s="21">
         <v>0.0</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E92" s="8">
         <v>2.0</v>
@@ -6974,17 +6706,14 @@
       <c r="G92" s="8">
         <v>0.0</v>
       </c>
-      <c r="H92" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22">
+      <c r="H92" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22">
         <v>137.0</v>
       </c>
-      <c r="L92" s="15">
+      <c r="K92" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -6993,13 +6722,13 @@
         <v>91.0</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C93" s="21">
         <v>0.0</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E93" s="8">
         <v>2.0</v>
@@ -7010,17 +6739,14 @@
       <c r="G93" s="8">
         <v>0.0</v>
       </c>
-      <c r="H93" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22">
+      <c r="H93" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22">
         <v>147.0</v>
       </c>
-      <c r="L93" s="15">
+      <c r="K93" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7029,13 +6755,13 @@
         <v>92.0</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C94" s="21">
         <v>0.0</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E94" s="8">
         <v>2.0</v>
@@ -7046,17 +6772,14 @@
       <c r="G94" s="8">
         <v>0.0</v>
       </c>
-      <c r="H94" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22">
+      <c r="H94" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22">
         <v>148.0</v>
       </c>
-      <c r="L94" s="15">
+      <c r="K94" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7065,13 +6788,13 @@
         <v>93.0</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C95" s="21">
         <v>0.0</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E95" s="8">
         <v>2.0</v>
@@ -7082,17 +6805,14 @@
       <c r="G95" s="8">
         <v>0.0</v>
       </c>
-      <c r="H95" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22">
+      <c r="H95" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22">
         <v>149.0</v>
       </c>
-      <c r="L95" s="15">
+      <c r="K95" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7101,13 +6821,13 @@
         <v>94.0</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C96" s="21">
         <v>0.0</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E96" s="8">
         <v>2.0</v>
@@ -7118,17 +6838,14 @@
       <c r="G96" s="8">
         <v>0.0</v>
       </c>
-      <c r="H96" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22">
+      <c r="H96" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22">
         <v>150.0</v>
       </c>
-      <c r="L96" s="15">
+      <c r="K96" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7137,13 +6854,13 @@
         <v>95.0</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C97" s="21">
         <v>0.0</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E97" s="8">
         <v>2.0</v>
@@ -7154,17 +6871,14 @@
       <c r="G97" s="8">
         <v>0.0</v>
       </c>
-      <c r="H97" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22">
+      <c r="H97" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22">
         <v>151.0</v>
       </c>
-      <c r="L97" s="15">
+      <c r="K97" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7173,13 +6887,13 @@
         <v>96.0</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C98" s="21">
         <v>0.0</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E98" s="8">
         <v>2.0</v>
@@ -7190,19 +6904,16 @@
       <c r="G98" s="8">
         <v>0.0</v>
       </c>
-      <c r="H98" s="8">
-        <v>0.0</v>
+      <c r="H98" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="K98" s="22">
+        <v>332</v>
+      </c>
+      <c r="J98" s="22">
         <v>152.0</v>
       </c>
-      <c r="L98" s="15">
+      <c r="K98" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7211,13 +6922,13 @@
         <v>97.0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C99" s="21">
         <v>0.0</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E99" s="8">
         <v>2.0</v>
@@ -7228,19 +6939,16 @@
       <c r="G99" s="8">
         <v>0.0</v>
       </c>
-      <c r="H99" s="8">
-        <v>0.0</v>
+      <c r="H99" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="K99" s="22">
+        <v>335</v>
+      </c>
+      <c r="J99" s="22">
         <v>153.0</v>
       </c>
-      <c r="L99" s="15">
+      <c r="K99" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7249,13 +6957,13 @@
         <v>98.0</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C100" s="21">
         <v>0.0</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E100" s="8">
         <v>2.0</v>
@@ -7266,19 +6974,16 @@
       <c r="G100" s="8">
         <v>0.0</v>
       </c>
-      <c r="H100" s="8">
-        <v>0.0</v>
+      <c r="H100" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="K100" s="22">
+        <v>339</v>
+      </c>
+      <c r="J100" s="22">
         <v>154.0</v>
       </c>
-      <c r="L100" s="15">
+      <c r="K100" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7287,13 +6992,13 @@
         <v>99.0</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C101" s="21">
         <v>0.0</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E101" s="8">
         <v>2.0</v>
@@ -7304,19 +7009,16 @@
       <c r="G101" s="8">
         <v>0.0</v>
       </c>
-      <c r="H101" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="J101" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K101" s="22">
+      <c r="H101" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I101" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="22">
         <v>155.0</v>
       </c>
-      <c r="L101" s="15">
+      <c r="K101" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7325,13 +7027,13 @@
         <v>100.0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C102" s="21">
         <v>0.0</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E102" s="8">
         <v>2.0</v>
@@ -7342,19 +7044,16 @@
       <c r="G102" s="8">
         <v>0.0</v>
       </c>
-      <c r="H102" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J102" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K102" s="22">
+      <c r="H102" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I102" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="22">
         <v>156.0</v>
       </c>
-      <c r="L102" s="15">
+      <c r="K102" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7363,13 +7062,13 @@
         <v>101.0</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C103" s="21">
         <v>0.0</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E103" s="8">
         <v>2.0</v>
@@ -7380,19 +7079,16 @@
       <c r="G103" s="8">
         <v>0.0</v>
       </c>
-      <c r="H103" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J103" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K103" s="22">
+      <c r="H103" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I103" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="22">
         <v>157.0</v>
       </c>
-      <c r="L103" s="15">
+      <c r="K103" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7401,13 +7097,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C104" s="21">
         <v>0.0</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E104" s="8">
         <v>2.0</v>
@@ -7418,19 +7114,16 @@
       <c r="G104" s="8">
         <v>0.0</v>
       </c>
-      <c r="H104" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="J104" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K104" s="22">
+      <c r="H104" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="I104" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="22">
         <v>158.0</v>
       </c>
-      <c r="L104" s="15">
+      <c r="K104" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7439,13 +7132,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C105" s="21">
         <v>0.0</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E105" s="8">
         <v>2.0</v>
@@ -7456,19 +7149,16 @@
       <c r="G105" s="8">
         <v>0.0</v>
       </c>
-      <c r="H105" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="J105" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K105" s="22">
+      <c r="H105" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I105" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="22">
         <v>159.0</v>
       </c>
-      <c r="L105" s="15">
+      <c r="K105" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7477,13 +7167,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C106" s="21">
         <v>0.0</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E106" s="8">
         <v>2.0</v>
@@ -7494,19 +7184,16 @@
       <c r="G106" s="8">
         <v>0.0</v>
       </c>
-      <c r="H106" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="J106" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K106" s="22">
+      <c r="H106" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="I106" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="22">
         <v>160.0</v>
       </c>
-      <c r="L106" s="15">
+      <c r="K106" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7515,13 +7202,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C107" s="21">
         <v>0.0</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E107" s="8">
         <v>2.0</v>
@@ -7532,19 +7219,16 @@
       <c r="G107" s="8">
         <v>0.0</v>
       </c>
-      <c r="H107" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="J107" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K107" s="22">
+      <c r="H107" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="I107" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="22">
         <v>161.0</v>
       </c>
-      <c r="L107" s="15">
+      <c r="K107" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7553,13 +7237,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" s="21">
         <v>0.0</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E108" s="8">
         <v>2.0</v>
@@ -7570,19 +7254,16 @@
       <c r="G108" s="8">
         <v>0.0</v>
       </c>
-      <c r="H108" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="J108" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K108" s="22">
+      <c r="H108" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="I108" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="22">
         <v>162.0</v>
       </c>
-      <c r="L108" s="15">
+      <c r="K108" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7591,13 +7272,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C109" s="21">
         <v>0.0</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E109" s="8">
         <v>2.0</v>
@@ -7608,19 +7289,16 @@
       <c r="G109" s="8">
         <v>0.0</v>
       </c>
-      <c r="H109" s="8">
-        <v>0.0</v>
+      <c r="H109" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="K109" s="22">
+        <v>365</v>
+      </c>
+      <c r="J109" s="22">
         <v>163.0</v>
       </c>
-      <c r="L109" s="15">
+      <c r="K109" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7629,13 +7307,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C110" s="21">
         <v>0.0</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E110" s="8">
         <v>2.0</v>
@@ -7646,19 +7324,16 @@
       <c r="G110" s="8">
         <v>0.0</v>
       </c>
-      <c r="H110" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="J110" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K110" s="22">
+      <c r="H110" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="I110" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="22">
         <v>164.0</v>
       </c>
-      <c r="L110" s="15">
+      <c r="K110" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7667,13 +7342,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C111" s="21">
         <v>0.0</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E111" s="8">
         <v>2.0</v>
@@ -7684,19 +7359,16 @@
       <c r="G111" s="8">
         <v>0.0</v>
       </c>
-      <c r="H111" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J111" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K111" s="22">
+      <c r="H111" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I111" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="22">
         <v>165.0</v>
       </c>
-      <c r="L111" s="15">
+      <c r="K111" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7705,13 +7377,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C112" s="21">
         <v>0.0</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E112" s="8">
         <v>2.0</v>
@@ -7722,19 +7394,16 @@
       <c r="G112" s="8">
         <v>0.0</v>
       </c>
-      <c r="H112" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J112" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K112" s="22">
+      <c r="H112" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I112" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="22">
         <v>166.0</v>
       </c>
-      <c r="L112" s="15">
+      <c r="K112" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7743,13 +7412,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C113" s="21">
         <v>0.0</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E113" s="8">
         <v>2.0</v>
@@ -7760,19 +7429,16 @@
       <c r="G113" s="8">
         <v>0.0</v>
       </c>
-      <c r="H113" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="J113" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K113" s="22">
+      <c r="H113" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I113" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="22">
         <v>167.0</v>
       </c>
-      <c r="L113" s="15">
+      <c r="K113" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7781,13 +7447,13 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C114" s="21">
         <v>0.0</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E114" s="8">
         <v>2.0</v>
@@ -7798,19 +7464,16 @@
       <c r="G114" s="8">
         <v>0.0</v>
       </c>
-      <c r="H114" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J114" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K114" s="22">
+      <c r="H114" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I114" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="22">
         <v>168.0</v>
       </c>
-      <c r="L114" s="15">
+      <c r="K114" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7819,13 +7482,13 @@
         <v>113.0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C115" s="21">
         <v>0.0</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E115" s="8">
         <v>2.0</v>
@@ -7836,19 +7499,16 @@
       <c r="G115" s="8">
         <v>0.0</v>
       </c>
-      <c r="H115" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J115" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K115" s="22">
+      <c r="H115" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="I115" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="22">
         <v>169.0</v>
       </c>
-      <c r="L115" s="15">
+      <c r="K115" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7857,13 +7517,13 @@
         <v>114.0</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C116" s="21">
         <v>0.0</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E116" s="8">
         <v>2.0</v>
@@ -7874,19 +7534,16 @@
       <c r="G116" s="8">
         <v>0.0</v>
       </c>
-      <c r="H116" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J116" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K116" s="22">
+      <c r="H116" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I116" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="22">
         <v>170.0</v>
       </c>
-      <c r="L116" s="15">
+      <c r="K116" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7895,13 +7552,13 @@
         <v>115.0</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C117" s="21">
         <v>0.0</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E117" s="8">
         <v>2.0</v>
@@ -7912,19 +7569,16 @@
       <c r="G117" s="8">
         <v>0.0</v>
       </c>
-      <c r="H117" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="J117" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K117" s="22">
+      <c r="H117" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I117" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="22">
         <v>171.0</v>
       </c>
-      <c r="L117" s="15">
+      <c r="K117" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7933,13 +7587,13 @@
         <v>116.0</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C118" s="21">
         <v>0.0</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E118" s="8">
         <v>2.0</v>
@@ -7950,19 +7604,16 @@
       <c r="G118" s="8">
         <v>0.0</v>
       </c>
-      <c r="H118" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J118" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K118" s="22">
+      <c r="H118" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I118" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="22">
         <v>172.0</v>
       </c>
-      <c r="L118" s="15">
+      <c r="K118" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -7971,13 +7622,13 @@
         <v>117.0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C119" s="21">
         <v>0.0</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E119" s="8">
         <v>2.0</v>
@@ -7988,19 +7639,16 @@
       <c r="G119" s="8">
         <v>0.0</v>
       </c>
-      <c r="H119" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="J119" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K119" s="22">
+      <c r="H119" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I119" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="22">
         <v>173.0</v>
       </c>
-      <c r="L119" s="15">
+      <c r="K119" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8009,13 +7657,13 @@
         <v>118.0</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C120" s="21">
         <v>0.0</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E120" s="8">
         <v>2.0</v>
@@ -8026,19 +7674,16 @@
       <c r="G120" s="8">
         <v>0.0</v>
       </c>
-      <c r="H120" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="J120" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K120" s="22">
+      <c r="H120" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I120" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="22">
         <v>174.0</v>
       </c>
-      <c r="L120" s="15">
+      <c r="K120" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8047,13 +7692,13 @@
         <v>119.0</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C121" s="21">
         <v>0.0</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E121" s="8">
         <v>2.0</v>
@@ -8064,19 +7709,16 @@
       <c r="G121" s="8">
         <v>0.0</v>
       </c>
-      <c r="H121" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="J121" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K121" s="22">
+      <c r="H121" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I121" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="22">
         <v>175.0</v>
       </c>
-      <c r="L121" s="15">
+      <c r="K121" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8085,13 +7727,13 @@
         <v>120.0</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C122" s="21">
         <v>0.0</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E122" s="8">
         <v>2.0</v>
@@ -8102,19 +7744,16 @@
       <c r="G122" s="8">
         <v>0.0</v>
       </c>
-      <c r="H122" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="J122" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K122" s="22">
+      <c r="H122" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="I122" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="22">
         <v>176.0</v>
       </c>
-      <c r="L122" s="15">
+      <c r="K122" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8123,13 +7762,13 @@
         <v>121.0</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C123" s="21">
         <v>0.0</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E123" s="8">
         <v>2.0</v>
@@ -8140,19 +7779,16 @@
       <c r="G123" s="8">
         <v>0.0</v>
       </c>
-      <c r="H123" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="J123" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K123" s="22">
+      <c r="H123" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="I123" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="22">
         <v>177.0</v>
       </c>
-      <c r="L123" s="15">
+      <c r="K123" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8161,13 +7797,13 @@
         <v>122.0</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C124" s="21">
         <v>0.0</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E124" s="8">
         <v>2.0</v>
@@ -8178,19 +7814,16 @@
       <c r="G124" s="8">
         <v>0.0</v>
       </c>
-      <c r="H124" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="J124" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K124" s="22">
+      <c r="H124" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="I124" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="22">
         <v>178.0</v>
       </c>
-      <c r="L124" s="15">
+      <c r="K124" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8199,13 +7832,13 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C125" s="21">
         <v>0.0</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E125" s="8">
         <v>2.0</v>
@@ -8216,19 +7849,16 @@
       <c r="G125" s="8">
         <v>0.0</v>
       </c>
-      <c r="H125" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="J125" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K125" s="22">
+      <c r="H125" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I125" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="22">
         <v>179.0</v>
       </c>
-      <c r="L125" s="15">
+      <c r="K125" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8237,13 +7867,13 @@
         <v>124.0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C126" s="21">
         <v>0.0</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E126" s="8">
         <v>2.0</v>
@@ -8254,19 +7884,16 @@
       <c r="G126" s="8">
         <v>0.0</v>
       </c>
-      <c r="H126" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="J126" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K126" s="22">
+      <c r="H126" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="I126" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="22">
         <v>180.0</v>
       </c>
-      <c r="L126" s="15">
+      <c r="K126" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8275,13 +7902,13 @@
         <v>125.0</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C127" s="21">
         <v>0.0</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E127" s="8">
         <v>2.0</v>
@@ -8292,19 +7919,16 @@
       <c r="G127" s="8">
         <v>0.0</v>
       </c>
-      <c r="H127" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="J127" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K127" s="22">
+      <c r="H127" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I127" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="22">
         <v>181.0</v>
       </c>
-      <c r="L127" s="15">
+      <c r="K127" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8313,13 +7937,13 @@
         <v>126.0</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C128" s="21">
         <v>0.0</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E128" s="8">
         <v>2.0</v>
@@ -8330,19 +7954,16 @@
       <c r="G128" s="8">
         <v>0.0</v>
       </c>
-      <c r="H128" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="J128" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K128" s="22">
+      <c r="H128" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="I128" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="22">
         <v>182.0</v>
       </c>
-      <c r="L128" s="15">
+      <c r="K128" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8351,13 +7972,13 @@
         <v>127.0</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C129" s="21">
         <v>0.0</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E129" s="8">
         <v>2.0</v>
@@ -8368,19 +7989,16 @@
       <c r="G129" s="8">
         <v>0.0</v>
       </c>
-      <c r="H129" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J129" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K129" s="22">
+      <c r="H129" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I129" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="22">
         <v>183.0</v>
       </c>
-      <c r="L129" s="15">
+      <c r="K129" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8389,13 +8007,13 @@
         <v>128.0</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C130" s="21">
         <v>0.0</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E130" s="8">
         <v>2.0</v>
@@ -8406,19 +8024,16 @@
       <c r="G130" s="8">
         <v>0.0</v>
       </c>
-      <c r="H130" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="J130" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K130" s="22">
+      <c r="H130" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I130" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="22">
         <v>184.0</v>
       </c>
-      <c r="L130" s="15">
+      <c r="K130" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8427,13 +8042,13 @@
         <v>129.0</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C131" s="21">
         <v>0.0</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E131" s="8">
         <v>2.0</v>
@@ -8444,19 +8059,16 @@
       <c r="G131" s="8">
         <v>0.0</v>
       </c>
-      <c r="H131" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J131" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K131" s="22">
+      <c r="H131" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I131" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="22">
         <v>185.0</v>
       </c>
-      <c r="L131" s="15">
+      <c r="K131" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8465,13 +8077,13 @@
         <v>130.0</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C132" s="21">
         <v>0.0</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E132" s="8">
         <v>2.0</v>
@@ -8482,19 +8094,16 @@
       <c r="G132" s="8">
         <v>0.0</v>
       </c>
-      <c r="H132" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="J132" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K132" s="22">
+      <c r="H132" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I132" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="22">
         <v>186.0</v>
       </c>
-      <c r="L132" s="15">
+      <c r="K132" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8503,13 +8112,13 @@
         <v>131.0</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C133" s="23">
         <v>0.0</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E133" s="8">
         <v>2.0</v>
@@ -8520,19 +8129,16 @@
       <c r="G133" s="8">
         <v>0.0</v>
       </c>
-      <c r="H133" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="J133" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K133" s="22">
+      <c r="H133" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I133" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="22">
         <v>187.0</v>
       </c>
-      <c r="L133" s="15">
+      <c r="K133" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8541,13 +8147,13 @@
         <v>132.0</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C134" s="21">
         <v>0.0</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E134" s="8">
         <v>2.0</v>
@@ -8558,19 +8164,16 @@
       <c r="G134" s="8">
         <v>0.0</v>
       </c>
-      <c r="H134" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="J134" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K134" s="22">
+      <c r="H134" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I134" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="22">
         <v>188.0</v>
       </c>
-      <c r="L134" s="15">
+      <c r="K134" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8579,13 +8182,13 @@
         <v>133.0</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C135" s="21">
         <v>0.0</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E135" s="8">
         <v>2.0</v>
@@ -8596,19 +8199,16 @@
       <c r="G135" s="8">
         <v>0.0</v>
       </c>
-      <c r="H135" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J135" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K135" s="22">
+      <c r="H135" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="I135" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="22">
         <v>189.0</v>
       </c>
-      <c r="L135" s="15">
+      <c r="K135" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8617,13 +8217,13 @@
         <v>134.0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C136" s="21">
         <v>0.0</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E136" s="8">
         <v>2.0</v>
@@ -8634,19 +8234,16 @@
       <c r="G136" s="8">
         <v>0.0</v>
       </c>
-      <c r="H136" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="J136" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K136" s="22">
+      <c r="H136" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I136" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="22">
         <v>190.0</v>
       </c>
-      <c r="L136" s="15">
+      <c r="K136" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8655,13 +8252,13 @@
         <v>135.0</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C137" s="21">
         <v>0.0</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E137" s="8">
         <v>2.0</v>
@@ -8672,19 +8269,16 @@
       <c r="G137" s="8">
         <v>0.0</v>
       </c>
-      <c r="H137" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J137" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K137" s="22">
+      <c r="H137" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I137" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="22">
         <v>191.0</v>
       </c>
-      <c r="L137" s="15">
+      <c r="K137" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8693,13 +8287,13 @@
         <v>136.0</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C138" s="21">
         <v>0.0</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E138" s="8">
         <v>2.0</v>
@@ -8710,19 +8304,16 @@
       <c r="G138" s="8">
         <v>0.0</v>
       </c>
-      <c r="H138" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J138" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K138" s="22">
+      <c r="H138" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I138" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="22">
         <v>192.0</v>
       </c>
-      <c r="L138" s="15">
+      <c r="K138" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8731,13 +8322,13 @@
         <v>137.0</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C139" s="21">
         <v>0.0</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E139" s="8">
         <v>2.0</v>
@@ -8748,19 +8339,16 @@
       <c r="G139" s="8">
         <v>0.0</v>
       </c>
-      <c r="H139" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J139" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K139" s="22">
+      <c r="H139" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I139" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="22">
         <v>204.0</v>
       </c>
-      <c r="L139" s="15">
+      <c r="K139" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8769,13 +8357,13 @@
         <v>138.0</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C140" s="21">
         <v>0.0</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E140" s="8">
         <v>2.0</v>
@@ -8786,19 +8374,16 @@
       <c r="G140" s="8">
         <v>0.0</v>
       </c>
-      <c r="H140" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="J140" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K140" s="22">
+      <c r="H140" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="I140" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="22">
         <v>205.0</v>
       </c>
-      <c r="L140" s="15">
+      <c r="K140" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8807,13 +8392,13 @@
         <v>139.0</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C141" s="21">
         <v>0.0</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E141" s="8">
         <v>2.0</v>
@@ -8824,19 +8409,16 @@
       <c r="G141" s="8">
         <v>0.0</v>
       </c>
-      <c r="H141" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="J141" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K141" s="22">
+      <c r="H141" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I141" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="22">
         <v>206.0</v>
       </c>
-      <c r="L141" s="15">
+      <c r="K141" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8845,13 +8427,13 @@
         <v>140.0</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C142" s="23">
         <v>0.0</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E142" s="8">
         <v>2.0</v>
@@ -8862,19 +8444,16 @@
       <c r="G142" s="8">
         <v>0.0</v>
       </c>
-      <c r="H142" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="J142" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K142" s="22">
+      <c r="H142" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I142" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="22">
         <v>207.0</v>
       </c>
-      <c r="L142" s="15">
+      <c r="K142" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8883,13 +8462,13 @@
         <v>141.0</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C143" s="21">
         <v>0.0</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E143" s="8">
         <v>2.0</v>
@@ -8900,19 +8479,16 @@
       <c r="G143" s="8">
         <v>0.0</v>
       </c>
-      <c r="H143" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="J143" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K143" s="22">
+      <c r="H143" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I143" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="22">
         <v>208.0</v>
       </c>
-      <c r="L143" s="15">
+      <c r="K143" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8921,13 +8497,13 @@
         <v>142.0</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C144" s="21">
         <v>0.0</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E144" s="8">
         <v>2.0</v>
@@ -8938,19 +8514,16 @@
       <c r="G144" s="8">
         <v>0.0</v>
       </c>
-      <c r="H144" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="J144" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K144" s="22">
+      <c r="H144" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I144" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="22">
         <v>209.0</v>
       </c>
-      <c r="L144" s="15">
+      <c r="K144" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8959,13 +8532,13 @@
         <v>143.0</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C145" s="21">
         <v>0.0</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E145" s="8">
         <v>2.0</v>
@@ -8976,19 +8549,16 @@
       <c r="G145" s="8">
         <v>0.0</v>
       </c>
-      <c r="H145" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="J145" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K145" s="22">
+      <c r="H145" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="I145" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="22">
         <v>210.0</v>
       </c>
-      <c r="L145" s="15">
+      <c r="K145" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -8997,13 +8567,13 @@
         <v>144.0</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C146" s="21">
         <v>0.0</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E146" s="8">
         <v>2.0</v>
@@ -9014,19 +8584,16 @@
       <c r="G146" s="8">
         <v>0.0</v>
       </c>
-      <c r="H146" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="J146" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K146" s="22">
+      <c r="H146" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="I146" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="22">
         <v>211.0</v>
       </c>
-      <c r="L146" s="15">
+      <c r="K146" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9035,13 +8602,13 @@
         <v>145.0</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C147" s="21">
         <v>0.0</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E147" s="8">
         <v>2.0</v>
@@ -9052,19 +8619,16 @@
       <c r="G147" s="8">
         <v>0.0</v>
       </c>
-      <c r="H147" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I147" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="J147" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K147" s="22">
+      <c r="H147" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I147" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="22">
         <v>212.0</v>
       </c>
-      <c r="L147" s="15">
+      <c r="K147" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9073,13 +8637,13 @@
         <v>146.0</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C148" s="21">
         <v>0.0</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E148" s="8">
         <v>2.0</v>
@@ -9090,19 +8654,16 @@
       <c r="G148" s="8">
         <v>0.0</v>
       </c>
-      <c r="H148" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="J148" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K148" s="22">
+      <c r="H148" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="I148" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="22">
         <v>213.0</v>
       </c>
-      <c r="L148" s="15">
+      <c r="K148" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9111,13 +8672,13 @@
         <v>147.0</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C149" s="21">
         <v>0.0</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E149" s="8">
         <v>2.0</v>
@@ -9128,19 +8689,16 @@
       <c r="G149" s="8">
         <v>0.0</v>
       </c>
-      <c r="H149" s="8">
-        <v>0.0</v>
+      <c r="H149" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="J149" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="K149" s="22">
+        <v>479</v>
+      </c>
+      <c r="J149" s="22">
         <v>214.0</v>
       </c>
-      <c r="L149" s="15">
+      <c r="K149" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9149,13 +8707,13 @@
         <v>148.0</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C150" s="21">
         <v>0.0</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E150" s="8">
         <v>2.0</v>
@@ -9166,19 +8724,16 @@
       <c r="G150" s="8">
         <v>0.0</v>
       </c>
-      <c r="H150" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="J150" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K150" s="22">
+      <c r="H150" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="I150" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="22">
         <v>215.0</v>
       </c>
-      <c r="L150" s="15">
+      <c r="K150" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9187,13 +8742,13 @@
         <v>149.0</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C151" s="21">
         <v>0.0</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E151" s="8">
         <v>2.0</v>
@@ -9204,19 +8759,16 @@
       <c r="G151" s="8">
         <v>0.0</v>
       </c>
-      <c r="H151" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I151" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="J151" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K151" s="22">
+      <c r="H151" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="I151" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="22">
         <v>216.0</v>
       </c>
-      <c r="L151" s="15">
+      <c r="K151" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9225,13 +8777,13 @@
         <v>150.0</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C152" s="21">
         <v>0.0</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E152" s="8">
         <v>2.0</v>
@@ -9242,19 +8794,16 @@
       <c r="G152" s="8">
         <v>0.0</v>
       </c>
-      <c r="H152" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I152" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="J152" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K152" s="22">
+      <c r="H152" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="I152" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="22">
         <v>217.0</v>
       </c>
-      <c r="L152" s="15">
+      <c r="K152" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9263,13 +8812,13 @@
         <v>151.0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C153" s="21">
         <v>0.0</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E153" s="8">
         <v>2.0</v>
@@ -9280,19 +8829,16 @@
       <c r="G153" s="8">
         <v>0.0</v>
       </c>
-      <c r="H153" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="J153" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K153" s="22">
+      <c r="H153" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="I153" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="22">
         <v>218.0</v>
       </c>
-      <c r="L153" s="15">
+      <c r="K153" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9301,13 +8847,13 @@
         <v>152.0</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C154" s="21">
         <v>0.0</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E154" s="8">
         <v>2.0</v>
@@ -9318,19 +8864,16 @@
       <c r="G154" s="8">
         <v>0.0</v>
       </c>
-      <c r="H154" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="J154" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K154" s="22">
+      <c r="H154" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="I154" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="22">
         <v>219.0</v>
       </c>
-      <c r="L154" s="15">
+      <c r="K154" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9339,13 +8882,13 @@
         <v>153.0</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C155" s="23">
         <v>0.0</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E155" s="8">
         <v>2.0</v>
@@ -9356,19 +8899,16 @@
       <c r="G155" s="8">
         <v>0.0</v>
       </c>
-      <c r="H155" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J155" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K155" s="22">
+      <c r="H155" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="I155" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J155" s="22">
         <v>220.0</v>
       </c>
-      <c r="L155" s="15">
+      <c r="K155" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9377,13 +8917,13 @@
         <v>154.0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C156" s="21">
         <v>0.0</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E156" s="8">
         <v>2.0</v>
@@ -9394,19 +8934,16 @@
       <c r="G156" s="8">
         <v>0.0</v>
       </c>
-      <c r="H156" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I156" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="J156" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K156" s="22">
+      <c r="H156" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I156" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J156" s="22">
         <v>221.0</v>
       </c>
-      <c r="L156" s="15">
+      <c r="K156" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9415,13 +8952,13 @@
         <v>155.0</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C157" s="21">
         <v>0.0</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E157" s="8">
         <v>2.0</v>
@@ -9432,19 +8969,16 @@
       <c r="G157" s="8">
         <v>0.0</v>
       </c>
-      <c r="H157" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="J157" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K157" s="22">
+      <c r="H157" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="I157" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J157" s="22">
         <v>222.0</v>
       </c>
-      <c r="L157" s="15">
+      <c r="K157" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9453,13 +8987,13 @@
         <v>156.0</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C158" s="21">
         <v>0.0</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E158" s="8">
         <v>2.0</v>
@@ -9470,19 +9004,16 @@
       <c r="G158" s="8">
         <v>0.0</v>
       </c>
-      <c r="H158" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="J158" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K158" s="22">
+      <c r="H158" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="I158" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J158" s="22">
         <v>223.0</v>
       </c>
-      <c r="L158" s="15">
+      <c r="K158" s="15">
         <v>0.0</v>
       </c>
     </row>
@@ -9491,13 +9022,13 @@
         <v>157.0</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C159" s="8">
         <v>0.0</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E159" s="8">
         <v>2.0</v>
@@ -9508,19 +9039,16 @@
       <c r="G159" s="8">
         <v>0.0</v>
       </c>
-      <c r="H159" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="J159" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K159" s="8">
+      <c r="H159" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="I159" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J159" s="8">
         <v>227.0</v>
       </c>
-      <c r="L159" s="15">
+      <c r="K159" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9529,13 +9057,13 @@
         <v>158.0</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C160" s="25">
         <v>0.0</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E160" s="8">
         <v>2.0</v>
@@ -9546,19 +9074,16 @@
       <c r="G160" s="8">
         <v>0.0</v>
       </c>
-      <c r="H160" s="8">
-        <v>0.0</v>
+      <c r="H160" s="8" t="s">
+        <v>508</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="J160" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="K160" s="8">
+        <v>509</v>
+      </c>
+      <c r="J160" s="8">
         <v>199.0</v>
       </c>
-      <c r="L160" s="15">
+      <c r="K160" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9567,13 +9092,13 @@
         <v>159.0</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C161" s="25">
         <v>0.0</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E161" s="8">
         <v>2.0</v>
@@ -9584,19 +9109,16 @@
       <c r="G161" s="8">
         <v>0.0</v>
       </c>
-      <c r="H161" s="8">
-        <v>0.0</v>
+      <c r="H161" s="8" t="s">
+        <v>512</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="J161" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="K161" s="8">
+        <v>513</v>
+      </c>
+      <c r="J161" s="8">
         <v>112.0</v>
       </c>
-      <c r="L161" s="15">
+      <c r="K161" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9605,13 +9127,13 @@
         <v>160.0</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C162" s="25">
         <v>0.0</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E162" s="8">
         <v>2.0</v>
@@ -9622,19 +9144,16 @@
       <c r="G162" s="8">
         <v>0.0</v>
       </c>
-      <c r="H162" s="8">
-        <v>0.0</v>
+      <c r="H162" s="8" t="s">
+        <v>516</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="J162" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="K162" s="8">
+        <v>517</v>
+      </c>
+      <c r="J162" s="8">
         <v>143.0</v>
       </c>
-      <c r="L162" s="15">
+      <c r="K162" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9643,13 +9162,13 @@
         <v>161.0</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C163" s="25">
         <v>0.0</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E163" s="8">
         <v>2.0</v>
@@ -9660,19 +9179,16 @@
       <c r="G163" s="8">
         <v>0.0</v>
       </c>
-      <c r="H163" s="8">
-        <v>0.0</v>
+      <c r="H163" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="J163" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="K163" s="8">
+        <v>521</v>
+      </c>
+      <c r="J163" s="8">
         <v>146.0</v>
       </c>
-      <c r="L163" s="15">
+      <c r="K163" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -9681,13 +9197,13 @@
         <v>162.0</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C164" s="25">
         <v>0.0</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E164" s="8">
         <v>2.0</v>
@@ -9698,19 +9214,16 @@
       <c r="G164" s="8">
         <v>0.0</v>
       </c>
-      <c r="H164" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I164" s="8" t="s">
-        <v>195</v>
+      <c r="H164" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I164" s="8">
+        <v>0.0</v>
       </c>
       <c r="J164" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K164" s="8">
         <v>18.0</v>
       </c>
-      <c r="L164" s="15">
+      <c r="K164" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9719,13 +9232,13 @@
         <v>163.0</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C165" s="8">
         <v>0.0</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E165" s="8">
         <v>2.0</v>
@@ -9736,19 +9249,16 @@
       <c r="G165" s="8">
         <v>0.0</v>
       </c>
-      <c r="H165" s="8">
-        <v>0.0</v>
+      <c r="H165" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="J165" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="K165" s="8">
+        <v>527</v>
+      </c>
+      <c r="J165" s="8">
         <v>201.0</v>
       </c>
-      <c r="L165" s="15">
+      <c r="K165" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9757,13 +9267,13 @@
         <v>164.0</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C166" s="8">
         <v>0.0</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E166" s="8">
         <v>2.0</v>
@@ -9774,19 +9284,16 @@
       <c r="G166" s="8">
         <v>0.0</v>
       </c>
-      <c r="H166" s="8">
-        <v>0.0</v>
+      <c r="H166" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="J166" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="K166" s="8">
+        <v>531</v>
+      </c>
+      <c r="J166" s="8">
         <v>86.0</v>
       </c>
-      <c r="L166" s="15">
+      <c r="K166" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9795,13 +9302,13 @@
         <v>165.0</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C167" s="8">
         <v>0.0</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E167" s="8">
         <v>2.0</v>
@@ -9812,19 +9319,16 @@
       <c r="G167" s="8">
         <v>0.0</v>
       </c>
-      <c r="H167" s="8">
-        <v>0.0</v>
+      <c r="H167" s="8" t="s">
+        <v>534</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="J167" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="K167" s="8">
+        <v>535</v>
+      </c>
+      <c r="J167" s="8">
         <v>141.0</v>
       </c>
-      <c r="L167" s="15">
+      <c r="K167" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9833,13 +9337,13 @@
         <v>166.0</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C168" s="19">
         <v>0.0</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E168" s="8">
         <v>2.0</v>
@@ -9850,19 +9354,16 @@
       <c r="G168" s="8">
         <v>0.0</v>
       </c>
-      <c r="H168" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I168" s="8" t="s">
-        <v>537</v>
+      <c r="H168" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="I168" s="8">
+        <v>0.0</v>
       </c>
       <c r="J168" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K168" s="8">
         <v>107.0</v>
       </c>
-      <c r="L168" s="15">
+      <c r="K168" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -9871,13 +9372,13 @@
         <v>167.0</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C169" s="8">
         <v>0.0</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E169" s="8">
         <v>2.0</v>
@@ -9888,19 +9389,16 @@
       <c r="G169" s="8">
         <v>0.0</v>
       </c>
-      <c r="H169" s="8">
-        <v>0.0</v>
+      <c r="H169" s="8" t="s">
+        <v>541</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="J169" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="K169" s="8">
+        <v>542</v>
+      </c>
+      <c r="J169" s="8">
         <v>81.0</v>
       </c>
-      <c r="L169" s="15">
+      <c r="K169" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9909,13 +9407,13 @@
         <v>168.0</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C170" s="8">
         <v>0.0</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E170" s="8">
         <v>2.0</v>
@@ -9926,19 +9424,16 @@
       <c r="G170" s="8">
         <v>0.0</v>
       </c>
-      <c r="H170" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="J170" s="27">
+      <c r="H170" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="I170" s="27">
         <v>35107.0</v>
       </c>
-      <c r="K170" s="8">
+      <c r="J170" s="8">
         <v>108.0</v>
       </c>
-      <c r="L170" s="15">
+      <c r="K170" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9947,13 +9442,13 @@
         <v>169.0</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C171" s="8">
         <v>0.0</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E171" s="8">
         <v>2.0</v>
@@ -9964,19 +9459,16 @@
       <c r="G171" s="8">
         <v>0.0</v>
       </c>
-      <c r="H171" s="8">
-        <v>0.0</v>
+      <c r="H171" s="8" t="s">
+        <v>548</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="J171" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="K171" s="8">
+        <v>549</v>
+      </c>
+      <c r="J171" s="8">
         <v>139.0</v>
       </c>
-      <c r="L171" s="15">
+      <c r="K171" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -9985,13 +9477,13 @@
         <v>170.0</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C172" s="8">
         <v>0.0</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E172" s="8">
         <v>2.0</v>
@@ -10002,19 +9494,16 @@
       <c r="G172" s="8">
         <v>0.0</v>
       </c>
-      <c r="H172" s="8">
-        <v>0.0</v>
+      <c r="H172" s="8" t="s">
+        <v>552</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="J172" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="K172" s="8">
+        <v>553</v>
+      </c>
+      <c r="J172" s="8">
         <v>194.0</v>
       </c>
-      <c r="L172" s="15">
+      <c r="K172" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10023,13 +9512,13 @@
         <v>171.0</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C173" s="8">
         <v>0.0</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E173" s="8">
         <v>2.0</v>
@@ -10040,19 +9529,16 @@
       <c r="G173" s="8">
         <v>0.0</v>
       </c>
-      <c r="H173" s="8">
-        <v>0.0</v>
+      <c r="H173" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="J173" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="K173" s="8">
+        <v>557</v>
+      </c>
+      <c r="J173" s="8">
         <v>83.0</v>
       </c>
-      <c r="L173" s="15">
+      <c r="K173" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10061,13 +9547,13 @@
         <v>172.0</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C174" s="25">
         <v>0.0</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E174" s="8">
         <v>2.0</v>
@@ -10078,19 +9564,16 @@
       <c r="G174" s="8">
         <v>0.0</v>
       </c>
-      <c r="H174" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I174" s="8" t="s">
-        <v>559</v>
+      <c r="H174" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="I174" s="8">
+        <v>0.0</v>
       </c>
       <c r="J174" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K174" s="8">
         <v>228.0</v>
       </c>
-      <c r="L174" s="15">
+      <c r="K174" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10099,13 +9582,13 @@
         <v>173.0</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C175" s="8">
         <v>0.0</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E175" s="8">
         <v>2.0</v>
@@ -10116,19 +9599,16 @@
       <c r="G175" s="8">
         <v>0.0</v>
       </c>
-      <c r="H175" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I175" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="J175" s="17" t="s">
+      <c r="H175" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="K175" s="8">
+      <c r="I175" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="J175" s="8">
         <v>197.0</v>
       </c>
-      <c r="L175" s="15">
+      <c r="K175" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10137,13 +9617,13 @@
         <v>174.0</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C176" s="8">
         <v>0.0</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E176" s="8">
         <v>2.0</v>
@@ -10154,19 +9634,16 @@
       <c r="G176" s="8">
         <v>0.0</v>
       </c>
-      <c r="H176" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="J176" s="17" t="s">
+      <c r="H176" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="K176" s="8">
+      <c r="I176" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="J176" s="8">
         <v>226.0</v>
       </c>
-      <c r="L176" s="15">
+      <c r="K176" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10175,13 +9652,13 @@
         <v>175.0</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C177" s="8">
         <v>0.0</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E177" s="8">
         <v>2.0</v>
@@ -10192,19 +9669,16 @@
       <c r="G177" s="8">
         <v>0.0</v>
       </c>
-      <c r="H177" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="J177" s="17" t="s">
+      <c r="H177" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="K177" s="8">
+      <c r="I177" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="J177" s="8">
         <v>225.0</v>
       </c>
-      <c r="L177" s="15">
+      <c r="K177" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10213,13 +9687,13 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C178" s="8">
         <v>0.0</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E178" s="8">
         <v>2.0</v>
@@ -10230,19 +9704,16 @@
       <c r="G178" s="8">
         <v>0.0</v>
       </c>
-      <c r="H178" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I178" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="J178" s="17" t="s">
+      <c r="H178" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="K178" s="8">
+      <c r="I178" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="J178" s="8">
         <v>111.0</v>
       </c>
-      <c r="L178" s="15">
+      <c r="K178" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10251,13 +9722,13 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C179" s="25">
         <v>0.0</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E179" s="8">
         <v>2.0</v>
@@ -10268,19 +9739,16 @@
       <c r="G179" s="8">
         <v>0.0</v>
       </c>
-      <c r="H179" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I179" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="J179" s="17" t="s">
+      <c r="H179" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="K179" s="8">
+      <c r="I179" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="J179" s="8">
         <v>145.0</v>
       </c>
-      <c r="L179" s="15">
+      <c r="K179" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10289,13 +9757,13 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C180" s="25">
         <v>0.0</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E180" s="8">
         <v>2.0</v>
@@ -10306,19 +9774,16 @@
       <c r="G180" s="8">
         <v>0.0</v>
       </c>
-      <c r="H180" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I180" s="8" t="s">
-        <v>582</v>
+      <c r="H180" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="I180" s="8">
+        <v>0.0</v>
       </c>
       <c r="J180" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K180" s="8">
         <v>109.0</v>
       </c>
-      <c r="L180" s="15">
+      <c r="K180" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -10327,13 +9792,13 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C181" s="8">
         <v>0.0</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E181" s="8">
         <v>2.0</v>
@@ -10344,19 +9809,16 @@
       <c r="G181" s="8">
         <v>0.0</v>
       </c>
-      <c r="H181" s="8">
-        <v>0.0</v>
+      <c r="H181" s="8" t="s">
+        <v>586</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="J181" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="K181" s="8">
+        <v>587</v>
+      </c>
+      <c r="J181" s="8">
         <v>198.0</v>
       </c>
-      <c r="L181" s="15">
+      <c r="K181" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10365,13 +9827,13 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C182" s="8">
         <v>0.0</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E182" s="8">
         <v>2.0</v>
@@ -10382,19 +9844,16 @@
       <c r="G182" s="8">
         <v>0.0</v>
       </c>
-      <c r="H182" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I182" s="8" t="s">
-        <v>589</v>
+      <c r="H182" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="I182" s="8">
+        <v>0.0</v>
       </c>
       <c r="J182" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K182" s="8">
         <v>144.0</v>
       </c>
-      <c r="L182" s="15">
+      <c r="K182" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -10403,13 +9862,13 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C183" s="8">
         <v>0.0</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E183" s="8">
         <v>2.0</v>
@@ -10420,19 +9879,16 @@
       <c r="G183" s="8">
         <v>0.0</v>
       </c>
-      <c r="H183" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I183" s="8" t="s">
-        <v>592</v>
+      <c r="H183" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="I183" s="8">
+        <v>0.0</v>
       </c>
       <c r="J183" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K183" s="8">
         <v>110.0</v>
       </c>
-      <c r="L183" s="15">
+      <c r="K183" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10441,13 +9897,13 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C184" s="8">
         <v>0.0</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E184" s="8">
         <v>2.0</v>
@@ -10458,19 +9914,16 @@
       <c r="G184" s="8">
         <v>0.0</v>
       </c>
-      <c r="H184" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I184" s="8" t="s">
-        <v>495</v>
+      <c r="H184" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I184" s="8">
+        <v>0.0</v>
       </c>
       <c r="J184" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K184" s="8">
         <v>64.0</v>
       </c>
-      <c r="L184" s="15">
+      <c r="K184" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -10479,13 +9932,13 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C185" s="25">
         <v>0.0</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E185" s="8">
         <v>2.0</v>
@@ -10496,19 +9949,16 @@
       <c r="G185" s="8">
         <v>0.0</v>
       </c>
-      <c r="H185" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I185" s="8" t="s">
-        <v>465</v>
+      <c r="H185" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="I185" s="8">
+        <v>0.0</v>
       </c>
       <c r="J185" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K185" s="8">
         <v>210.0</v>
       </c>
-      <c r="L185" s="15">
+      <c r="K185" s="15">
         <v>40.0</v>
       </c>
     </row>
@@ -10517,13 +9967,13 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C186" s="25">
         <v>0.0</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E186" s="8">
         <v>2.0</v>
@@ -10534,19 +9984,16 @@
       <c r="G186" s="8">
         <v>0.0</v>
       </c>
-      <c r="H186" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I186" s="8" t="s">
-        <v>598</v>
+      <c r="H186" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="I186" s="8">
+        <v>0.0</v>
       </c>
       <c r="J186" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K186" s="8">
         <v>202.0</v>
       </c>
-      <c r="L186" s="15">
+      <c r="K186" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10555,13 +10002,13 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C187" s="8">
         <v>0.0</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E187" s="8">
         <v>2.0</v>
@@ -10572,19 +10019,16 @@
       <c r="G187" s="8">
         <v>0.0</v>
       </c>
-      <c r="H187" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I187" s="8" t="s">
-        <v>601</v>
+      <c r="H187" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="I187" s="8">
+        <v>0.0</v>
       </c>
       <c r="J187" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K187" s="8">
         <v>138.0</v>
       </c>
-      <c r="L187" s="15">
+      <c r="K187" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10593,13 +10037,13 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C188" s="8">
         <v>0.0</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E188" s="8">
         <v>2.0</v>
@@ -10610,19 +10054,16 @@
       <c r="G188" s="8">
         <v>0.0</v>
       </c>
-      <c r="H188" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I188" s="8" t="s">
-        <v>604</v>
+      <c r="H188" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="I188" s="8">
+        <v>0.0</v>
       </c>
       <c r="J188" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K188" s="8">
         <v>142.0</v>
       </c>
-      <c r="L188" s="15">
+      <c r="K188" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10631,13 +10072,13 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C189" s="8">
         <v>0.0</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E189" s="8">
         <v>2.0</v>
@@ -10648,19 +10089,16 @@
       <c r="G189" s="8">
         <v>0.0</v>
       </c>
-      <c r="H189" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I189" s="8" t="s">
-        <v>607</v>
+      <c r="H189" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="I189" s="8">
+        <v>0.0</v>
       </c>
       <c r="J189" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K189" s="8">
         <v>196.0</v>
       </c>
-      <c r="L189" s="15">
+      <c r="K189" s="15">
         <v>70.0</v>
       </c>
     </row>
@@ -10669,13 +10107,13 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C190" s="25">
         <v>0.0</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E190" s="8">
         <v>2.0</v>
@@ -10686,19 +10124,16 @@
       <c r="G190" s="8">
         <v>0.0</v>
       </c>
-      <c r="H190" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I190" s="8" t="s">
-        <v>610</v>
+      <c r="H190" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="I190" s="8">
+        <v>0.0</v>
       </c>
       <c r="J190" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K190" s="8">
         <v>195.0</v>
       </c>
-      <c r="L190" s="15">
+      <c r="K190" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10707,13 +10142,13 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C191" s="25">
         <v>0.0</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E191" s="8">
         <v>2.0</v>
@@ -10724,19 +10159,16 @@
       <c r="G191" s="8">
         <v>0.0</v>
       </c>
-      <c r="H191" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I191" s="8" t="s">
-        <v>613</v>
+      <c r="H191" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I191" s="8">
+        <v>0.0</v>
       </c>
       <c r="J191" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K191" s="8">
         <v>113.0</v>
       </c>
-      <c r="L191" s="15">
+      <c r="K191" s="15">
         <v>60.0</v>
       </c>
     </row>
@@ -10745,13 +10177,13 @@
         <v>190.0</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C192" s="25">
         <v>0.0</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E192" s="8">
         <v>2.0</v>
@@ -10762,19 +10194,16 @@
       <c r="G192" s="8">
         <v>0.0</v>
       </c>
-      <c r="H192" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I192" s="8" t="s">
-        <v>616</v>
+      <c r="H192" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="I192" s="8">
+        <v>0.0</v>
       </c>
       <c r="J192" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K192" s="8">
         <v>193.0</v>
       </c>
-      <c r="L192" s="15">
+      <c r="K192" s="15">
         <v>60.0</v>
       </c>
     </row>
